--- a/plot/4_winsT_120_fcType_4.xlsx
+++ b/plot/4_winsT_120_fcType_4.xlsx
@@ -502,7 +502,7 @@
         <v>-0.2253122502439469</v>
       </c>
       <c r="L2">
-        <v>-0.499965102470717</v>
+        <v>-0.4999651024707167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -540,7 +540,7 @@
         <v>-0.2188485482940973</v>
       </c>
       <c r="L3">
-        <v>-0.5843946931262995</v>
+        <v>-0.5843946931263002</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -584,7 +584,7 @@
         <v>-0.2202523456931224</v>
       </c>
       <c r="L4">
-        <v>-0.748815448366108</v>
+        <v>-0.7488154483661086</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>-0.1932987546854645</v>
       </c>
       <c r="L5">
-        <v>-0.9421601108184756</v>
+        <v>-0.9421601108184771</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>-0.1175620258798323</v>
       </c>
       <c r="L6">
-        <v>-0.9949630282218626</v>
+        <v>-0.994963028221863</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>0.04648708410937535</v>
       </c>
       <c r="L7">
-        <v>0.006200039700626695</v>
+        <v>0.006200039700627165</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>0.06664205461935524</v>
       </c>
       <c r="L8">
-        <v>0.1798202343656605</v>
+        <v>0.1798202343656602</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -804,10 +804,10 @@
         <v>0.05885402895870448</v>
       </c>
       <c r="L9">
-        <v>0.07074278530012151</v>
+        <v>0.07074278530012129</v>
       </c>
       <c r="M9">
-        <v>0.3717467643900378</v>
+        <v>0.3717467643900355</v>
       </c>
       <c r="N9">
         <v>0.5</v>
@@ -848,10 +848,10 @@
         <v>0.008202489767812323</v>
       </c>
       <c r="L10">
-        <v>-0.3875376662953088</v>
+        <v>-0.3875376662953087</v>
       </c>
       <c r="M10">
-        <v>0.3503433235489959</v>
+        <v>0.3503433235489958</v>
       </c>
       <c r="N10">
         <v>0.5</v>
@@ -892,7 +892,7 @@
         <v>0.1164541898365359</v>
       </c>
       <c r="L11">
-        <v>0.2737467839831443</v>
+        <v>0.2737467839831441</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0.1455037810024006</v>
       </c>
       <c r="L12">
-        <v>0.6106841341121493</v>
+        <v>0.6106841341121495</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.1415163757680722</v>
       </c>
       <c r="L13">
-        <v>0.4631327253550948</v>
+        <v>0.4631327253550945</v>
       </c>
       <c r="M13">
-        <v>0.7559052254291343</v>
+        <v>0.7559052254291335</v>
       </c>
       <c r="N13">
         <v>0.5</v>
@@ -1024,7 +1024,7 @@
         <v>0.1562909329759181</v>
       </c>
       <c r="L14">
-        <v>0.7561260341882828</v>
+        <v>0.7561260341882825</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1247,7 +1247,7 @@
         <v>1.641866134097773</v>
       </c>
       <c r="M19">
-        <v>0.8295313672921697</v>
+        <v>0.8295313672921704</v>
       </c>
       <c r="N19">
         <v>0.5</v>
@@ -1288,7 +1288,7 @@
         <v>0.2306446974260711</v>
       </c>
       <c r="L20">
-        <v>1.794022676047669</v>
+        <v>1.794022676047668</v>
       </c>
       <c r="M20">
         <v>0.9217883946308811</v>
@@ -1332,7 +1332,7 @@
         <v>0.2542533956501676</v>
       </c>
       <c r="L21">
-        <v>2.19603971605745</v>
+        <v>2.196039716057449</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -1379,7 +1379,7 @@
         <v>2.179520112997254</v>
       </c>
       <c r="M22">
-        <v>0.9904671149987685</v>
+        <v>0.9904671149987687</v>
       </c>
       <c r="N22">
         <v>0.5</v>
@@ -1423,7 +1423,7 @@
         <v>1.765213903256183</v>
       </c>
       <c r="M23">
-        <v>0.7007974726359938</v>
+        <v>0.7007974726359939</v>
       </c>
       <c r="N23">
         <v>0.5</v>
@@ -1467,7 +1467,7 @@
         <v>2.008715296436337</v>
       </c>
       <c r="M24">
-        <v>0.832719844521486</v>
+        <v>0.8327198445214867</v>
       </c>
       <c r="N24">
         <v>0.5</v>
@@ -1508,7 +1508,7 @@
         <v>0.1954668255414189</v>
       </c>
       <c r="L25">
-        <v>1.73016352364873</v>
+        <v>1.730163523648729</v>
       </c>
       <c r="M25">
         <v>0.2305658352971972</v>
@@ -1552,10 +1552,10 @@
         <v>0.1983013677901354</v>
       </c>
       <c r="L26">
-        <v>1.844271154332301</v>
+        <v>1.8442711543323</v>
       </c>
       <c r="M26">
-        <v>0.3652375840775021</v>
+        <v>0.3652375840775008</v>
       </c>
       <c r="N26">
         <v>0.5</v>
@@ -1599,7 +1599,7 @@
         <v>1.959122940539812</v>
       </c>
       <c r="M27">
-        <v>0.5724863414097634</v>
+        <v>0.5724863414097638</v>
       </c>
       <c r="N27">
         <v>0.5</v>
@@ -1643,7 +1643,7 @@
         <v>2.093392048913454</v>
       </c>
       <c r="M28">
-        <v>0.8147734383493866</v>
+        <v>0.8147734383493863</v>
       </c>
       <c r="N28">
         <v>0.5</v>
@@ -1728,10 +1728,10 @@
         <v>0.2352519603361853</v>
       </c>
       <c r="L30">
-        <v>2.394970674284666</v>
+        <v>2.394970674284667</v>
       </c>
       <c r="M30">
-        <v>0.9351692965880003</v>
+        <v>0.9351692965879999</v>
       </c>
       <c r="N30">
         <v>0.5</v>
@@ -1816,7 +1816,7 @@
         <v>0.2489449073167989</v>
       </c>
       <c r="L32">
-        <v>2.700034891692297</v>
+        <v>2.700034891692296</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>0.2598493100623306</v>
       </c>
       <c r="L33">
-        <v>2.90939317642252</v>
+        <v>2.909393176422521</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>0.2770877500808008</v>
       </c>
       <c r="L35">
-        <v>3.120184472706626</v>
+        <v>3.120184472706625</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -1992,7 +1992,7 @@
         <v>0.3040328354596487</v>
       </c>
       <c r="L36">
-        <v>3.382111547467531</v>
+        <v>3.382111547467532</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>0.07283580197714443</v>
       </c>
       <c r="L37">
-        <v>2.321428764353957</v>
+        <v>2.321428764353956</v>
       </c>
       <c r="M37">
-        <v>0.1769482930120605</v>
+        <v>0.1769482930120602</v>
       </c>
       <c r="N37">
         <v>0.5</v>
@@ -2080,10 +2080,10 @@
         <v>0.1071734005619498</v>
       </c>
       <c r="L38">
-        <v>2.493934530946155</v>
+        <v>2.493934530946156</v>
       </c>
       <c r="M38">
-        <v>0.1626365293550046</v>
+        <v>0.1626365293550051</v>
       </c>
       <c r="N38">
         <v>0.5</v>
@@ -2124,7 +2124,7 @@
         <v>0.08610266438898527</v>
       </c>
       <c r="L39">
-        <v>2.263103595379402</v>
+        <v>2.263103595379401</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>2.352994142781293</v>
       </c>
       <c r="M40">
-        <v>0.08033057069357763</v>
+        <v>0.08033057069357824</v>
       </c>
       <c r="N40">
         <v>0.5</v>
@@ -2215,7 +2215,7 @@
         <v>2.332147368212238</v>
       </c>
       <c r="M41">
-        <v>0.06170087773192028</v>
+        <v>0.06170087773192053</v>
       </c>
       <c r="N41">
         <v>0.5</v>
@@ -2259,7 +2259,7 @@
         <v>2.305847842076092</v>
       </c>
       <c r="M42">
-        <v>0.03819834042906182</v>
+        <v>0.03819834042906253</v>
       </c>
       <c r="N42">
         <v>0.5</v>
@@ -2300,10 +2300,10 @@
         <v>0.1085015641692088</v>
       </c>
       <c r="L43">
-        <v>2.524523439045284</v>
+        <v>2.524523439045283</v>
       </c>
       <c r="M43">
-        <v>0.2336175030553253</v>
+        <v>0.2336175030553251</v>
       </c>
       <c r="N43">
         <v>0.5</v>
@@ -2344,10 +2344,10 @@
         <v>0.1075350511774689</v>
       </c>
       <c r="L44">
-        <v>2.532076275986286</v>
+        <v>2.532076275986287</v>
       </c>
       <c r="M44">
-        <v>0.2403670859576708</v>
+        <v>0.2403670859576714</v>
       </c>
       <c r="N44">
         <v>0.5</v>
@@ -2388,10 +2388,10 @@
         <v>0.1073071303175564</v>
       </c>
       <c r="L45">
-        <v>2.519879828816681</v>
+        <v>2.51987982881668</v>
       </c>
       <c r="M45">
-        <v>0.2294677468181714</v>
+        <v>0.2294677468181709</v>
       </c>
       <c r="N45">
         <v>0.5</v>
@@ -2523,7 +2523,7 @@
         <v>2.701891111475528</v>
       </c>
       <c r="M48">
-        <v>0.9079455751740166</v>
+        <v>0.907945575174016</v>
       </c>
       <c r="N48">
         <v>0.5</v>
@@ -2564,7 +2564,7 @@
         <v>0.1276387170970791</v>
       </c>
       <c r="L49">
-        <v>2.768106986960645</v>
+        <v>2.768106986960646</v>
       </c>
       <c r="M49">
         <v>1</v>
@@ -2608,10 +2608,10 @@
         <v>0.1202953662730384</v>
       </c>
       <c r="L50">
-        <v>2.641998083590408</v>
+        <v>2.641998083590407</v>
       </c>
       <c r="M50">
-        <v>0.7271900301686145</v>
+        <v>0.7271900301686118</v>
       </c>
       <c r="N50">
         <v>0.5</v>
@@ -2652,7 +2652,7 @@
         <v>0.1285187096314582</v>
       </c>
       <c r="L51">
-        <v>2.789335831456397</v>
+        <v>2.789335831456396</v>
       </c>
       <c r="M51">
         <v>1</v>
@@ -2784,10 +2784,10 @@
         <v>0.1345262719231283</v>
       </c>
       <c r="L54">
-        <v>2.847974582700429</v>
+        <v>2.847974582700427</v>
       </c>
       <c r="M54">
-        <v>0.8357588768153197</v>
+        <v>0.8357588768153167</v>
       </c>
       <c r="N54">
         <v>0.5</v>
@@ -2831,7 +2831,7 @@
         <v>2.89303835698246</v>
       </c>
       <c r="M55">
-        <v>0.9374021533084357</v>
+        <v>0.9374021533084372</v>
       </c>
       <c r="N55">
         <v>0.5</v>
@@ -2872,7 +2872,7 @@
         <v>0.1520039380339315</v>
       </c>
       <c r="L56">
-        <v>3.011124748394698</v>
+        <v>3.011124748394697</v>
       </c>
       <c r="M56">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>0.1561972581120961</v>
       </c>
       <c r="L57">
-        <v>3.073032283860466</v>
+        <v>3.073032283860467</v>
       </c>
       <c r="M57">
         <v>1</v>
@@ -2963,7 +2963,7 @@
         <v>3.045856608166165</v>
       </c>
       <c r="M58">
-        <v>0.9369523910694905</v>
+        <v>0.9369523910694907</v>
       </c>
       <c r="N58">
         <v>0.5</v>
@@ -3004,10 +3004,10 @@
         <v>0.1263138135372381</v>
       </c>
       <c r="L59">
-        <v>2.800552646329359</v>
+        <v>2.80055264632936</v>
       </c>
       <c r="M59">
-        <v>0.3678468266314158</v>
+        <v>0.3678468266314178</v>
       </c>
       <c r="N59">
         <v>0.5</v>
@@ -3051,7 +3051,7 @@
         <v>2.867832013515598</v>
       </c>
       <c r="M60">
-        <v>0.2766907424961363</v>
+        <v>0.2766907424961366</v>
       </c>
       <c r="N60">
         <v>0.5</v>
@@ -3092,10 +3092,10 @@
         <v>0.1350706861877765</v>
       </c>
       <c r="L61">
-        <v>2.923569025363394</v>
+        <v>2.923569025363393</v>
       </c>
       <c r="M61">
-        <v>0.4514699892757699</v>
+        <v>0.4514699892757666</v>
       </c>
       <c r="N61">
         <v>0.5</v>
@@ -3136,10 +3136,10 @@
         <v>0.1379772741669495</v>
       </c>
       <c r="L62">
-        <v>2.957108344870465</v>
+        <v>2.957108344870467</v>
       </c>
       <c r="M62">
-        <v>0.5745592586647265</v>
+        <v>0.5745592586647297</v>
       </c>
       <c r="N62">
         <v>0.5</v>
@@ -3227,7 +3227,7 @@
         <v>2.964522224734248</v>
       </c>
       <c r="M64">
-        <v>0.6017681904254949</v>
+        <v>0.6017681904254933</v>
       </c>
       <c r="N64">
         <v>0.5</v>
@@ -3271,7 +3271,7 @@
         <v>3.004471886103585</v>
       </c>
       <c r="M65">
-        <v>0.7483834081030959</v>
+        <v>0.7483834081030942</v>
       </c>
       <c r="N65">
         <v>0.5</v>
@@ -3315,7 +3315,7 @@
         <v>3.070462611908281</v>
       </c>
       <c r="M66">
-        <v>0.9905693064793059</v>
+        <v>0.9905693064793042</v>
       </c>
       <c r="N66">
         <v>0.5</v>
@@ -3400,7 +3400,7 @@
         <v>0.1541153279836756</v>
       </c>
       <c r="L68">
-        <v>3.210564822483224</v>
+        <v>3.210564822483225</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -3444,7 +3444,7 @@
         <v>0.1625776772415824</v>
       </c>
       <c r="L69">
-        <v>3.328312485385976</v>
+        <v>3.328312485385975</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -3491,7 +3491,7 @@
         <v>3.276406668821161</v>
       </c>
       <c r="M70">
-        <v>0.8717562562668242</v>
+        <v>0.8717562562668252</v>
       </c>
       <c r="N70">
         <v>0.5</v>
@@ -3576,7 +3576,7 @@
         <v>0.1818709425897911</v>
       </c>
       <c r="L72">
-        <v>3.40793745261125</v>
+        <v>3.407937452611251</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -3667,7 +3667,7 @@
         <v>3.318338248441798</v>
       </c>
       <c r="M74">
-        <v>0.5981928859310239</v>
+        <v>0.5981928859310244</v>
       </c>
       <c r="N74">
         <v>0.5</v>
@@ -3711,7 +3711,7 @@
         <v>3.36778276311022</v>
       </c>
       <c r="M75">
-        <v>0.6481797247870007</v>
+        <v>0.6481797247870014</v>
       </c>
       <c r="N75">
         <v>0.5</v>
@@ -3796,7 +3796,7 @@
         <v>0.1959059015239537</v>
       </c>
       <c r="L77">
-        <v>3.597297806727231</v>
+        <v>3.597297806727233</v>
       </c>
       <c r="M77">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>0.2008482253085674</v>
       </c>
       <c r="L78">
-        <v>3.659307500663892</v>
+        <v>3.65930750066389</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -3884,7 +3884,7 @@
         <v>0.202820933544016</v>
       </c>
       <c r="L79">
-        <v>3.711578314874362</v>
+        <v>3.711578314874363</v>
       </c>
       <c r="M79">
         <v>1</v>
@@ -3931,7 +3931,7 @@
         <v>3.655263701293971</v>
       </c>
       <c r="M80">
-        <v>0.8567932965445956</v>
+        <v>0.8567932965445968</v>
       </c>
       <c r="N80">
         <v>0.5</v>
@@ -3972,10 +3972,10 @@
         <v>0.2041263070700324</v>
       </c>
       <c r="L81">
-        <v>3.683133371572548</v>
+        <v>3.683133371572547</v>
       </c>
       <c r="M81">
-        <v>0.9276651955639603</v>
+        <v>0.9276651955639581</v>
       </c>
       <c r="N81">
         <v>0.5</v>
@@ -4063,7 +4063,7 @@
         <v>3.794972324520271</v>
       </c>
       <c r="M83">
-        <v>0.9728341205885053</v>
+        <v>0.9728341205885062</v>
       </c>
       <c r="N83">
         <v>0.5</v>
@@ -4104,7 +4104,7 @@
         <v>0.2307008379345163</v>
       </c>
       <c r="L84">
-        <v>3.842084377535586</v>
+        <v>3.842084377535587</v>
       </c>
       <c r="M84">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0.2320341201464879</v>
       </c>
       <c r="L85">
-        <v>3.869465858178519</v>
+        <v>3.86946585817852</v>
       </c>
       <c r="M85">
         <v>1</v>
@@ -4239,7 +4239,7 @@
         <v>3.685628983572381</v>
       </c>
       <c r="M87">
-        <v>0.1244233135391222</v>
+        <v>0.124423313539119</v>
       </c>
       <c r="N87">
         <v>0.5</v>
@@ -4280,7 +4280,7 @@
         <v>0.2329694250327003</v>
       </c>
       <c r="L88">
-        <v>3.92767666996025</v>
+        <v>3.927676669960253</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -4324,7 +4324,7 @@
         <v>0.2629912101857017</v>
       </c>
       <c r="L89">
-        <v>4.261351075159019</v>
+        <v>4.261351075159018</v>
       </c>
       <c r="M89">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>4.209416206168263</v>
       </c>
       <c r="M90">
-        <v>0.9101811157482327</v>
+        <v>0.9101811157482342</v>
       </c>
       <c r="N90">
         <v>0.5</v>
@@ -4412,10 +4412,10 @@
         <v>0.2687815203033572</v>
       </c>
       <c r="L91">
-        <v>4.186460673694012</v>
+        <v>4.186460673694013</v>
       </c>
       <c r="M91">
-        <v>0.8699191805222972</v>
+        <v>0.8699191805223001</v>
       </c>
       <c r="N91">
         <v>0.5</v>
@@ -4456,7 +4456,7 @@
         <v>0.2776174660318487</v>
       </c>
       <c r="L92">
-        <v>4.34516321456569</v>
+        <v>4.345163214565688</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -4500,10 +4500,10 @@
         <v>0.2841663572219815</v>
       </c>
       <c r="L93">
-        <v>4.340542091797571</v>
+        <v>4.340542091797572</v>
       </c>
       <c r="M93">
-        <v>0.9929933541718391</v>
+        <v>0.9929933541718432</v>
       </c>
       <c r="N93">
         <v>0.5</v>
@@ -4544,7 +4544,7 @@
         <v>0.2849229049962217</v>
       </c>
       <c r="L94">
-        <v>4.391924208194749</v>
+        <v>4.391924208194748</v>
       </c>
       <c r="M94">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>4.380143532628925</v>
       </c>
       <c r="M95">
-        <v>0.9833204655006377</v>
+        <v>0.9833204655006389</v>
       </c>
       <c r="N95">
         <v>0.5</v>
@@ -4635,7 +4635,7 @@
         <v>4.311519858728026</v>
       </c>
       <c r="M96">
-        <v>0.8861604232002103</v>
+        <v>0.8861604232002114</v>
       </c>
       <c r="N96">
         <v>0.5</v>
@@ -4679,7 +4679,7 @@
         <v>4.303749702864883</v>
       </c>
       <c r="M97">
-        <v>0.8100700637741948</v>
+        <v>0.810070063774195</v>
       </c>
       <c r="N97">
         <v>0.5</v>
@@ -4764,7 +4764,7 @@
         <v>0.1394126397821228</v>
       </c>
       <c r="L99">
-        <v>3.469990132415602</v>
+        <v>3.469990132415603</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -4896,7 +4896,7 @@
         <v>-0.03101045461589325</v>
       </c>
       <c r="L102">
-        <v>2.48582192880157</v>
+        <v>2.485821928801569</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -4940,10 +4940,10 @@
         <v>-0.02637584207487574</v>
       </c>
       <c r="L103">
-        <v>2.557458895289491</v>
+        <v>2.557458895289489</v>
       </c>
       <c r="M103">
-        <v>0.03758296040164579</v>
+        <v>0.03758296040164555</v>
       </c>
       <c r="N103">
         <v>0.5</v>
@@ -4984,10 +4984,10 @@
         <v>-0.001981751128692197</v>
       </c>
       <c r="L104">
-        <v>2.63744497689569</v>
+        <v>2.637444976895689</v>
       </c>
       <c r="M104">
-        <v>0.0800408166109572</v>
+        <v>0.08004081661095715</v>
       </c>
       <c r="N104">
         <v>0.5</v>
@@ -5031,7 +5031,7 @@
         <v>2.665362882311468</v>
       </c>
       <c r="M105">
-        <v>0.09834099637563259</v>
+        <v>0.09834099637563325</v>
       </c>
       <c r="N105">
         <v>0.5</v>
@@ -5072,10 +5072,10 @@
         <v>0.00942143970739974</v>
       </c>
       <c r="L106">
-        <v>2.871206309114305</v>
+        <v>2.871206309114304</v>
       </c>
       <c r="M106">
-        <v>0.2119910294628199</v>
+        <v>0.2119910294628202</v>
       </c>
       <c r="N106">
         <v>0.5</v>
@@ -5119,7 +5119,7 @@
         <v>3.049121582560189</v>
       </c>
       <c r="M107">
-        <v>0.4269764106346169</v>
+        <v>0.4269764106346174</v>
       </c>
       <c r="N107">
         <v>0.5</v>
@@ -5160,7 +5160,7 @@
         <v>0.04656969367509575</v>
       </c>
       <c r="L108">
-        <v>3.4756204692181</v>
+        <v>3.475620469218099</v>
       </c>
       <c r="M108">
         <v>1</v>
@@ -5204,10 +5204,10 @@
         <v>0.03473607557238515</v>
       </c>
       <c r="L109">
-        <v>3.21665566569099</v>
+        <v>3.216655665690991</v>
       </c>
       <c r="M109">
-        <v>0.7383661493195048</v>
+        <v>0.7383661493195072</v>
       </c>
       <c r="N109">
         <v>0.5</v>
@@ -5251,7 +5251,7 @@
         <v>3.215744480780891</v>
       </c>
       <c r="M110">
-        <v>0.7374455731892191</v>
+        <v>0.7374455731892205</v>
       </c>
       <c r="N110">
         <v>0.5</v>
@@ -5292,10 +5292,10 @@
         <v>0.04217761725437771</v>
       </c>
       <c r="L111">
-        <v>3.301025755894971</v>
+        <v>3.30102575589497</v>
       </c>
       <c r="M111">
-        <v>0.823605808461128</v>
+        <v>0.8236058084611284</v>
       </c>
       <c r="N111">
         <v>0.5</v>
@@ -5339,7 +5339,7 @@
         <v>3.274271893034599</v>
       </c>
       <c r="M112">
-        <v>0.7807046364160336</v>
+        <v>0.7807046364160353</v>
       </c>
       <c r="N112">
         <v>0.5</v>
@@ -5380,10 +5380,10 @@
         <v>0.03136370632086747</v>
       </c>
       <c r="L113">
-        <v>3.037414866769749</v>
+        <v>3.037414866769748</v>
       </c>
       <c r="M113">
-        <v>0.4771911056070435</v>
+        <v>0.4771911056070438</v>
       </c>
       <c r="N113">
         <v>0.5</v>
@@ -5427,7 +5427,7 @@
         <v>2.913196108976916</v>
       </c>
       <c r="M114">
-        <v>0.3058696773350998</v>
+        <v>0.3058696773351001</v>
       </c>
       <c r="N114">
         <v>0.5</v>
@@ -5512,7 +5512,7 @@
         <v>-0.05388941684954773</v>
       </c>
       <c r="L116">
-        <v>2.087342275605279</v>
+        <v>2.087342275605278</v>
       </c>
       <c r="M116">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>2.276323108763702</v>
       </c>
       <c r="M117">
-        <v>0.1361260545817725</v>
+        <v>0.1361260545817729</v>
       </c>
       <c r="N117">
         <v>0.5</v>
@@ -5600,7 +5600,7 @@
         <v>-0.04328778484959459</v>
       </c>
       <c r="L118">
-        <v>2.450137592760179</v>
+        <v>2.450137592760178</v>
       </c>
       <c r="M118">
         <v>0.2989208661456815</v>
@@ -5644,7 +5644,7 @@
         <v>-0.08399164322040654</v>
       </c>
       <c r="L119">
-        <v>1.965033532939936</v>
+        <v>1.965033532939935</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>1.793934656714139</v>
       </c>
       <c r="M121">
-        <v>0.03234064006033707</v>
+        <v>0.03234064006033719</v>
       </c>
       <c r="N121">
         <v>0.5</v>
@@ -5779,7 +5779,7 @@
         <v>2.065441359725974</v>
       </c>
       <c r="M122">
-        <v>0.2482543738242534</v>
+        <v>0.248254373824254</v>
       </c>
       <c r="N122">
         <v>0.5</v>
@@ -5823,7 +5823,7 @@
         <v>1.805732878042665</v>
       </c>
       <c r="M123">
-        <v>0.05242698290598356</v>
+        <v>0.05242698290598429</v>
       </c>
       <c r="N123">
         <v>0.5</v>
@@ -5864,7 +5864,7 @@
         <v>-0.1352446410743017</v>
       </c>
       <c r="L124">
-        <v>1.321469478658538</v>
+        <v>1.321469478658537</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -5911,7 +5911,7 @@
         <v>1.502662810545784</v>
       </c>
       <c r="M125">
-        <v>0.160537300224403</v>
+        <v>0.1605373002244034</v>
       </c>
       <c r="N125">
         <v>0.5</v>
@@ -5955,7 +5955,7 @@
         <v>1.340795784817446</v>
       </c>
       <c r="M126">
-        <v>0.01712310812846067</v>
+        <v>0.01712310812846107</v>
       </c>
       <c r="N126">
         <v>0.5</v>
@@ -5996,7 +5996,7 @@
         <v>-0.126498316628101</v>
       </c>
       <c r="L127">
-        <v>0.9800951943327831</v>
+        <v>0.9800951943327835</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -6040,10 +6040,10 @@
         <v>-0.1310388477371663</v>
       </c>
       <c r="L128">
-        <v>0.9924733196790012</v>
+        <v>0.9924733196790018</v>
       </c>
       <c r="M128">
-        <v>0.01140477180543944</v>
+        <v>0.01140477180543965</v>
       </c>
       <c r="N128">
         <v>0.5</v>
@@ -6084,10 +6084,10 @@
         <v>-0.1311381704837881</v>
       </c>
       <c r="L129">
-        <v>1.018187877101884</v>
+        <v>1.018187877101883</v>
       </c>
       <c r="M129">
-        <v>0.03509726572378911</v>
+        <v>0.03509726572378862</v>
       </c>
       <c r="N129">
         <v>0.5</v>
@@ -6128,10 +6128,10 @@
         <v>-0.1213752828127546</v>
       </c>
       <c r="L130">
-        <v>1.126572509370207</v>
+        <v>1.126572509370206</v>
       </c>
       <c r="M130">
-        <v>0.1349590754617526</v>
+        <v>0.1349590754617521</v>
       </c>
       <c r="N130">
         <v>0.5</v>
@@ -6172,7 +6172,7 @@
         <v>-0.1584174017626765</v>
       </c>
       <c r="L131">
-        <v>0.6826758276567062</v>
+        <v>0.6826758276567054</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -6216,10 +6216,10 @@
         <v>-0.1650623631229014</v>
       </c>
       <c r="L132">
-        <v>0.7887008746656011</v>
+        <v>0.7887008746656009</v>
       </c>
       <c r="M132">
-        <v>0.09440753430331744</v>
+        <v>0.09440753430331784</v>
       </c>
       <c r="N132">
         <v>0.5</v>
@@ -6263,7 +6263,7 @@
         <v>0.8498193584061529</v>
       </c>
       <c r="M133">
-        <v>0.2038368098973307</v>
+        <v>0.2038368098973314</v>
       </c>
       <c r="N133">
         <v>0.5</v>
@@ -6304,10 +6304,10 @@
         <v>-0.169939997390402</v>
       </c>
       <c r="L134">
-        <v>0.855128359324581</v>
+        <v>0.8551283593245806</v>
       </c>
       <c r="M134">
-        <v>0.21031130404079</v>
+        <v>0.2103113040407902</v>
       </c>
       <c r="N134">
         <v>0.5</v>
@@ -6351,7 +6351,7 @@
         <v>1.081553295073171</v>
       </c>
       <c r="M135">
-        <v>0.606086266001264</v>
+        <v>0.606086266001265</v>
       </c>
       <c r="N135">
         <v>0.5</v>
@@ -6392,7 +6392,7 @@
         <v>-0.1609467414737983</v>
       </c>
       <c r="L136">
-        <v>1.354486085951104</v>
+        <v>1.354486085951103</v>
       </c>
       <c r="M136">
         <v>1</v>
@@ -6480,7 +6480,7 @@
         <v>-0.1540251231639266</v>
       </c>
       <c r="L138">
-        <v>1.513611232964966</v>
+        <v>1.513611232964965</v>
       </c>
       <c r="M138">
         <v>1</v>
@@ -6612,7 +6612,7 @@
         <v>-0.136429977221513</v>
       </c>
       <c r="L141">
-        <v>1.829363085562473</v>
+        <v>1.829363085562474</v>
       </c>
       <c r="M141">
         <v>1</v>
@@ -6703,7 +6703,7 @@
         <v>1.596399314597597</v>
       </c>
       <c r="M143">
-        <v>0.7243278906417105</v>
+        <v>0.7243278906417117</v>
       </c>
       <c r="N143">
         <v>0.5</v>
@@ -6747,7 +6747,7 @@
         <v>1.784561434381642</v>
       </c>
       <c r="M144">
-        <v>0.8821050132122501</v>
+        <v>0.88210501321225</v>
       </c>
       <c r="N144">
         <v>0.5</v>
@@ -6876,10 +6876,10 @@
         <v>-0.1203810535172263</v>
       </c>
       <c r="L147">
-        <v>1.891177848168854</v>
+        <v>1.891177848168855</v>
       </c>
       <c r="M147">
-        <v>0.846692252743097</v>
+        <v>0.8466922527431</v>
       </c>
       <c r="N147">
         <v>0.5</v>
@@ -6923,7 +6923,7 @@
         <v>1.782457792975811</v>
       </c>
       <c r="M148">
-        <v>0.5123555826699739</v>
+        <v>0.5123555826699725</v>
       </c>
       <c r="N148">
         <v>0.5</v>
@@ -6967,7 +6967,7 @@
         <v>1.803870112973659</v>
       </c>
       <c r="M149">
-        <v>0.5713194191177399</v>
+        <v>0.5713194191177416</v>
       </c>
       <c r="N149">
         <v>0.5</v>
@@ -7008,10 +7008,10 @@
         <v>-0.1311047625929524</v>
       </c>
       <c r="L150">
-        <v>1.694344439123864</v>
+        <v>1.694344439123863</v>
       </c>
       <c r="M150">
-        <v>0.2697148325825219</v>
+        <v>0.2697148325825184</v>
       </c>
       <c r="N150">
         <v>0.5</v>
@@ -7055,7 +7055,7 @@
         <v>1.646561054059459</v>
       </c>
       <c r="M151">
-        <v>0.1381320941337512</v>
+        <v>0.1381320941337492</v>
       </c>
       <c r="N151">
         <v>0.5</v>
@@ -7099,7 +7099,7 @@
         <v>1.727182004507353</v>
       </c>
       <c r="M152">
-        <v>0.3601407572282162</v>
+        <v>0.3601407572282155</v>
       </c>
       <c r="N152">
         <v>0.5</v>
@@ -7140,10 +7140,10 @@
         <v>-0.1386667138980653</v>
       </c>
       <c r="L153">
-        <v>1.675157543052062</v>
+        <v>1.675157543052061</v>
       </c>
       <c r="M153">
-        <v>0.09136797795912126</v>
+        <v>0.0913679779591192</v>
       </c>
       <c r="N153">
         <v>0.5</v>
@@ -7184,10 +7184,10 @@
         <v>-0.1477209424885942</v>
       </c>
       <c r="L154">
-        <v>1.664068596097137</v>
+        <v>1.664068596097136</v>
       </c>
       <c r="M154">
-        <v>0.05593794103292649</v>
+        <v>0.0559379410329237</v>
       </c>
       <c r="N154">
         <v>0.5</v>
@@ -7228,7 +7228,7 @@
         <v>-0.1499029741831589</v>
       </c>
       <c r="L155">
-        <v>1.59589225939349</v>
+        <v>1.595892259393489</v>
       </c>
       <c r="M155">
         <v>0</v>
@@ -7275,7 +7275,7 @@
         <v>1.711356936472575</v>
       </c>
       <c r="M156">
-        <v>0.3910271326072868</v>
+        <v>0.3910271326072885</v>
       </c>
       <c r="N156">
         <v>0.5</v>
@@ -7316,7 +7316,7 @@
         <v>-0.07749681258211584</v>
       </c>
       <c r="L157">
-        <v>1.934367079448103</v>
+        <v>1.934367079448104</v>
       </c>
       <c r="M157">
         <v>1</v>
@@ -7363,7 +7363,7 @@
         <v>1.873998761935171</v>
       </c>
       <c r="M158">
-        <v>0.8216460606931062</v>
+        <v>0.8216460606931035</v>
       </c>
       <c r="N158">
         <v>0.5</v>
@@ -7404,7 +7404,7 @@
         <v>-0.09033831706787628</v>
       </c>
       <c r="L159">
-        <v>1.975177506891939</v>
+        <v>1.97517750689194</v>
       </c>
       <c r="M159">
         <v>1</v>
@@ -7448,10 +7448,10 @@
         <v>-0.09360059347249139</v>
       </c>
       <c r="L160">
-        <v>1.934534977473789</v>
+        <v>1.934534977473788</v>
       </c>
       <c r="M160">
-        <v>0.8928444233299196</v>
+        <v>0.8928444233299176</v>
       </c>
       <c r="N160">
         <v>0.5</v>
@@ -7492,10 +7492,10 @@
         <v>-0.09384439502956073</v>
       </c>
       <c r="L161">
-        <v>1.909009295435344</v>
+        <v>1.909009295435343</v>
       </c>
       <c r="M161">
-        <v>0.8255449904972487</v>
+        <v>0.8255449904972452</v>
       </c>
       <c r="N161">
         <v>0.5</v>
@@ -7539,7 +7539,7 @@
         <v>1.908052176072743</v>
       </c>
       <c r="M162">
-        <v>0.8230215088461348</v>
+        <v>0.8230215088461336</v>
       </c>
       <c r="N162">
         <v>0.5</v>
@@ -7627,7 +7627,7 @@
         <v>1.871628392949116</v>
       </c>
       <c r="M164">
-        <v>0.7269888174513131</v>
+        <v>0.7269888174513122</v>
       </c>
       <c r="N164">
         <v>0.5</v>
@@ -7665,13 +7665,13 @@
         <v>0.02244889844832112</v>
       </c>
       <c r="K165">
-        <v>-0.09486291249696924</v>
+        <v>-0.09486291249696922</v>
       </c>
       <c r="L165">
         <v>1.907560188497593</v>
       </c>
       <c r="M165">
-        <v>0.7436995974693612</v>
+        <v>0.7436995974693579</v>
       </c>
       <c r="N165">
         <v>0.5</v>
@@ -7715,7 +7715,7 @@
         <v>1.929210018713449</v>
       </c>
       <c r="M166">
-        <v>0.7069010764457978</v>
+        <v>0.7069010764457944</v>
       </c>
       <c r="N166">
         <v>0.5</v>
@@ -7759,7 +7759,7 @@
         <v>1.874885209178665</v>
       </c>
       <c r="M167">
-        <v>0.3605140140266938</v>
+        <v>0.36051401402669</v>
       </c>
       <c r="N167">
         <v>0.5</v>
@@ -7800,10 +7800,10 @@
         <v>-0.09546193155330221</v>
       </c>
       <c r="L168">
-        <v>1.913711547729262</v>
+        <v>1.913711547729261</v>
       </c>
       <c r="M168">
-        <v>0.6080793800206531</v>
+        <v>0.6080793800206458</v>
       </c>
       <c r="N168">
         <v>0.5</v>
@@ -7844,10 +7844,10 @@
         <v>-0.09803933590873719</v>
       </c>
       <c r="L169">
-        <v>1.900835197330116</v>
+        <v>1.900835197330117</v>
       </c>
       <c r="M169">
-        <v>0.7099600829604849</v>
+        <v>0.7099600829604914</v>
       </c>
       <c r="N169">
         <v>0.5</v>
@@ -7891,7 +7891,7 @@
         <v>1.853836975915982</v>
       </c>
       <c r="M170">
-        <v>0.3201378624242713</v>
+        <v>0.3201378624242719</v>
       </c>
       <c r="N170">
         <v>0.5</v>
@@ -7935,7 +7935,7 @@
         <v>1.881260294724996</v>
       </c>
       <c r="M171">
-        <v>0.5674952126511321</v>
+        <v>0.5674952126511333</v>
       </c>
       <c r="N171">
         <v>0.5</v>
@@ -8067,7 +8067,7 @@
         <v>1.618539975107651</v>
       </c>
       <c r="M174">
-        <v>0.1783405242254981</v>
+        <v>0.1783405242254972</v>
       </c>
       <c r="N174">
         <v>0.5</v>
@@ -8111,7 +8111,7 @@
         <v>1.625808732551054</v>
       </c>
       <c r="M175">
-        <v>0.1975649185737892</v>
+        <v>0.1975649185737877</v>
       </c>
       <c r="N175">
         <v>0.5</v>
@@ -8152,10 +8152,10 @@
         <v>-0.1410796182027809</v>
       </c>
       <c r="L176">
-        <v>1.614509994466127</v>
+        <v>1.614509994466126</v>
       </c>
       <c r="M176">
-        <v>0.1748491636864708</v>
+        <v>0.174849163686469</v>
       </c>
       <c r="N176">
         <v>0.5</v>
@@ -8196,10 +8196,10 @@
         <v>-0.1430660365264801</v>
       </c>
       <c r="L177">
-        <v>1.595893909740288</v>
+        <v>1.595893909740287</v>
       </c>
       <c r="M177">
-        <v>0.1235089292763235</v>
+        <v>0.1235089292763209</v>
       </c>
       <c r="N177">
         <v>0.5</v>
@@ -8243,7 +8243,7 @@
         <v>1.58013722881045</v>
       </c>
       <c r="M178">
-        <v>0.08300195931209092</v>
+        <v>0.08300195931208966</v>
       </c>
       <c r="N178">
         <v>0.5</v>
@@ -8287,7 +8287,7 @@
         <v>1.729407630663609</v>
       </c>
       <c r="M179">
-        <v>0.5400508751049007</v>
+        <v>0.5400508751049</v>
       </c>
       <c r="N179">
         <v>0.5</v>
@@ -8331,7 +8331,7 @@
         <v>1.662921550305508</v>
       </c>
       <c r="M180">
-        <v>0.3386700520061944</v>
+        <v>0.3386700520061928</v>
       </c>
       <c r="N180">
         <v>0.5</v>
@@ -8375,7 +8375,7 @@
         <v>1.611543459873773</v>
       </c>
       <c r="M181">
-        <v>0.3389496911998557</v>
+        <v>0.3389496911998554</v>
       </c>
       <c r="N181">
         <v>0.5</v>
@@ -8416,7 +8416,7 @@
         <v>-0.1419535174004615</v>
       </c>
       <c r="L182">
-        <v>1.534226904014513</v>
+        <v>1.534226904014512</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>-0.145575980371222</v>
       </c>
       <c r="L183">
-        <v>1.443754033503405</v>
+        <v>1.443754033503406</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -8504,7 +8504,7 @@
         <v>-0.1481545294770519</v>
       </c>
       <c r="L184">
-        <v>1.412865029666736</v>
+        <v>1.412865029666737</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -8551,7 +8551,7 @@
         <v>1.424252930014496</v>
       </c>
       <c r="M185">
-        <v>0.03597588543183939</v>
+        <v>0.03597588543183804</v>
       </c>
       <c r="N185">
         <v>0.5</v>
@@ -8636,10 +8636,10 @@
         <v>-0.1483089151334299</v>
       </c>
       <c r="L187">
-        <v>1.370403688499896</v>
+        <v>1.370403688499895</v>
       </c>
       <c r="M187">
-        <v>0.01007697981811329</v>
+        <v>0.01007697981811205</v>
       </c>
       <c r="N187">
         <v>0.5</v>
@@ -8718,13 +8718,13 @@
         <v>0</v>
       </c>
       <c r="J189">
-        <v>-0.0230607912042827</v>
+        <v>-0.02306079120428271</v>
       </c>
       <c r="K189">
         <v>-0.1601804457879865</v>
       </c>
       <c r="L189">
-        <v>1.156214234397298</v>
+        <v>1.156214234397299</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>-0.1731942145925279</v>
       </c>
       <c r="L191">
-        <v>1.01121521355567</v>
+        <v>1.011215213555669</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>-0.1810187427259716</v>
       </c>
       <c r="L192">
-        <v>0.9310294843502825</v>
+        <v>0.9310294843502829</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>-0.1883884015618262</v>
       </c>
       <c r="L193">
-        <v>0.8209283273643205</v>
+        <v>0.8209283273643206</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>1.009280557965406</v>
       </c>
       <c r="M194">
-        <v>0.3121905352006629</v>
+        <v>0.3121905352006626</v>
       </c>
       <c r="N194">
         <v>0.5</v>
@@ -8988,7 +8988,7 @@
         <v>-0.1939083973639111</v>
       </c>
       <c r="L195">
-        <v>0.8203835519953656</v>
+        <v>0.8203835519953654</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -9026,13 +9026,13 @@
         <v>0</v>
       </c>
       <c r="J196">
-        <v>9.171366998676055e-05</v>
+        <v>9.171366998676055E-05</v>
       </c>
       <c r="K196">
         <v>-0.2250381426645899</v>
       </c>
       <c r="L196">
-        <v>0.5703855940188358</v>
+        <v>0.5703855940188357</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -9076,7 +9076,7 @@
         <v>-0.2263771966842608</v>
       </c>
       <c r="L197">
-        <v>0.5164601920185571</v>
+        <v>0.5164601920185574</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -9120,7 +9120,7 @@
         <v>-0.2293544516571911</v>
       </c>
       <c r="L198">
-        <v>0.4866448030379895</v>
+        <v>0.4866448030379898</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -9208,10 +9208,10 @@
         <v>-0.2768344868165499</v>
       </c>
       <c r="L200">
-        <v>0.2718732716049117</v>
+        <v>0.2718732716049118</v>
       </c>
       <c r="M200">
-        <v>0.001249325006002805</v>
+        <v>0.001249325006003031</v>
       </c>
       <c r="N200">
         <v>0.5</v>
@@ -9252,7 +9252,7 @@
         <v>-0.2771521567707264</v>
       </c>
       <c r="L201">
-        <v>0.2166527326045164</v>
+        <v>0.2166527326045161</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>-0.2981647178829242</v>
       </c>
       <c r="L202">
-        <v>0.003943356920963263</v>
+        <v>0.003943356920963657</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -9340,10 +9340,10 @@
         <v>-0.2816799100200958</v>
       </c>
       <c r="L203">
-        <v>0.007218730458361198</v>
+        <v>0.007218730458361125</v>
       </c>
       <c r="M203">
-        <v>0.003257985016365809</v>
+        <v>0.003257985016365345</v>
       </c>
       <c r="N203">
         <v>0.5</v>
@@ -9384,7 +9384,7 @@
         <v>-0.2871659610246327</v>
       </c>
       <c r="L204">
-        <v>-0.07286538992045052</v>
+        <v>-0.07286538992045066</v>
       </c>
       <c r="M204">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>-0.2906975726990133</v>
       </c>
       <c r="L205">
-        <v>-0.07843232003557384</v>
+        <v>-0.07843232003557359</v>
       </c>
       <c r="M205">
         <v>1</v>
@@ -9472,7 +9472,7 @@
         <v>-0.2904509831094901</v>
       </c>
       <c r="L206">
-        <v>-0.1249609676932131</v>
+        <v>-0.1249609676932129</v>
       </c>
       <c r="M206">
         <v>1</v>
@@ -9516,10 +9516,10 @@
         <v>-0.2821446860308461</v>
       </c>
       <c r="L207">
-        <v>0.06615133910669008</v>
+        <v>0.0661513391066898</v>
       </c>
       <c r="M207">
-        <v>0.1288746546879934</v>
+        <v>0.1288746546879921</v>
       </c>
       <c r="N207">
         <v>0.5</v>
@@ -9560,7 +9560,7 @@
         <v>-0.2930193766904614</v>
       </c>
       <c r="L208">
-        <v>-0.1263782503591012</v>
+        <v>-0.1263782503591013</v>
       </c>
       <c r="M208">
         <v>1</v>
@@ -9604,7 +9604,7 @@
         <v>-0.3127959120128291</v>
       </c>
       <c r="L209">
-        <v>-0.3080396712545332</v>
+        <v>-0.3080396712545334</v>
       </c>
       <c r="M209">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>-0.3139643404199931</v>
       </c>
       <c r="L210">
-        <v>-0.345538986076551</v>
+        <v>-0.3455389860765513</v>
       </c>
       <c r="M210">
         <v>1</v>
@@ -9692,7 +9692,7 @@
         <v>-0.3266325568200209</v>
       </c>
       <c r="L211">
-        <v>-0.5893919406697858</v>
+        <v>-0.5893919406697862</v>
       </c>
       <c r="M211">
         <v>1</v>
@@ -9730,13 +9730,13 @@
         <v>0</v>
       </c>
       <c r="J212">
-        <v>0.03568793637389558</v>
+        <v>0.03568793637389559</v>
       </c>
       <c r="K212">
         <v>-0.3325272148840041</v>
       </c>
       <c r="L212">
-        <v>-0.8039319323621846</v>
+        <v>-0.8039319323621852</v>
       </c>
       <c r="M212">
         <v>1</v>
@@ -9780,7 +9780,7 @@
         <v>-0.3255444678756317</v>
       </c>
       <c r="L213">
-        <v>-1.138021412182356</v>
+        <v>-1.138021412182357</v>
       </c>
       <c r="M213">
         <v>1</v>
@@ -10000,10 +10000,10 @@
         <v>-0.2839222274647857</v>
       </c>
       <c r="L218">
-        <v>-1.354141884357661</v>
+        <v>-1.354141884357662</v>
       </c>
       <c r="M218">
-        <v>0.5319015228864813</v>
+        <v>0.5319015228864814</v>
       </c>
       <c r="N218">
         <v>0.5</v>
@@ -10044,7 +10044,7 @@
         <v>-0.2861281627652131</v>
       </c>
       <c r="L219">
-        <v>-0.8710786336384423</v>
+        <v>-0.8710786336384424</v>
       </c>
       <c r="M219">
         <v>0.2724101064596748</v>
@@ -10088,7 +10088,7 @@
         <v>-0.2366508570586412</v>
       </c>
       <c r="L220">
-        <v>-0.2299599776478686</v>
+        <v>-0.2299599776478679</v>
       </c>
       <c r="M220">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>-0.1622633338036637</v>
       </c>
       <c r="L221">
-        <v>0.5187240783413898</v>
+        <v>0.518724078341389</v>
       </c>
       <c r="M221">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>-0.1651700851008573</v>
       </c>
       <c r="L222">
-        <v>0.4473378629283507</v>
+        <v>0.4473378629283509</v>
       </c>
       <c r="M222">
         <v>0</v>
@@ -10220,7 +10220,7 @@
         <v>-0.1718980142243944</v>
       </c>
       <c r="L223">
-        <v>0.3281637534439307</v>
+        <v>0.3281637534439306</v>
       </c>
       <c r="M223">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>-0.2017537470292014</v>
       </c>
       <c r="L224">
-        <v>0.06089735483256748</v>
+        <v>0.06089735483256743</v>
       </c>
       <c r="M224">
         <v>0</v>
@@ -10308,7 +10308,7 @@
         <v>-0.20816296448326</v>
       </c>
       <c r="L225">
-        <v>-0.05099369241704208</v>
+        <v>-0.05099369241704183</v>
       </c>
       <c r="M225">
         <v>0</v>
@@ -10352,10 +10352,10 @@
         <v>-0.2157418959255578</v>
       </c>
       <c r="L226">
-        <v>-0.2266998951616434</v>
+        <v>-0.2266998951616435</v>
       </c>
       <c r="M226">
-        <v>0.07901284494378195</v>
+        <v>0.07901284494378211</v>
       </c>
       <c r="N226">
         <v>0.5</v>
@@ -10396,10 +10396,10 @@
         <v>-0.2268004657180643</v>
       </c>
       <c r="L227">
-        <v>-0.4362023679453809</v>
+        <v>-0.4362023679453816</v>
       </c>
       <c r="M227">
-        <v>0.2955985189640594</v>
+        <v>0.29559851896406</v>
       </c>
       <c r="N227">
         <v>0.5</v>
@@ -10440,10 +10440,10 @@
         <v>-0.2415770994320543</v>
       </c>
       <c r="L228">
-        <v>-0.7463913537224816</v>
+        <v>-0.7463913537224813</v>
       </c>
       <c r="M228">
-        <v>0.8479580911091275</v>
+        <v>0.847958091109127</v>
       </c>
       <c r="N228">
         <v>0.5</v>
@@ -10487,7 +10487,7 @@
         <v>-0.6451437598870966</v>
       </c>
       <c r="M229">
-        <v>0.8544033155859091</v>
+        <v>0.8544033155859094</v>
       </c>
       <c r="N229">
         <v>0.5</v>
@@ -10528,7 +10528,7 @@
         <v>-0.2351153773935076</v>
       </c>
       <c r="L230">
-        <v>-0.6916310664349721</v>
+        <v>-0.6916310664349719</v>
       </c>
       <c r="M230">
         <v>0.9212532766004556</v>
@@ -10616,7 +10616,7 @@
         <v>-0.2399182454368795</v>
       </c>
       <c r="L232">
-        <v>-1.24916340938261</v>
+        <v>-1.249163409382611</v>
       </c>
       <c r="M232">
         <v>1</v>
@@ -10660,10 +10660,10 @@
         <v>-0.2310761134541219</v>
       </c>
       <c r="L233">
-        <v>-0.993618669050951</v>
+        <v>-0.9936186690509504</v>
       </c>
       <c r="M233">
-        <v>0.7867207485606961</v>
+        <v>0.7867207485606952</v>
       </c>
       <c r="N233">
         <v>0.5</v>
@@ -10704,10 +10704,10 @@
         <v>-0.2408014042180404</v>
       </c>
       <c r="L234">
-        <v>-0.9316926148071799</v>
+        <v>-0.9316926148071792</v>
       </c>
       <c r="M234">
-        <v>0.7350368732574525</v>
+        <v>0.7350368732574516</v>
       </c>
       <c r="N234">
         <v>0.5</v>
@@ -10748,10 +10748,10 @@
         <v>-0.1973939358708139</v>
       </c>
       <c r="L235">
-        <v>-0.4030853924909317</v>
+        <v>-0.4030853924909319</v>
       </c>
       <c r="M235">
-        <v>0.1725103095377243</v>
+        <v>0.1725103095377244</v>
       </c>
       <c r="N235">
         <v>0.5</v>
@@ -10792,7 +10792,7 @@
         <v>-0.1443416686327012</v>
       </c>
       <c r="L236">
-        <v>0.2026975046313629</v>
+        <v>0.2026975046313625</v>
       </c>
       <c r="M236">
         <v>1</v>
@@ -10836,7 +10836,7 @@
         <v>-0.1516142996727812</v>
       </c>
       <c r="L237">
-        <v>0.04024531110676997</v>
+        <v>0.04024531110677004</v>
       </c>
       <c r="M237">
         <v>0</v>
@@ -10880,7 +10880,7 @@
         <v>-0.1530268909251532</v>
       </c>
       <c r="L238">
-        <v>-0.0808736548160774</v>
+        <v>-0.08087365481607557</v>
       </c>
       <c r="M238">
         <v>0</v>
@@ -10968,7 +10968,7 @@
         <v>-0.05476967284725086</v>
       </c>
       <c r="L240">
-        <v>0.8934477583387903</v>
+        <v>0.8934477583387895</v>
       </c>
       <c r="M240">
         <v>1</v>
@@ -11012,7 +11012,7 @@
         <v>-0.05435751808739786</v>
       </c>
       <c r="L241">
-        <v>0.931809360669654</v>
+        <v>0.9318093606696534</v>
       </c>
       <c r="M241">
         <v>1</v>
@@ -11059,7 +11059,7 @@
         <v>0.9067835241055064</v>
       </c>
       <c r="M242">
-        <v>0.9719304108589649</v>
+        <v>0.9719304108589657</v>
       </c>
       <c r="N242">
         <v>0.5</v>
@@ -11100,7 +11100,7 @@
         <v>-0.04319006242419604</v>
       </c>
       <c r="L243">
-        <v>1.182070190626918</v>
+        <v>1.182070190626919</v>
       </c>
       <c r="M243">
         <v>1</v>
@@ -11188,10 +11188,10 @@
         <v>-0.02754311191256727</v>
       </c>
       <c r="L245">
-        <v>1.438134071636392</v>
+        <v>1.438134071636393</v>
       </c>
       <c r="M245">
-        <v>0.8417678425732023</v>
+        <v>0.8417678425732027</v>
       </c>
       <c r="N245">
         <v>0.5</v>
@@ -11232,10 +11232,10 @@
         <v>-0.02491321819975406</v>
       </c>
       <c r="L246">
-        <v>1.57617360452827</v>
+        <v>1.576173604528269</v>
       </c>
       <c r="M246">
-        <v>0.9248912233979999</v>
+        <v>0.9248912233979993</v>
       </c>
       <c r="N246">
         <v>0.5</v>
@@ -11323,7 +11323,7 @@
         <v>1.832407535726365</v>
       </c>
       <c r="M248">
-        <v>0.9567215358962839</v>
+        <v>0.9567215358962834</v>
       </c>
       <c r="N248">
         <v>0.5</v>
@@ -11408,10 +11408,10 @@
         <v>-0.01201222678732872</v>
       </c>
       <c r="L250">
-        <v>1.65956900449755</v>
+        <v>1.659569004497549</v>
       </c>
       <c r="M250">
-        <v>0.703565492039069</v>
+        <v>0.7035654920390685</v>
       </c>
       <c r="N250">
         <v>0.5</v>
@@ -11496,10 +11496,10 @@
         <v>0.01716193842990186</v>
       </c>
       <c r="L252">
-        <v>2.027542099289458</v>
+        <v>2.027542099289459</v>
       </c>
       <c r="M252">
-        <v>0.958290326566959</v>
+        <v>0.95829032656696</v>
       </c>
       <c r="N252">
         <v>0.5</v>
@@ -11543,7 +11543,7 @@
         <v>1.967897168231962</v>
       </c>
       <c r="M253">
-        <v>0.8459868204110191</v>
+        <v>0.8459868204110188</v>
       </c>
       <c r="N253">
         <v>0.5</v>
@@ -11587,7 +11587,7 @@
         <v>2.046651060705347</v>
       </c>
       <c r="M254">
-        <v>0.9717501201136649</v>
+        <v>0.9717501201136656</v>
       </c>
       <c r="N254">
         <v>0.5</v>
@@ -11631,7 +11631,7 @@
         <v>2.042157987030802</v>
       </c>
       <c r="M255">
-        <v>0.9545579271972721</v>
+        <v>0.9545579271972729</v>
       </c>
       <c r="N255">
         <v>0.5</v>
@@ -11675,7 +11675,7 @@
         <v>1.836200433841047</v>
       </c>
       <c r="M256">
-        <v>0.4363722850667623</v>
+        <v>0.4363722850667629</v>
       </c>
       <c r="N256">
         <v>0.5</v>
@@ -11804,7 +11804,7 @@
         <v>-0.1309306686290703</v>
       </c>
       <c r="L259">
-        <v>1.334691970444312</v>
+        <v>1.334691970444313</v>
       </c>
       <c r="M259">
         <v>0</v>
@@ -11848,7 +11848,7 @@
         <v>-0.2533750677156295</v>
       </c>
       <c r="L260">
-        <v>0.9122399333403596</v>
+        <v>0.9122399333403591</v>
       </c>
       <c r="M260">
         <v>0</v>
@@ -11892,7 +11892,7 @@
         <v>-0.2059066264970127</v>
       </c>
       <c r="L261">
-        <v>0.7513155919328905</v>
+        <v>0.7513155919328907</v>
       </c>
       <c r="M261">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>-0.1865550974860369</v>
       </c>
       <c r="L262">
-        <v>0.7220980292715089</v>
+        <v>0.7220980292715087</v>
       </c>
       <c r="M262">
         <v>0</v>
@@ -11980,10 +11980,10 @@
         <v>-0.1428668083221271</v>
       </c>
       <c r="L263">
-        <v>0.9151921793692307</v>
+        <v>0.9151921793692311</v>
       </c>
       <c r="M263">
-        <v>0.1457806109044165</v>
+        <v>0.145780610904417</v>
       </c>
       <c r="N263">
         <v>0.5</v>
@@ -12024,7 +12024,7 @@
         <v>-0.2444762671048375</v>
       </c>
       <c r="L264">
-        <v>0.5880537661956221</v>
+        <v>0.5880537661956223</v>
       </c>
       <c r="M264">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>-0.2413318648268512</v>
       </c>
       <c r="L265">
-        <v>0.5109020232903266</v>
+        <v>0.5109020232903264</v>
       </c>
       <c r="M265">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>-0.2503860854743082</v>
       </c>
       <c r="L266">
-        <v>0.4361172445540482</v>
+        <v>0.4361172445540484</v>
       </c>
       <c r="M266">
         <v>0</v>
@@ -12153,13 +12153,13 @@
         <v>-0.04540781933692184</v>
       </c>
       <c r="K267">
-        <v>-0.2677631528329218</v>
+        <v>-0.2677631528329217</v>
       </c>
       <c r="L267">
-        <v>0.5125679183217134</v>
+        <v>0.512567918321713</v>
       </c>
       <c r="M267">
-        <v>0.06425626994535365</v>
+        <v>0.06425626994535309</v>
       </c>
       <c r="N267">
         <v>0.5</v>
@@ -12200,10 +12200,10 @@
         <v>-0.2873428341458011</v>
       </c>
       <c r="L268">
-        <v>0.6494437939853198</v>
+        <v>0.6494437939853197</v>
       </c>
       <c r="M268">
-        <v>0.2374054636579257</v>
+        <v>0.2374054636579253</v>
       </c>
       <c r="N268">
         <v>0.5</v>
@@ -12288,10 +12288,10 @@
         <v>-0.1745598616760384</v>
       </c>
       <c r="L270">
-        <v>0.4705987687132041</v>
+        <v>0.4705987687132039</v>
       </c>
       <c r="M270">
-        <v>0.1425105207975931</v>
+        <v>0.1425105207975927</v>
       </c>
       <c r="N270">
         <v>0.5</v>
@@ -12332,10 +12332,10 @@
         <v>-0.174655034040006</v>
       </c>
       <c r="L271">
-        <v>0.4771360592418049</v>
+        <v>0.4771360592418047</v>
       </c>
       <c r="M271">
-        <v>0.1551190249193552</v>
+        <v>0.1551190249193547</v>
       </c>
       <c r="N271">
         <v>0.5</v>
@@ -12376,10 +12376,10 @@
         <v>-0.177816384717348</v>
       </c>
       <c r="L272">
-        <v>0.4400220756641439</v>
+        <v>0.4400220756641438</v>
       </c>
       <c r="M272">
-        <v>0.08353710380591445</v>
+        <v>0.08353710380591416</v>
       </c>
       <c r="N272">
         <v>0.5</v>
@@ -12417,13 +12417,13 @@
         <v>0.03165083780742751</v>
       </c>
       <c r="K273">
-        <v>-0.1777786361090571</v>
+        <v>-0.177778636109057</v>
       </c>
       <c r="L273">
-        <v>0.4497446881416573</v>
+        <v>0.4497446881416571</v>
       </c>
       <c r="M273">
-        <v>0.2098455170862678</v>
+        <v>0.2098455170862672</v>
       </c>
       <c r="N273">
         <v>0.5</v>
@@ -12464,10 +12464,10 @@
         <v>-0.162154385721202</v>
       </c>
       <c r="L274">
-        <v>0.4764140211521061</v>
+        <v>0.4764140211521062</v>
       </c>
       <c r="M274">
-        <v>0.3153687388628467</v>
+        <v>0.3153687388628471</v>
       </c>
       <c r="N274">
         <v>0.5</v>
@@ -12508,10 +12508,10 @@
         <v>-0.1557945788021235</v>
       </c>
       <c r="L275">
-        <v>0.5379058090760728</v>
+        <v>0.5379058090760722</v>
       </c>
       <c r="M275">
-        <v>0.5586748452434162</v>
+        <v>0.5586748452434143</v>
       </c>
       <c r="N275">
         <v>0.5</v>
@@ -12552,10 +12552,10 @@
         <v>-0.182654417117061</v>
       </c>
       <c r="L276">
-        <v>0.4281299000365422</v>
+        <v>0.4281299000365426</v>
       </c>
       <c r="M276">
-        <v>0.1243217404707745</v>
+        <v>0.1243217404707761</v>
       </c>
       <c r="N276">
         <v>0.5</v>
@@ -12596,10 +12596,10 @@
         <v>-0.1824006044798519</v>
       </c>
       <c r="L277">
-        <v>0.4157898431211155</v>
+        <v>0.4157898431211159</v>
       </c>
       <c r="M277">
-        <v>0.07549552640265365</v>
+        <v>0.07549552640265522</v>
       </c>
       <c r="N277">
         <v>0.5</v>
@@ -12640,7 +12640,7 @@
         <v>-0.191889934120451</v>
       </c>
       <c r="L278">
-        <v>0.3224961884045705</v>
+        <v>0.3224961884045703</v>
       </c>
       <c r="M278">
         <v>0</v>
@@ -12684,7 +12684,7 @@
         <v>-0.2051613280230009</v>
       </c>
       <c r="L279">
-        <v>0.2464652654562748</v>
+        <v>0.246465265456275</v>
       </c>
       <c r="M279">
         <v>0</v>
@@ -12728,7 +12728,7 @@
         <v>-0.2052227440197014</v>
       </c>
       <c r="L280">
-        <v>0.2391336262424986</v>
+        <v>0.2391336262424985</v>
       </c>
       <c r="M280">
         <v>0</v>
@@ -12775,7 +12775,7 @@
         <v>0.2687952014446984</v>
       </c>
       <c r="M281">
-        <v>0.09927823574767734</v>
+        <v>0.09927823574767786</v>
       </c>
       <c r="N281">
         <v>0.5</v>
@@ -12816,10 +12816,10 @@
         <v>-0.1970465351162377</v>
       </c>
       <c r="L282">
-        <v>0.2677222626636628</v>
+        <v>0.2677222626636626</v>
       </c>
       <c r="M282">
-        <v>0.09568707551696318</v>
+        <v>0.09568707551696312</v>
       </c>
       <c r="N282">
         <v>0.5</v>
@@ -12860,10 +12860,10 @@
         <v>-0.1937097497748066</v>
       </c>
       <c r="L283">
-        <v>0.3078377986743445</v>
+        <v>0.307837798674345</v>
       </c>
       <c r="M283">
-        <v>0.2299550506350732</v>
+        <v>0.2299550506350756</v>
       </c>
       <c r="N283">
         <v>0.5</v>
@@ -12904,7 +12904,7 @@
         <v>-0.1902376777434643</v>
       </c>
       <c r="L284">
-        <v>0.2148808483601967</v>
+        <v>0.2148808483601971</v>
       </c>
       <c r="M284">
         <v>0</v>
@@ -12948,7 +12948,7 @@
         <v>-0.1927183380944742</v>
       </c>
       <c r="L285">
-        <v>0.1596655616999403</v>
+        <v>0.1596655616999402</v>
       </c>
       <c r="M285">
         <v>0</v>
@@ -12992,7 +12992,7 @@
         <v>-0.2006490941633546</v>
       </c>
       <c r="L286">
-        <v>0.06357912417075107</v>
+        <v>0.06357912417075122</v>
       </c>
       <c r="M286">
         <v>0</v>
@@ -13036,10 +13036,10 @@
         <v>-0.2002430159812536</v>
       </c>
       <c r="L287">
-        <v>0.0919606577727885</v>
+        <v>0.09196065777278842</v>
       </c>
       <c r="M287">
-        <v>0.1096163116402672</v>
+        <v>0.1096163116402665</v>
       </c>
       <c r="N287">
         <v>0.5</v>
@@ -13080,7 +13080,7 @@
         <v>-0.2055757426305713</v>
       </c>
       <c r="L288">
-        <v>0.04811155568987667</v>
+        <v>0.04811155568987669</v>
       </c>
       <c r="M288">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>-0.219380917547669</v>
       </c>
       <c r="L289">
-        <v>-0.02299470070614287</v>
+        <v>-0.02299470070614295</v>
       </c>
       <c r="M289">
         <v>1</v>
@@ -13168,10 +13168,10 @@
         <v>-0.2096612983427625</v>
       </c>
       <c r="L290">
-        <v>0.09367536791374066</v>
+        <v>0.09367536791374061</v>
       </c>
       <c r="M290">
-        <v>0.1754301440636047</v>
+        <v>0.1754301440636041</v>
       </c>
       <c r="N290">
         <v>0.5</v>
@@ -13212,7 +13212,7 @@
         <v>-0.2239535998362974</v>
       </c>
       <c r="L291">
-        <v>-0.009980439835225298</v>
+        <v>-0.009980439835224918</v>
       </c>
       <c r="M291">
         <v>0</v>
@@ -13256,10 +13256,10 @@
         <v>-0.1946775966526443</v>
       </c>
       <c r="L292">
-        <v>0.2958822842665611</v>
+        <v>0.295882284266561</v>
       </c>
       <c r="M292">
-        <v>0.9539687854781067</v>
+        <v>0.9539687854781045</v>
       </c>
       <c r="N292">
         <v>0.5</v>
@@ -13300,7 +13300,7 @@
         <v>-0.1970926889710905</v>
       </c>
       <c r="L293">
-        <v>0.254508230400449</v>
+        <v>0.2545082304004489</v>
       </c>
       <c r="M293">
         <v>0.8330147628665227</v>
@@ -13388,10 +13388,10 @@
         <v>-0.3246675215170282</v>
       </c>
       <c r="L295">
-        <v>0.1673313424943612</v>
+        <v>0.1673313424943608</v>
       </c>
       <c r="M295">
-        <v>0.4811697793736209</v>
+        <v>0.4811697793736194</v>
       </c>
       <c r="N295">
         <v>0.5</v>
@@ -13432,7 +13432,7 @@
         <v>-0.2978653793304696</v>
       </c>
       <c r="L296">
-        <v>-0.0735621114300016</v>
+        <v>-0.07356211143000227</v>
       </c>
       <c r="M296">
         <v>1</v>
@@ -13476,7 +13476,7 @@
         <v>-0.2750399414527887</v>
       </c>
       <c r="L297">
-        <v>-0.201439148226142</v>
+        <v>-0.2014391482261417</v>
       </c>
       <c r="M297">
         <v>1</v>
@@ -13520,10 +13520,10 @@
         <v>-0.2709708625607583</v>
       </c>
       <c r="L298">
-        <v>-0.1873032358536826</v>
+        <v>-0.1873032358536827</v>
       </c>
       <c r="M298">
-        <v>0.9261673052572938</v>
+        <v>0.9261673052572954</v>
       </c>
       <c r="N298">
         <v>0.5</v>
@@ -13564,10 +13564,10 @@
         <v>-0.2760762898425415</v>
       </c>
       <c r="L299">
-        <v>-0.1933272147678541</v>
+        <v>-0.1933272147678543</v>
       </c>
       <c r="M299">
-        <v>0.9576308984508288</v>
+        <v>0.9576308984508312</v>
       </c>
       <c r="N299">
         <v>0.5</v>
@@ -13608,10 +13608,10 @@
         <v>-0.2730866121732924</v>
       </c>
       <c r="L300">
-        <v>-0.1826742138150469</v>
+        <v>-0.1826742138150471</v>
       </c>
       <c r="M300">
-        <v>0.9019896531800417</v>
+        <v>0.9019896531800436</v>
       </c>
       <c r="N300">
         <v>0.5</v>
@@ -13652,10 +13652,10 @@
         <v>-0.273575436149183</v>
       </c>
       <c r="L301">
-        <v>-0.2001122841476053</v>
+        <v>-0.2001122841476055</v>
       </c>
       <c r="M301">
-        <v>0.9896239065919868</v>
+        <v>0.9896239065919901</v>
       </c>
       <c r="N301">
         <v>0.5</v>
@@ -13696,10 +13696,10 @@
         <v>-0.2973193050613563</v>
       </c>
       <c r="L302">
-        <v>-0.1074029451625314</v>
+        <v>-0.107402945162531</v>
       </c>
       <c r="M302">
-        <v>0.2646357358630256</v>
+        <v>0.2646357358630192</v>
       </c>
       <c r="N302">
         <v>0.5</v>
@@ -13740,10 +13740,10 @@
         <v>-0.2831516173939004</v>
       </c>
       <c r="L303">
-        <v>-0.1227926428263674</v>
+        <v>-0.1227926428263675</v>
       </c>
       <c r="M303">
-        <v>0.3849833608112798</v>
+        <v>0.3849833608112778</v>
       </c>
       <c r="N303">
         <v>0.5</v>
@@ -13784,10 +13784,10 @@
         <v>-0.3016195758275623</v>
       </c>
       <c r="L304">
-        <v>-0.08174138394923004</v>
+        <v>-0.08174138394922925</v>
       </c>
       <c r="M304">
-        <v>0.06396201166490675</v>
+        <v>0.0639620116648958</v>
       </c>
       <c r="N304">
         <v>0.5</v>
@@ -13828,7 +13828,7 @@
         <v>-0.361811392228088</v>
       </c>
       <c r="L305">
-        <v>0.01875736735410385</v>
+        <v>0.01875736735410357</v>
       </c>
       <c r="M305">
         <v>1</v>
@@ -13869,7 +13869,7 @@
         <v>0.02489521004650177</v>
       </c>
       <c r="K306">
-        <v>-0.3816337521506891</v>
+        <v>-0.381633752150689</v>
       </c>
       <c r="L306">
         <v>0.1953048187385733</v>
@@ -13913,13 +13913,13 @@
         <v>0.063063910151645</v>
       </c>
       <c r="K307">
-        <v>-0.3748173452614573</v>
+        <v>-0.3748173452614572</v>
       </c>
       <c r="L307">
-        <v>0.03146371938226582</v>
+        <v>0.03146371938226569</v>
       </c>
       <c r="M307">
-        <v>0.0719713138225439</v>
+        <v>0.07197131382254462</v>
       </c>
       <c r="N307">
         <v>0.5</v>
@@ -13957,10 +13957,10 @@
         <v>0.02235977243489446</v>
       </c>
       <c r="K308">
-        <v>-0.3237452778008967</v>
+        <v>-0.3237452778008966</v>
       </c>
       <c r="L308">
-        <v>-0.2061851830492884</v>
+        <v>-0.2061851830492881</v>
       </c>
       <c r="M308">
         <v>1</v>
@@ -14045,10 +14045,10 @@
         <v>0.02884673073118108</v>
       </c>
       <c r="K310">
-        <v>-0.3312551882124252</v>
+        <v>-0.3312551882124251</v>
       </c>
       <c r="L310">
-        <v>-0.05741814514659112</v>
+        <v>-0.05741814514659129</v>
       </c>
       <c r="M310">
         <v>0</v>
@@ -14089,13 +14089,13 @@
         <v>0.01536721684177239</v>
       </c>
       <c r="K311">
-        <v>-0.3212835650300435</v>
+        <v>-0.3212835650300434</v>
       </c>
       <c r="L311">
-        <v>-0.1319049196894324</v>
+        <v>-0.1319049196894323</v>
       </c>
       <c r="M311">
-        <v>0.4917616810888347</v>
+        <v>0.4917616810888331</v>
       </c>
       <c r="N311">
         <v>0.5</v>
@@ -14136,10 +14136,10 @@
         <v>-0.3198562196304899</v>
       </c>
       <c r="L312">
-        <v>-0.1929654417639247</v>
+        <v>-0.1929654417639245</v>
       </c>
       <c r="M312">
-        <v>0.8948832441824818</v>
+        <v>0.8948832441824799</v>
       </c>
       <c r="N312">
         <v>0.5</v>
@@ -14180,10 +14180,10 @@
         <v>-0.3473184238790172</v>
       </c>
       <c r="L313">
-        <v>-0.07339289501381172</v>
+        <v>-0.07339289501381155</v>
       </c>
       <c r="M313">
-        <v>0.105465297670525</v>
+        <v>0.1054652976705229</v>
       </c>
       <c r="N313">
         <v>0.5</v>
@@ -14227,7 +14227,7 @@
         <v>-0.120766721054243</v>
       </c>
       <c r="M314">
-        <v>0.4182272943636877</v>
+        <v>0.4182272943636871</v>
       </c>
       <c r="N314">
         <v>0.5</v>
@@ -14268,10 +14268,10 @@
         <v>-0.3358717578394744</v>
       </c>
       <c r="L315">
-        <v>-0.08318357184300763</v>
+        <v>-0.0831835718430074</v>
       </c>
       <c r="M315">
-        <v>0.1701033455128801</v>
+        <v>0.1701033455128775</v>
       </c>
       <c r="N315">
         <v>0.5</v>
@@ -14312,7 +14312,7 @@
         <v>-0.3384865760320653</v>
       </c>
       <c r="L316">
-        <v>0.01855464764094026</v>
+        <v>0.01855464764094049</v>
       </c>
       <c r="M316">
         <v>0</v>
@@ -14356,7 +14356,7 @@
         <v>-0.3526639381107494</v>
       </c>
       <c r="L317">
-        <v>0.1082633755882286</v>
+        <v>0.1082633755882289</v>
       </c>
       <c r="M317">
         <v>1</v>
@@ -14400,7 +14400,7 @@
         <v>-0.3508113647837005</v>
       </c>
       <c r="L318">
-        <v>0.1284021434087391</v>
+        <v>0.1284021434087386</v>
       </c>
       <c r="M318">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>-0.3172633000759306</v>
       </c>
       <c r="L319">
-        <v>0.2200573316706445</v>
+        <v>0.2200573316706446</v>
       </c>
       <c r="M319">
         <v>1</v>
@@ -14488,10 +14488,10 @@
         <v>-0.2960582757552386</v>
       </c>
       <c r="L320">
-        <v>0.1547972974186768</v>
+        <v>0.154797297418677</v>
       </c>
       <c r="M320">
-        <v>0.6761331762590942</v>
+        <v>0.6761331762590943</v>
       </c>
       <c r="N320">
         <v>0.5</v>
@@ -14532,10 +14532,10 @@
         <v>-0.2167827746599923</v>
       </c>
       <c r="L321">
-        <v>0.08511483994843523</v>
+        <v>0.08511483994843524</v>
       </c>
       <c r="M321">
-        <v>0.3303191350924293</v>
+        <v>0.3303191350924286</v>
       </c>
       <c r="N321">
         <v>0.5</v>
@@ -14579,7 +14579,7 @@
         <v>0.1049545219688386</v>
       </c>
       <c r="M322">
-        <v>0.4287777839979633</v>
+        <v>0.4287777839979625</v>
       </c>
       <c r="N322">
         <v>0.5</v>
@@ -14620,10 +14620,10 @@
         <v>-0.234744998417106</v>
       </c>
       <c r="L323">
-        <v>0.1325032758261718</v>
+        <v>0.1325032758261724</v>
       </c>
       <c r="M323">
-        <v>0.5654943443256267</v>
+        <v>0.5654943443256293</v>
       </c>
       <c r="N323">
         <v>0.5</v>
@@ -14664,7 +14664,7 @@
         <v>-0.2296323496413294</v>
       </c>
       <c r="L324">
-        <v>0.1286044227524744</v>
+        <v>0.1286044227524746</v>
       </c>
       <c r="M324">
         <v>0.5461454552898726</v>
@@ -14711,7 +14711,7 @@
         <v>0.1469933712435584</v>
       </c>
       <c r="M325">
-        <v>0.637404529974819</v>
+        <v>0.6374045299748186</v>
       </c>
       <c r="N325">
         <v>0.5</v>
@@ -14752,10 +14752,10 @@
         <v>-0.2008181015925815</v>
       </c>
       <c r="L326">
-        <v>0.1963630380096826</v>
+        <v>0.1963630380096827</v>
       </c>
       <c r="M326">
-        <v>0.8244119153384338</v>
+        <v>0.8244119153384346</v>
       </c>
       <c r="N326">
         <v>0.5</v>
@@ -14796,10 +14796,10 @@
         <v>-0.201470865128205</v>
       </c>
       <c r="L327">
-        <v>0.1983451204010178</v>
+        <v>0.198345120401018</v>
       </c>
       <c r="M327">
-        <v>0.8391002641753265</v>
+        <v>0.8391002641753276</v>
       </c>
       <c r="N327">
         <v>0.5</v>
@@ -14837,13 +14837,13 @@
         <v>0.03445461241350931</v>
       </c>
       <c r="K328">
-        <v>-0.2140629116352643</v>
+        <v>-0.2140629116352642</v>
       </c>
       <c r="L328">
-        <v>0.133197084790438</v>
+        <v>0.1331970847904378</v>
       </c>
       <c r="M328">
-        <v>0.3563165629176626</v>
+        <v>0.3563165629176612</v>
       </c>
       <c r="N328">
         <v>0.5</v>
@@ -14881,13 +14881,13 @@
         <v>0.0002609315270266533</v>
       </c>
       <c r="K329">
-        <v>-0.191302003614177</v>
+        <v>-0.1913020036141769</v>
       </c>
       <c r="L329">
-        <v>0.1400411677619256</v>
+        <v>0.1400411677619258</v>
       </c>
       <c r="M329">
-        <v>0.4850851520807794</v>
+        <v>0.4850851520807805</v>
       </c>
       <c r="N329">
         <v>0.5</v>
@@ -14925,13 +14925,13 @@
         <v>0.02058570171887018</v>
       </c>
       <c r="K330">
-        <v>-0.1902753588503828</v>
+        <v>-0.1902753588503827</v>
       </c>
       <c r="L330">
-        <v>0.125652249039364</v>
+        <v>0.1256522490393644</v>
       </c>
       <c r="M330">
-        <v>0.3580085550340446</v>
+        <v>0.3580085550340483</v>
       </c>
       <c r="N330">
         <v>0.5</v>
@@ -14972,10 +14972,10 @@
         <v>-0.1850689299040537</v>
       </c>
       <c r="L331">
-        <v>0.1427765354177118</v>
+        <v>0.1427765354177115</v>
       </c>
       <c r="M331">
-        <v>0.4049873765006418</v>
+        <v>0.4049873765006372</v>
       </c>
       <c r="N331">
         <v>0.5</v>
@@ -15016,10 +15016,10 @@
         <v>-0.1851586799022584</v>
       </c>
       <c r="L332">
-        <v>0.1550249589828731</v>
+        <v>0.1550249589828735</v>
       </c>
       <c r="M332">
-        <v>0.4040658924776427</v>
+        <v>0.4040658924776433</v>
       </c>
       <c r="N332">
         <v>0.5</v>
@@ -15104,10 +15104,10 @@
         <v>-0.1923312764353092</v>
       </c>
       <c r="L334">
-        <v>0.2313754519846909</v>
+        <v>0.2313754519846911</v>
       </c>
       <c r="M334">
-        <v>0.7523639910076676</v>
+        <v>0.7523639910076685</v>
       </c>
       <c r="N334">
         <v>0.5</v>
@@ -15148,10 +15148,10 @@
         <v>-0.1937258373789135</v>
       </c>
       <c r="L335">
-        <v>0.2147375847690634</v>
+        <v>0.2147375847690633</v>
       </c>
       <c r="M335">
-        <v>0.6339629983071488</v>
+        <v>0.6339629983071466</v>
       </c>
       <c r="N335">
         <v>0.5</v>
@@ -15192,10 +15192,10 @@
         <v>-0.1986489128688343</v>
       </c>
       <c r="L336">
-        <v>0.264734001945649</v>
+        <v>0.2647340019456496</v>
       </c>
       <c r="M336">
-        <v>0.9897553212328222</v>
+        <v>0.9897553212328261</v>
       </c>
       <c r="N336">
         <v>0.5</v>
@@ -15236,10 +15236,10 @@
         <v>-0.226997735559696</v>
       </c>
       <c r="L337">
-        <v>0.2110804367241275</v>
+        <v>0.2110804367241284</v>
       </c>
       <c r="M337">
-        <v>0.6079374294429822</v>
+        <v>0.6079374294429876</v>
       </c>
       <c r="N337">
         <v>0.5</v>
@@ -15280,7 +15280,7 @@
         <v>-0.2199063205033118</v>
       </c>
       <c r="L338">
-        <v>0.1969672535059094</v>
+        <v>0.1969672535059097</v>
       </c>
       <c r="M338">
         <v>0.5075029878438941</v>
@@ -15324,10 +15324,10 @@
         <v>-0.2070154232551048</v>
       </c>
       <c r="L339">
-        <v>0.1480501898118194</v>
+        <v>0.1480501898118195</v>
       </c>
       <c r="M339">
-        <v>0.1593917289720437</v>
+        <v>0.1593917289720417</v>
       </c>
       <c r="N339">
         <v>0.5</v>
@@ -15368,10 +15368,10 @@
         <v>-0.211484933888309</v>
       </c>
       <c r="L340">
-        <v>0.1601685126276179</v>
+        <v>0.160168512627618</v>
       </c>
       <c r="M340">
-        <v>0.1409432027172534</v>
+        <v>0.1409432027172563</v>
       </c>
       <c r="N340">
         <v>0.5</v>
@@ -15412,7 +15412,7 @@
         <v>-0.2152762883640714</v>
       </c>
       <c r="L341">
-        <v>0.1392459071333895</v>
+        <v>0.1392459071333899</v>
       </c>
       <c r="M341">
         <v>0</v>
@@ -15456,10 +15456,10 @@
         <v>-0.2144498362074072</v>
       </c>
       <c r="L342">
-        <v>0.1643846662904748</v>
+        <v>0.1643846662904752</v>
       </c>
       <c r="M342">
-        <v>0.1980557511155302</v>
+        <v>0.1980557511155307</v>
       </c>
       <c r="N342">
         <v>0.5</v>
@@ -15500,10 +15500,10 @@
         <v>-0.2069137783833412</v>
       </c>
       <c r="L343">
-        <v>0.2015485183991016</v>
+        <v>0.2015485183991015</v>
       </c>
       <c r="M343">
-        <v>0.4964822468531531</v>
+        <v>0.4964822468531484</v>
       </c>
       <c r="N343">
         <v>0.5</v>
@@ -15544,7 +15544,7 @@
         <v>-0.2175096300492472</v>
       </c>
       <c r="L344">
-        <v>0.1249208233650789</v>
+        <v>0.1249208233650787</v>
       </c>
       <c r="M344">
         <v>0</v>
@@ -15588,10 +15588,10 @@
         <v>-0.2160862169158222</v>
       </c>
       <c r="L345">
-        <v>0.1432665706814467</v>
+        <v>0.1432665706814464</v>
       </c>
       <c r="M345">
-        <v>0.1312161521726344</v>
+        <v>0.131216152172633</v>
       </c>
       <c r="N345">
         <v>0.5</v>
@@ -15635,7 +15635,7 @@
         <v>0.1385852599976837</v>
       </c>
       <c r="M346">
-        <v>0.15859445162157</v>
+        <v>0.1585944516215694</v>
       </c>
       <c r="N346">
         <v>0.5</v>
@@ -15676,10 +15676,10 @@
         <v>-0.2170627506381515</v>
       </c>
       <c r="L347">
-        <v>0.1306295158029354</v>
+        <v>0.1306295158029351</v>
       </c>
       <c r="M347">
-        <v>0.07449907550164245</v>
+        <v>0.07449907550164002</v>
       </c>
       <c r="N347">
         <v>0.5</v>
@@ -15720,7 +15720,7 @@
         <v>-0.2224378747626845</v>
       </c>
       <c r="L348">
-        <v>0.1080479424726687</v>
+        <v>0.1080479424726691</v>
       </c>
       <c r="M348">
         <v>0</v>
@@ -15764,7 +15764,7 @@
         <v>-0.2235939378984516</v>
       </c>
       <c r="L349">
-        <v>0.1005754564667933</v>
+        <v>0.1005754564667935</v>
       </c>
       <c r="M349">
         <v>0</v>
@@ -15808,7 +15808,7 @@
         <v>-0.2265751199917983</v>
       </c>
       <c r="L350">
-        <v>0.09436036760301966</v>
+        <v>0.09436036760302009</v>
       </c>
       <c r="M350">
         <v>0</v>
@@ -15896,10 +15896,10 @@
         <v>-0.2869772878029718</v>
       </c>
       <c r="L352">
-        <v>0.05814553045330387</v>
+        <v>0.05814553045330408</v>
       </c>
       <c r="M352">
-        <v>0.1075703488741883</v>
+        <v>0.1075703488741897</v>
       </c>
       <c r="N352">
         <v>0.5</v>
@@ -15940,10 +15940,10 @@
         <v>-0.2874340778259449</v>
       </c>
       <c r="L353">
-        <v>0.06195507371794219</v>
+        <v>0.06195507371794241</v>
       </c>
       <c r="M353">
-        <v>0.2059915327699425</v>
+        <v>0.2059915327699452</v>
       </c>
       <c r="N353">
         <v>0.5</v>
@@ -15984,10 +15984,10 @@
         <v>-0.2946775915333454</v>
       </c>
       <c r="L354">
-        <v>0.1185868011453913</v>
+        <v>0.118586801145392</v>
       </c>
       <c r="M354">
-        <v>0.7590015346819928</v>
+        <v>0.7590015346820012</v>
       </c>
       <c r="N354">
         <v>0.5</v>
@@ -16028,10 +16028,10 @@
         <v>-0.3018008070050785</v>
       </c>
       <c r="L355">
-        <v>0.135054087304128</v>
+        <v>0.1350540873041282</v>
       </c>
       <c r="M355">
-        <v>0.9638662387251573</v>
+        <v>0.9638662387251591</v>
       </c>
       <c r="N355">
         <v>0.5</v>
@@ -16072,7 +16072,7 @@
         <v>-0.3227258773760761</v>
       </c>
       <c r="L356">
-        <v>0.2049626090935935</v>
+        <v>0.2049626090935937</v>
       </c>
       <c r="M356">
         <v>1</v>
@@ -16116,10 +16116,10 @@
         <v>-0.2934128942550224</v>
       </c>
       <c r="L357">
-        <v>0.1060378089467544</v>
+        <v>0.1060378089467548</v>
       </c>
       <c r="M357">
-        <v>0.3971762980361988</v>
+        <v>0.3971762980362008</v>
       </c>
       <c r="N357">
         <v>0.5</v>
@@ -16160,10 +16160,10 @@
         <v>-0.3340230497197377</v>
       </c>
       <c r="L358">
-        <v>0.1289558626542535</v>
+        <v>0.1289558626542542</v>
       </c>
       <c r="M358">
-        <v>0.5368333502339566</v>
+        <v>0.5368333502339599</v>
       </c>
       <c r="N358">
         <v>0.5</v>
@@ -16204,7 +16204,7 @@
         <v>-0.330806962852715</v>
       </c>
       <c r="L359">
-        <v>0.03528187737352828</v>
+        <v>0.03528187737352827</v>
       </c>
       <c r="M359">
         <v>0</v>
@@ -16248,7 +16248,7 @@
         <v>-0.3341295841387786</v>
       </c>
       <c r="L360">
-        <v>-0.01325552655350669</v>
+        <v>-0.01325552655350672</v>
       </c>
       <c r="M360">
         <v>1</v>
@@ -16292,7 +16292,7 @@
         <v>-0.3276049925817197</v>
       </c>
       <c r="L361">
-        <v>-0.1738525059506984</v>
+        <v>-0.1738525059506978</v>
       </c>
       <c r="M361">
         <v>1</v>
@@ -16380,7 +16380,7 @@
         <v>-0.3039392911688449</v>
       </c>
       <c r="L363">
-        <v>-0.4481812649639276</v>
+        <v>-0.4481812649639274</v>
       </c>
       <c r="M363">
         <v>1</v>
@@ -16424,7 +16424,7 @@
         <v>-0.3279094621494531</v>
       </c>
       <c r="L364">
-        <v>-0.4339642290566227</v>
+        <v>-0.4339642290566225</v>
       </c>
       <c r="M364">
         <v>0.9673115783874605</v>
@@ -16468,10 +16468,10 @@
         <v>-0.3273978201577705</v>
       </c>
       <c r="L365">
-        <v>-0.4425580628491251</v>
+        <v>-0.4425580628491254</v>
       </c>
       <c r="M365">
-        <v>0.9870708913771019</v>
+        <v>0.9870708913771029</v>
       </c>
       <c r="N365">
         <v>0.5</v>
@@ -16512,7 +16512,7 @@
         <v>-0.3389732572599077</v>
       </c>
       <c r="L366">
-        <v>-0.6433406044441795</v>
+        <v>-0.643340604444179</v>
       </c>
       <c r="M366">
         <v>1</v>
@@ -16556,7 +16556,7 @@
         <v>-0.3402557771412908</v>
       </c>
       <c r="L367">
-        <v>-0.8312156629563178</v>
+        <v>-0.8312156629563177</v>
       </c>
       <c r="M367">
         <v>1</v>
@@ -16600,7 +16600,7 @@
         <v>-0.3231312357877941</v>
       </c>
       <c r="L368">
-        <v>-0.9673405461454964</v>
+        <v>-0.9673405461454957</v>
       </c>
       <c r="M368">
         <v>1</v>
@@ -16644,7 +16644,7 @@
         <v>-0.3263717506839666</v>
       </c>
       <c r="L369">
-        <v>-1.144318712535604</v>
+        <v>-1.144318712535602</v>
       </c>
       <c r="M369">
         <v>1</v>
@@ -16688,10 +16688,10 @@
         <v>-0.301813469041634</v>
       </c>
       <c r="L370">
-        <v>-1.063895479913717</v>
+        <v>-1.063895479913716</v>
       </c>
       <c r="M370">
-        <v>0.9171292806733595</v>
+        <v>0.9171292806733605</v>
       </c>
       <c r="N370">
         <v>0.5</v>
@@ -16776,7 +16776,7 @@
         <v>-0.3015805058012938</v>
       </c>
       <c r="L372">
-        <v>-1.474392658165798</v>
+        <v>-1.474392658165797</v>
       </c>
       <c r="M372">
         <v>1</v>
@@ -16820,7 +16820,7 @@
         <v>-0.3038730806166464</v>
       </c>
       <c r="L373">
-        <v>-1.513526202900445</v>
+        <v>-1.513526202900444</v>
       </c>
       <c r="M373">
         <v>1</v>
@@ -16952,10 +16952,10 @@
         <v>-0.3051984446227595</v>
       </c>
       <c r="L376">
-        <v>-1.873770177536321</v>
+        <v>-1.873770177536322</v>
       </c>
       <c r="M376">
-        <v>0.9482110029637907</v>
+        <v>0.9482110029637917</v>
       </c>
       <c r="N376">
         <v>0.5</v>
@@ -16996,10 +16996,10 @@
         <v>-0.3136639301764754</v>
       </c>
       <c r="L377">
-        <v>-1.661329568778414</v>
+        <v>-1.661329568778415</v>
       </c>
       <c r="M377">
-        <v>0.720375331233957</v>
+        <v>0.7203753312339581</v>
       </c>
       <c r="N377">
         <v>0.5</v>
@@ -17043,7 +17043,7 @@
         <v>-1.785719005326641</v>
       </c>
       <c r="M378">
-        <v>0.8327293232202568</v>
+        <v>0.8327293232202559</v>
       </c>
       <c r="N378">
         <v>0.5</v>
@@ -17084,10 +17084,10 @@
         <v>-0.2986390289067979</v>
       </c>
       <c r="L379">
-        <v>-1.615194203306268</v>
+        <v>-1.615194203306267</v>
       </c>
       <c r="M379">
-        <v>0.6360039492481894</v>
+        <v>0.6360039492481876</v>
       </c>
       <c r="N379">
         <v>0.5</v>
@@ -17128,7 +17128,7 @@
         <v>-0.2500141234571714</v>
       </c>
       <c r="L380">
-        <v>-1.219564853558387</v>
+        <v>-1.219564853558386</v>
       </c>
       <c r="M380">
         <v>0</v>
@@ -17175,7 +17175,7 @@
         <v>-1.264840162220928</v>
       </c>
       <c r="M381">
-        <v>0.06366517753091416</v>
+        <v>0.06366517753091527</v>
       </c>
       <c r="N381">
         <v>0.5</v>
@@ -17219,7 +17219,7 @@
         <v>-1.375057569783209</v>
       </c>
       <c r="M382">
-        <v>0.218650555361268</v>
+        <v>0.21865055536127</v>
       </c>
       <c r="N382">
         <v>0.5</v>
@@ -17263,7 +17263,7 @@
         <v>-1.414504815448212</v>
       </c>
       <c r="M383">
-        <v>0.2741204344754414</v>
+        <v>0.2741204344754427</v>
       </c>
       <c r="N383">
         <v>0.5</v>
@@ -17304,7 +17304,7 @@
         <v>-0.251745057340531</v>
       </c>
       <c r="L384">
-        <v>-1.06304816542423</v>
+        <v>-1.063048165424229</v>
       </c>
       <c r="M384">
         <v>0</v>
@@ -17351,7 +17351,7 @@
         <v>-1.077900651976597</v>
       </c>
       <c r="M385">
-        <v>0.01832007313292717</v>
+        <v>0.01832007313292795</v>
       </c>
       <c r="N385">
         <v>0.5</v>
@@ -17392,10 +17392,10 @@
         <v>-0.2559292015056835</v>
       </c>
       <c r="L386">
-        <v>-1.098571842127127</v>
+        <v>-1.098571842127125</v>
       </c>
       <c r="M386">
-        <v>0.0491560953361476</v>
+        <v>0.04915609533614639</v>
       </c>
       <c r="N386">
         <v>0.5</v>
@@ -17439,7 +17439,7 @@
         <v>-1.070982295956254</v>
       </c>
       <c r="M387">
-        <v>0.01097889951266831</v>
+        <v>0.01097889951266862</v>
       </c>
       <c r="N387">
         <v>0.5</v>
@@ -17480,10 +17480,10 @@
         <v>-0.2449171850246993</v>
       </c>
       <c r="L388">
-        <v>-1.101193738835394</v>
+        <v>-1.101193738835392</v>
       </c>
       <c r="M388">
-        <v>0.06908602216450919</v>
+        <v>0.06908602216450652</v>
       </c>
       <c r="N388">
         <v>0.5</v>
@@ -17568,10 +17568,10 @@
         <v>-0.3000337625402962</v>
       </c>
       <c r="L390">
-        <v>-1.055992578846253</v>
+        <v>-1.055992578846252</v>
       </c>
       <c r="M390">
-        <v>0.02709207888619311</v>
+        <v>0.02709207888619131</v>
       </c>
       <c r="N390">
         <v>0.5</v>
@@ -17656,10 +17656,10 @@
         <v>-0.308286565323179</v>
       </c>
       <c r="L392">
-        <v>-1.140581444071655</v>
+        <v>-1.140581444071654</v>
       </c>
       <c r="M392">
-        <v>0.3107402519266087</v>
+        <v>0.310740251926607</v>
       </c>
       <c r="N392">
         <v>0.5</v>
@@ -17700,7 +17700,7 @@
         <v>-0.3077547458783194</v>
       </c>
       <c r="L393">
-        <v>-1.157592453824021</v>
+        <v>-1.157592453824022</v>
       </c>
       <c r="M393">
         <v>1</v>
@@ -17788,10 +17788,10 @@
         <v>-0.371922740361419</v>
       </c>
       <c r="L395">
-        <v>-1.085447358713405</v>
+        <v>-1.085447358713404</v>
       </c>
       <c r="M395">
-        <v>0.3678935171434673</v>
+        <v>0.3678935171434646</v>
       </c>
       <c r="N395">
         <v>0.5</v>
@@ -17835,7 +17835,7 @@
         <v>-1.034213275479757</v>
       </c>
       <c r="M396">
-        <v>0.09216383619617829</v>
+        <v>0.09216383619617971</v>
       </c>
       <c r="N396">
         <v>0.5</v>
@@ -17879,7 +17879,7 @@
         <v>-1.136956620843946</v>
       </c>
       <c r="M397">
-        <v>0.6451041456290898</v>
+        <v>0.6451041456290925</v>
       </c>
       <c r="N397">
         <v>0.5</v>
@@ -17923,7 +17923,7 @@
         <v>-1.096277755236003</v>
       </c>
       <c r="M398">
-        <v>0.4261801417736004</v>
+        <v>0.4261801417736014</v>
       </c>
       <c r="N398">
         <v>0.5</v>
@@ -17964,7 +17964,7 @@
         <v>-0.3669646686692102</v>
       </c>
       <c r="L399">
-        <v>-0.9938098844160759</v>
+        <v>-0.9938098844160757</v>
       </c>
       <c r="M399">
         <v>0</v>
@@ -18008,7 +18008,7 @@
         <v>-0.3910531772232831</v>
       </c>
       <c r="L400">
-        <v>-0.734171971265261</v>
+        <v>-0.7341719712652615</v>
       </c>
       <c r="M400">
         <v>0</v>
@@ -18052,10 +18052,10 @@
         <v>-0.3929592876132929</v>
       </c>
       <c r="L401">
-        <v>-0.935232441287263</v>
+        <v>-0.9352324412872626</v>
       </c>
       <c r="M401">
-        <v>0.428948388726575</v>
+        <v>0.4289483887265739</v>
       </c>
       <c r="N401">
         <v>0.5</v>
@@ -18096,7 +18096,7 @@
         <v>-0.3386748205337871</v>
       </c>
       <c r="L402">
-        <v>-1.324646925769369</v>
+        <v>-1.324646925769368</v>
       </c>
       <c r="M402">
         <v>1</v>
@@ -18140,7 +18140,7 @@
         <v>-0.3453939649848783</v>
       </c>
       <c r="L403">
-        <v>-1.3343944176147</v>
+        <v>-1.334394417614701</v>
       </c>
       <c r="M403">
         <v>1</v>
@@ -18184,7 +18184,7 @@
         <v>-0.3560481233296295</v>
       </c>
       <c r="L404">
-        <v>-1.470904113368281</v>
+        <v>-1.47090411336828</v>
       </c>
       <c r="M404">
         <v>1</v>
@@ -18228,7 +18228,7 @@
         <v>-0.3559194462413387</v>
       </c>
       <c r="L405">
-        <v>-1.478582460406652</v>
+        <v>-1.478582460406651</v>
       </c>
       <c r="M405">
         <v>1</v>
@@ -18275,7 +18275,7 @@
         <v>-1.381051234177991</v>
       </c>
       <c r="M406">
-        <v>0.8689819291219899</v>
+        <v>0.8689819291219909</v>
       </c>
       <c r="N406">
         <v>0.5</v>
@@ -18316,10 +18316,10 @@
         <v>-0.3681463030340217</v>
       </c>
       <c r="L407">
-        <v>-1.426592486329078</v>
+        <v>-1.426592486329079</v>
       </c>
       <c r="M407">
-        <v>0.930159535852941</v>
+        <v>0.930159535852943</v>
       </c>
       <c r="N407">
         <v>0.5</v>
@@ -18363,7 +18363,7 @@
         <v>-1.389328560874719</v>
       </c>
       <c r="M408">
-        <v>0.8801012333465652</v>
+        <v>0.8801012333465655</v>
       </c>
       <c r="N408">
         <v>0.5</v>
@@ -18404,10 +18404,10 @@
         <v>-0.3544093519846797</v>
       </c>
       <c r="L409">
-        <v>-1.393237988651188</v>
+        <v>-1.393237988651187</v>
       </c>
       <c r="M409">
-        <v>0.8853529430329474</v>
+        <v>0.8853529430329475</v>
       </c>
       <c r="N409">
         <v>0.5</v>
@@ -18448,10 +18448,10 @@
         <v>-0.3594480221196656</v>
       </c>
       <c r="L410">
-        <v>-1.399962735561908</v>
+        <v>-1.399962735561907</v>
       </c>
       <c r="M410">
-        <v>0.8553055634889567</v>
+        <v>0.8553055634889565</v>
       </c>
       <c r="N410">
         <v>0.5</v>
@@ -18492,10 +18492,10 @@
         <v>-0.3562292741201168</v>
       </c>
       <c r="L411">
-        <v>-1.357491131635156</v>
+        <v>-1.357491131635155</v>
       </c>
       <c r="M411">
-        <v>0.2133633793079511</v>
+        <v>0.2133633793079505</v>
       </c>
       <c r="N411">
         <v>0.5</v>
@@ -18580,10 +18580,10 @@
         <v>-0.3495230943322603</v>
       </c>
       <c r="L413">
-        <v>-1.28104116472527</v>
+        <v>-1.281041164725271</v>
       </c>
       <c r="M413">
-        <v>0.1425381063770039</v>
+        <v>0.1425381063770093</v>
       </c>
       <c r="N413">
         <v>0.5</v>
@@ -18624,7 +18624,7 @@
         <v>-0.3329588003570543</v>
       </c>
       <c r="L414">
-        <v>-0.8715937490381667</v>
+        <v>-0.8715937490381671</v>
       </c>
       <c r="M414">
         <v>0</v>
@@ -18668,7 +18668,7 @@
         <v>-0.3194641064259379</v>
       </c>
       <c r="L415">
-        <v>-0.7167463601145795</v>
+        <v>-0.7167463601145788</v>
       </c>
       <c r="M415">
         <v>0</v>
@@ -18712,7 +18712,7 @@
         <v>-0.3375775220468749</v>
       </c>
       <c r="L416">
-        <v>-0.6830195704965746</v>
+        <v>-0.6830195704965736</v>
       </c>
       <c r="M416">
         <v>0</v>
@@ -18756,10 +18756,10 @@
         <v>-0.3510981932135792</v>
       </c>
       <c r="L417">
-        <v>-0.7185434856082633</v>
+        <v>-0.718543485608263</v>
       </c>
       <c r="M417">
-        <v>0.04954913700648995</v>
+        <v>0.04954913700649088</v>
       </c>
       <c r="N417">
         <v>0.5</v>
@@ -18800,10 +18800,10 @@
         <v>-0.3541205794327479</v>
       </c>
       <c r="L418">
-        <v>-0.7171622900359205</v>
+        <v>-0.7171622900359198</v>
       </c>
       <c r="M418">
-        <v>0.04762263063939601</v>
+        <v>0.04762263063939649</v>
       </c>
       <c r="N418">
         <v>0.5</v>
@@ -18844,10 +18844,10 @@
         <v>-0.3522423589024626</v>
       </c>
       <c r="L419">
-        <v>-0.7137173042235065</v>
+        <v>-0.7137173042235059</v>
       </c>
       <c r="M419">
-        <v>0.04281752755692225</v>
+        <v>0.04281752755692272</v>
       </c>
       <c r="N419">
         <v>0.5</v>
@@ -18888,10 +18888,10 @@
         <v>-0.35564386808547</v>
       </c>
       <c r="L420">
-        <v>-0.7039378498215124</v>
+        <v>-0.7039378498215119</v>
       </c>
       <c r="M420">
-        <v>0.03101432370198902</v>
+        <v>0.03101432370198966</v>
       </c>
       <c r="N420">
         <v>0.5</v>
@@ -18932,7 +18932,7 @@
         <v>-0.3570873789639072</v>
       </c>
       <c r="L421">
-        <v>-0.6806504682712853</v>
+        <v>-0.6806504682712838</v>
       </c>
       <c r="M421">
         <v>0</v>
@@ -18976,7 +18976,7 @@
         <v>-0.3480663545202831</v>
       </c>
       <c r="L422">
-        <v>-0.5640370063650407</v>
+        <v>-0.5640370063650393</v>
       </c>
       <c r="M422">
         <v>0</v>
@@ -19020,10 +19020,10 @@
         <v>-0.280802449059559</v>
       </c>
       <c r="L423">
-        <v>-0.735596600196015</v>
+        <v>-0.7355966001960135</v>
       </c>
       <c r="M423">
-        <v>0.557814445360118</v>
+        <v>0.5578144453601143</v>
       </c>
       <c r="N423">
         <v>0.5</v>
@@ -19064,10 +19064,10 @@
         <v>-0.2544889876469942</v>
       </c>
       <c r="L424">
-        <v>-0.6332215509599005</v>
+        <v>-0.6332215509599016</v>
       </c>
       <c r="M424">
-        <v>0.4032682932498808</v>
+        <v>0.4032682932498959</v>
       </c>
       <c r="N424">
         <v>0.5</v>
@@ -19108,7 +19108,7 @@
         <v>-0.2389690655326956</v>
       </c>
       <c r="L425">
-        <v>-0.7578608993867223</v>
+        <v>-0.7578608993867215</v>
       </c>
       <c r="M425">
         <v>1</v>
@@ -19196,10 +19196,10 @@
         <v>-0.2197169764744395</v>
       </c>
       <c r="L427">
-        <v>-0.6113754659749653</v>
+        <v>-0.6113754659749656</v>
       </c>
       <c r="M427">
-        <v>0.1939924811746794</v>
+        <v>0.1939924811746856</v>
       </c>
       <c r="N427">
         <v>0.5</v>
@@ -19284,10 +19284,10 @@
         <v>-0.2636666588865946</v>
       </c>
       <c r="L429">
-        <v>-0.4521443166893832</v>
+        <v>-0.4521443166893813</v>
       </c>
       <c r="M429">
-        <v>0.1271934105777605</v>
+        <v>0.1271934105777558</v>
       </c>
       <c r="N429">
         <v>0.5</v>
@@ -19328,10 +19328,10 @@
         <v>-0.2480767535860821</v>
       </c>
       <c r="L430">
-        <v>-0.4815079666547422</v>
+        <v>-0.4815079666547408</v>
       </c>
       <c r="M430">
-        <v>0.1992016140458062</v>
+        <v>0.1992016140458028</v>
       </c>
       <c r="N430">
         <v>0.5</v>
@@ -19372,10 +19372,10 @@
         <v>-0.2583118004159596</v>
       </c>
       <c r="L431">
-        <v>-0.4880587394605743</v>
+        <v>-0.4880587394605742</v>
       </c>
       <c r="M431">
-        <v>0.2152660127711618</v>
+        <v>0.2152660127711615</v>
       </c>
       <c r="N431">
         <v>0.5</v>
@@ -19416,10 +19416,10 @@
         <v>-0.2611453907657985</v>
       </c>
       <c r="L432">
-        <v>-0.4853865765248141</v>
+        <v>-0.4853865765248144</v>
       </c>
       <c r="M432">
-        <v>0.2087130926605833</v>
+        <v>0.2087130926605841</v>
       </c>
       <c r="N432">
         <v>0.5</v>
@@ -19460,10 +19460,10 @@
         <v>-0.2619347649690451</v>
       </c>
       <c r="L433">
-        <v>-0.6503378462549089</v>
+        <v>-0.6503378462549096</v>
       </c>
       <c r="M433">
-        <v>0.6132215446769285</v>
+        <v>0.6132215446769305</v>
       </c>
       <c r="N433">
         <v>0.5</v>
@@ -19548,10 +19548,10 @@
         <v>-0.26916050007847</v>
       </c>
       <c r="L435">
-        <v>-0.5952993639608062</v>
+        <v>-0.5952993639608063</v>
       </c>
       <c r="M435">
-        <v>0.4782511906411838</v>
+        <v>0.4782511906411841</v>
       </c>
       <c r="N435">
         <v>0.5</v>
@@ -19592,10 +19592,10 @@
         <v>-0.2635127927000927</v>
       </c>
       <c r="L436">
-        <v>-0.6431760354997005</v>
+        <v>-0.6431760354996973</v>
       </c>
       <c r="M436">
-        <v>0.9713597124703428</v>
+        <v>0.9713597124703269</v>
       </c>
       <c r="N436">
         <v>0.5</v>
@@ -19636,7 +19636,7 @@
         <v>-0.2677262964829568</v>
       </c>
       <c r="L437">
-        <v>-0.8055587896241098</v>
+        <v>-0.8055587896241094</v>
       </c>
       <c r="M437">
         <v>1</v>
@@ -19683,7 +19683,7 @@
         <v>-0.7850609179196933</v>
       </c>
       <c r="M438">
-        <v>0.9420004745866697</v>
+        <v>0.9420004745866709</v>
       </c>
       <c r="N438">
         <v>0.5</v>
@@ -19724,10 +19724,10 @@
         <v>-0.2549918164531076</v>
       </c>
       <c r="L439">
-        <v>-0.7499552652969322</v>
+        <v>-0.7499552652969316</v>
       </c>
       <c r="M439">
-        <v>0.8284110997846973</v>
+        <v>0.8284110997846968</v>
       </c>
       <c r="N439">
         <v>0.5</v>
@@ -19768,10 +19768,10 @@
         <v>-0.2707906277909198</v>
       </c>
       <c r="L440">
-        <v>-0.7057550781463563</v>
+        <v>-0.7057550781463576</v>
       </c>
       <c r="M440">
-        <v>0.688281158094125</v>
+        <v>0.6882811580941296</v>
       </c>
       <c r="N440">
         <v>0.5</v>
@@ -19812,7 +19812,7 @@
         <v>-0.343106334684549</v>
       </c>
       <c r="L441">
-        <v>-0.7448129117296309</v>
+        <v>-0.7448129117296307</v>
       </c>
       <c r="M441">
         <v>0.810271237136873</v>
@@ -19856,7 +19856,7 @@
         <v>-0.3428860777781819</v>
       </c>
       <c r="L442">
-        <v>-0.8355981532664506</v>
+        <v>-0.8355981532664508</v>
       </c>
       <c r="M442">
         <v>1</v>
@@ -19900,10 +19900,10 @@
         <v>-0.3436329791224976</v>
       </c>
       <c r="L443">
-        <v>-0.8138598539956938</v>
+        <v>-0.8138598539956939</v>
       </c>
       <c r="M443">
-        <v>0.9282560108765502</v>
+        <v>0.9282560108765499</v>
       </c>
       <c r="N443">
         <v>0.5</v>
@@ -19944,10 +19944,10 @@
         <v>-0.3740954969738841</v>
       </c>
       <c r="L444">
-        <v>-0.6849493347710134</v>
+        <v>-0.6849493347710125</v>
       </c>
       <c r="M444">
-        <v>0.3730770807013026</v>
+        <v>0.3730770807012982</v>
       </c>
       <c r="N444">
         <v>0.5</v>
@@ -19988,7 +19988,7 @@
         <v>-0.3823913282067061</v>
       </c>
       <c r="L445">
-        <v>-0.9327288731289358</v>
+        <v>-0.9327288731289357</v>
       </c>
       <c r="M445">
         <v>1</v>
@@ -20032,7 +20032,7 @@
         <v>-0.4006063617983078</v>
       </c>
       <c r="L446">
-        <v>-0.9809726271620768</v>
+        <v>-0.9809726271620774</v>
       </c>
       <c r="M446">
         <v>1</v>
@@ -20076,7 +20076,7 @@
         <v>-0.3998679565341827</v>
       </c>
       <c r="L447">
-        <v>-1.068617044474675</v>
+        <v>-1.068617044474674</v>
       </c>
       <c r="M447">
         <v>1</v>
@@ -20120,10 +20120,10 @@
         <v>-0.3930053278070205</v>
       </c>
       <c r="L448">
-        <v>-0.8530574845723508</v>
+        <v>-0.853057484572352</v>
       </c>
       <c r="M448">
-        <v>0.4381607978716305</v>
+        <v>0.438160797871636</v>
       </c>
       <c r="N448">
         <v>0.5</v>
@@ -20167,7 +20167,7 @@
         <v>-1.007055680543375</v>
       </c>
       <c r="M449">
-        <v>0.8395451001627202</v>
+        <v>0.839545100162722</v>
       </c>
       <c r="N449">
         <v>0.5</v>
@@ -20208,10 +20208,10 @@
         <v>-0.4066484733156262</v>
       </c>
       <c r="L450">
-        <v>-1.006629578042759</v>
+        <v>-1.006629578042758</v>
       </c>
       <c r="M450">
-        <v>0.8384344971856132</v>
+        <v>0.838434497185615</v>
       </c>
       <c r="N450">
         <v>0.5</v>
@@ -20296,7 +20296,7 @@
         <v>-0.4018379788171118</v>
       </c>
       <c r="L452">
-        <v>-1.357542108286401</v>
+        <v>-1.357542108286402</v>
       </c>
       <c r="M452">
         <v>1</v>
@@ -20340,7 +20340,7 @@
         <v>-0.4039396157037551</v>
       </c>
       <c r="L453">
-        <v>-1.636163647392916</v>
+        <v>-1.636163647392917</v>
       </c>
       <c r="M453">
         <v>1</v>
@@ -20431,7 +20431,7 @@
         <v>-1.892572661172286</v>
       </c>
       <c r="M455">
-        <v>0.9737210971798216</v>
+        <v>0.9737210971798221</v>
       </c>
       <c r="N455">
         <v>0.5</v>
@@ -20472,7 +20472,7 @@
         <v>-0.3499521619146559</v>
       </c>
       <c r="L456">
-        <v>-1.999685325142832</v>
+        <v>-1.999685325142831</v>
       </c>
       <c r="M456">
         <v>1</v>
@@ -20516,10 +20516,10 @@
         <v>-0.3119725213558306</v>
       </c>
       <c r="L457">
-        <v>-1.770221567144176</v>
+        <v>-1.770221567144178</v>
       </c>
       <c r="M457">
-        <v>0.7998794814850381</v>
+        <v>0.7998794814850398</v>
       </c>
       <c r="N457">
         <v>0.5</v>
@@ -20560,10 +20560,10 @@
         <v>-0.2990894248417097</v>
       </c>
       <c r="L458">
-        <v>-1.890027920724068</v>
+        <v>-1.890027920724069</v>
       </c>
       <c r="M458">
-        <v>0.8895757818843648</v>
+        <v>0.8895757818843657</v>
       </c>
       <c r="N458">
         <v>0.5</v>
@@ -20604,10 +20604,10 @@
         <v>-0.2789808214481038</v>
       </c>
       <c r="L459">
-        <v>-1.816985374259901</v>
+        <v>-1.8169853742599</v>
       </c>
       <c r="M459">
-        <v>0.8160224625692445</v>
+        <v>0.8160224625692443</v>
       </c>
       <c r="N459">
         <v>0.5</v>
@@ -20648,10 +20648,10 @@
         <v>-0.3047465190550469</v>
       </c>
       <c r="L460">
-        <v>-1.911824828790575</v>
+        <v>-1.911824828790576</v>
       </c>
       <c r="M460">
-        <v>0.8674720372839343</v>
+        <v>0.867472037283936</v>
       </c>
       <c r="N460">
         <v>0.5</v>
@@ -20692,10 +20692,10 @@
         <v>-0.2640376398528946</v>
       </c>
       <c r="L461">
-        <v>-1.739259299244723</v>
+        <v>-1.739259299244724</v>
       </c>
       <c r="M461">
-        <v>0.5944424560411815</v>
+        <v>0.5944424560411834</v>
       </c>
       <c r="N461">
         <v>0.5</v>
@@ -20736,10 +20736,10 @@
         <v>-0.2641228283984736</v>
       </c>
       <c r="L462">
-        <v>-1.7798623212092</v>
+        <v>-1.779862321209199</v>
       </c>
       <c r="M462">
-        <v>0.3952960239007839</v>
+        <v>0.3952960239007811</v>
       </c>
       <c r="N462">
         <v>0.5</v>
@@ -20780,10 +20780,10 @@
         <v>-0.2709476125241594</v>
       </c>
       <c r="L463">
-        <v>-1.99733550345001</v>
+        <v>-1.997335503450009</v>
       </c>
       <c r="M463">
-        <v>0.9909770089808878</v>
+        <v>0.9909770089808844</v>
       </c>
       <c r="N463">
         <v>0.5</v>
@@ -20827,7 +20827,7 @@
         <v>-1.989396451093988</v>
       </c>
       <c r="M464">
-        <v>0.9604921435430207</v>
+        <v>0.9604921435430223</v>
       </c>
       <c r="N464">
         <v>0.5</v>
@@ -20868,7 +20868,7 @@
         <v>-0.2761713209185328</v>
       </c>
       <c r="L465">
-        <v>-2.053380666592163</v>
+        <v>-2.053380666592164</v>
       </c>
       <c r="M465">
         <v>1</v>
@@ -20912,7 +20912,7 @@
         <v>-0.2766390721086724</v>
       </c>
       <c r="L466">
-        <v>-2.132414166166554</v>
+        <v>-2.132414166166555</v>
       </c>
       <c r="M466">
         <v>1</v>
@@ -20956,10 +20956,10 @@
         <v>-0.2748932695728301</v>
       </c>
       <c r="L467">
-        <v>-2.112618555083938</v>
+        <v>-2.112618555083937</v>
       </c>
       <c r="M467">
-        <v>0.9496493296964545</v>
+        <v>0.9496493296964489</v>
       </c>
       <c r="N467">
         <v>0.5</v>
@@ -21003,7 +21003,7 @@
         <v>-2.081313676484555</v>
       </c>
       <c r="M468">
-        <v>0.8700245272757656</v>
+        <v>0.8700245272757633</v>
       </c>
       <c r="N468">
         <v>0.5</v>
@@ -21047,7 +21047,7 @@
         <v>-1.92895583499683</v>
       </c>
       <c r="M469">
-        <v>0.4824982512293902</v>
+        <v>0.4824982512293877</v>
       </c>
       <c r="N469">
         <v>0.5</v>
@@ -21091,7 +21091,7 @@
         <v>-1.845003007770081</v>
       </c>
       <c r="M470">
-        <v>0.2689619725510931</v>
+        <v>0.2689619725510909</v>
       </c>
       <c r="N470">
         <v>0.5</v>
@@ -21220,7 +21220,7 @@
         <v>-0.1925018249797739</v>
       </c>
       <c r="L473">
-        <v>-0.9462720364100897</v>
+        <v>-0.9462720364100898</v>
       </c>
       <c r="M473">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>-0.1661321149610728</v>
       </c>
       <c r="L474">
-        <v>-0.5572360173348939</v>
+        <v>-0.5572360173348944</v>
       </c>
       <c r="M474">
         <v>0</v>
@@ -21311,7 +21311,7 @@
         <v>-0.6938604358714884</v>
       </c>
       <c r="M475">
-        <v>0.08673585183868343</v>
+        <v>0.08673585183868313</v>
       </c>
       <c r="N475">
         <v>0.5</v>
@@ -21352,7 +21352,7 @@
         <v>-0.1381654554207332</v>
       </c>
       <c r="L476">
-        <v>-0.4121133082297763</v>
+        <v>-0.412113308229774</v>
       </c>
       <c r="M476">
         <v>0</v>
@@ -21396,10 +21396,10 @@
         <v>-0.1675362545731002</v>
       </c>
       <c r="L477">
-        <v>-0.6429396236611123</v>
+        <v>-0.6429396236611132</v>
       </c>
       <c r="M477">
-        <v>0.1382855646459478</v>
+        <v>0.1382855646459495</v>
       </c>
       <c r="N477">
         <v>0.5</v>
@@ -21440,10 +21440,10 @@
         <v>-0.1350851763691722</v>
       </c>
       <c r="L478">
-        <v>-0.8441585127032503</v>
+        <v>-0.8441585127032495</v>
       </c>
       <c r="M478">
-        <v>0.2848319432303367</v>
+        <v>0.2848319432303373</v>
       </c>
       <c r="N478">
         <v>0.5</v>
@@ -21484,10 +21484,10 @@
         <v>-0.1358551878745413</v>
       </c>
       <c r="L479">
-        <v>-0.6264529608644651</v>
+        <v>-0.626452960864465</v>
       </c>
       <c r="M479">
-        <v>0.1495855910636057</v>
+        <v>0.1495855910636069</v>
       </c>
       <c r="N479">
         <v>0.5</v>
@@ -21528,10 +21528,10 @@
         <v>-0.1316749255302297</v>
       </c>
       <c r="L480">
-        <v>-0.4696635256856638</v>
+        <v>-0.4696635256856637</v>
       </c>
       <c r="M480">
-        <v>0.06699385100415363</v>
+        <v>0.06699385100415599</v>
       </c>
       <c r="N480">
         <v>0.5</v>
@@ -21572,7 +21572,7 @@
         <v>-0.1386069176556911</v>
       </c>
       <c r="L481">
-        <v>-0.3317517849799037</v>
+        <v>-0.3317517849799034</v>
       </c>
       <c r="M481">
         <v>0</v>
@@ -21616,7 +21616,7 @@
         <v>-0.1607576888966303</v>
       </c>
       <c r="L482">
-        <v>-0.1623062662368552</v>
+        <v>-0.1623062662368551</v>
       </c>
       <c r="M482">
         <v>0</v>
@@ -21660,7 +21660,7 @@
         <v>-0.161316242507579</v>
       </c>
       <c r="L483">
-        <v>-0.104095233145608</v>
+        <v>-0.1040952331456085</v>
       </c>
       <c r="M483">
         <v>0</v>
@@ -21704,7 +21704,7 @@
         <v>-0.1287309816691264</v>
       </c>
       <c r="L484">
-        <v>-0.07117470615019134</v>
+        <v>-0.07117470615019127</v>
       </c>
       <c r="M484">
         <v>0</v>
@@ -21748,10 +21748,10 @@
         <v>-0.1557853463050416</v>
       </c>
       <c r="L485">
-        <v>-0.511863783491584</v>
+        <v>-0.5118637834915839</v>
       </c>
       <c r="M485">
-        <v>0.5701142425046947</v>
+        <v>0.5701142425046952</v>
       </c>
       <c r="N485">
         <v>0.5</v>
@@ -21795,7 +21795,7 @@
         <v>-0.6315881043559348</v>
       </c>
       <c r="M486">
-        <v>0.7250001791173044</v>
+        <v>0.7250001791173052</v>
       </c>
       <c r="N486">
         <v>0.5</v>
@@ -21836,10 +21836,10 @@
         <v>-0.1592499378313728</v>
       </c>
       <c r="L487">
-        <v>-0.613784083566518</v>
+        <v>-0.6137840835665149</v>
       </c>
       <c r="M487">
-        <v>0.7019673281850065</v>
+        <v>0.7019673281850032</v>
       </c>
       <c r="N487">
         <v>0.5</v>
@@ -21880,10 +21880,10 @@
         <v>-0.1770338321302647</v>
       </c>
       <c r="L488">
-        <v>-0.6030678090819419</v>
+        <v>-0.6030678090819418</v>
       </c>
       <c r="M488">
-        <v>0.9491084699878601</v>
+        <v>0.9491084699878599</v>
       </c>
       <c r="N488">
         <v>0.5</v>
@@ -21924,10 +21924,10 @@
         <v>-0.177032214345692</v>
       </c>
       <c r="L489">
-        <v>-0.5835309782287839</v>
+        <v>-0.5835309782287827</v>
       </c>
       <c r="M489">
-        <v>0.9142470071539799</v>
+        <v>0.9142470071539779</v>
       </c>
       <c r="N489">
         <v>0.5</v>
@@ -21968,10 +21968,10 @@
         <v>-0.1998437820404543</v>
       </c>
       <c r="L490">
-        <v>-0.5731215287228023</v>
+        <v>-0.573121528722802</v>
       </c>
       <c r="M490">
-        <v>0.8956724164334345</v>
+        <v>0.8956724164334342</v>
       </c>
       <c r="N490">
         <v>0.5</v>
@@ -22012,10 +22012,10 @@
         <v>-0.203422460076064</v>
       </c>
       <c r="L491">
-        <v>-0.6268298848482474</v>
+        <v>-0.6268298848482475</v>
       </c>
       <c r="M491">
-        <v>0.9915094472706726</v>
+        <v>0.9915094472706728</v>
       </c>
       <c r="N491">
         <v>0.5</v>
@@ -22056,10 +22056,10 @@
         <v>-0.1948518553632956</v>
       </c>
       <c r="L492">
-        <v>-0.4605270929065193</v>
+        <v>-0.460527092906519</v>
       </c>
       <c r="M492">
-        <v>0.6947592402374821</v>
+        <v>0.6947592402374818</v>
       </c>
       <c r="N492">
         <v>0.5</v>
@@ -22100,10 +22100,10 @@
         <v>-0.1811574172468752</v>
       </c>
       <c r="L493">
-        <v>-0.3043162482785914</v>
+        <v>-0.3043162482785919</v>
       </c>
       <c r="M493">
-        <v>0.416017073957977</v>
+        <v>0.4160170739579782</v>
       </c>
       <c r="N493">
         <v>0.5</v>
@@ -22144,7 +22144,7 @@
         <v>-0.1805900954974595</v>
       </c>
       <c r="L494">
-        <v>-0.2649506140085985</v>
+        <v>-0.2649506140085992</v>
       </c>
       <c r="M494">
         <v>0</v>
@@ -22188,10 +22188,10 @@
         <v>-0.1880964733354951</v>
       </c>
       <c r="L495">
-        <v>-0.3634337524817862</v>
+        <v>-0.3634337524817859</v>
       </c>
       <c r="M495">
-        <v>0.2686117515693472</v>
+        <v>0.2686117515693451</v>
       </c>
       <c r="N495">
         <v>0.5</v>
@@ -22232,7 +22232,7 @@
         <v>-0.1769112971211473</v>
       </c>
       <c r="L496">
-        <v>-0.2415493551747418</v>
+        <v>-0.2415493551747416</v>
       </c>
       <c r="M496">
         <v>0</v>
@@ -22320,10 +22320,10 @@
         <v>-0.1623214687734689</v>
       </c>
       <c r="L498">
-        <v>-0.2942759578572267</v>
+        <v>-0.2942759578572263</v>
       </c>
       <c r="M498">
-        <v>0.2694894988509204</v>
+        <v>0.2694894988509196</v>
       </c>
       <c r="N498">
         <v>0.5</v>
@@ -22364,7 +22364,7 @@
         <v>-0.1598562580391141</v>
       </c>
       <c r="L499">
-        <v>-0.09713111877375089</v>
+        <v>-0.09713111877375211</v>
       </c>
       <c r="M499">
         <v>0</v>
@@ -22408,7 +22408,7 @@
         <v>-0.1729846014592579</v>
       </c>
       <c r="L500">
-        <v>-0.04944495598321249</v>
+        <v>-0.04944495598321271</v>
       </c>
       <c r="M500">
         <v>0</v>
@@ -22452,7 +22452,7 @@
         <v>-0.1726970345767275</v>
       </c>
       <c r="L501">
-        <v>-0.02333905122361466</v>
+        <v>-0.02333905122361464</v>
       </c>
       <c r="M501">
         <v>0</v>
@@ -22496,7 +22496,7 @@
         <v>-0.172239192224754</v>
       </c>
       <c r="L502">
-        <v>-0.01507972617556137</v>
+        <v>-0.01507972617556113</v>
       </c>
       <c r="M502">
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>-0.1767061084689962</v>
       </c>
       <c r="L503">
-        <v>0.0166304365810125</v>
+        <v>0.01663043658101209</v>
       </c>
       <c r="M503">
         <v>1</v>
@@ -22584,7 +22584,7 @@
         <v>-0.1761968842387674</v>
       </c>
       <c r="L504">
-        <v>0.03393158354147262</v>
+        <v>0.03393158354147269</v>
       </c>
       <c r="M504">
         <v>1</v>
@@ -22628,7 +22628,7 @@
         <v>-0.1752040825951703</v>
       </c>
       <c r="L505">
-        <v>0.08436301121385499</v>
+        <v>0.08436301121385455</v>
       </c>
       <c r="M505">
         <v>1</v>
@@ -22672,7 +22672,7 @@
         <v>-0.1729668886497313</v>
       </c>
       <c r="L506">
-        <v>0.08562628425178236</v>
+        <v>0.08562628425178229</v>
       </c>
       <c r="M506">
         <v>1</v>
@@ -22716,7 +22716,7 @@
         <v>-0.164788897643057</v>
       </c>
       <c r="L507">
-        <v>0.216488784332415</v>
+        <v>0.2164887843324146</v>
       </c>
       <c r="M507">
         <v>1</v>
@@ -22804,7 +22804,7 @@
         <v>-0.1473344070681666</v>
       </c>
       <c r="L509">
-        <v>0.4682550762176796</v>
+        <v>0.4682550762176799</v>
       </c>
       <c r="M509">
         <v>1</v>
@@ -22848,10 +22848,10 @@
         <v>-0.1452463821184585</v>
       </c>
       <c r="L510">
-        <v>0.3946735776355653</v>
+        <v>0.394673577635565</v>
       </c>
       <c r="M510">
-        <v>0.8370737729427014</v>
+        <v>0.8370737729427002</v>
       </c>
       <c r="N510">
         <v>0.5</v>
@@ -22892,7 +22892,7 @@
         <v>-0.1219863923752011</v>
       </c>
       <c r="L511">
-        <v>0.5984129277693854</v>
+        <v>0.5984129277693853</v>
       </c>
       <c r="M511">
         <v>1</v>
@@ -22980,7 +22980,7 @@
         <v>-0.1064779175575137</v>
       </c>
       <c r="L513">
-        <v>0.9122401676253806</v>
+        <v>0.91224016762538</v>
       </c>
       <c r="M513">
         <v>1</v>
@@ -23024,10 +23024,10 @@
         <v>-0.06781979333707658</v>
       </c>
       <c r="L514">
-        <v>0.9035499736982214</v>
+        <v>0.9035499736982211</v>
       </c>
       <c r="M514">
-        <v>0.989503039358125</v>
+        <v>0.9895030393581253</v>
       </c>
       <c r="N514">
         <v>0.5</v>
@@ -23068,7 +23068,7 @@
         <v>-0.01957589240323911</v>
       </c>
       <c r="L515">
-        <v>0.9201101335021062</v>
+        <v>0.920110133502106</v>
       </c>
       <c r="M515">
         <v>1</v>
@@ -23156,7 +23156,7 @@
         <v>-0.005557519430905693</v>
       </c>
       <c r="L517">
-        <v>1.237573053516423</v>
+        <v>1.237573053516424</v>
       </c>
       <c r="M517">
         <v>1</v>
@@ -23200,10 +23200,10 @@
         <v>-0.0190526048381198</v>
       </c>
       <c r="L518">
-        <v>0.8819602089066194</v>
+        <v>0.88196020890662</v>
       </c>
       <c r="M518">
-        <v>0.5781076453533482</v>
+        <v>0.5781076453533488</v>
       </c>
       <c r="N518">
         <v>0.5</v>
@@ -23244,10 +23244,10 @@
         <v>-0.0306471731171423</v>
       </c>
       <c r="L519">
-        <v>0.5670729161455703</v>
+        <v>0.5670729161455693</v>
       </c>
       <c r="M519">
-        <v>0.2045313153503175</v>
+        <v>0.2045313153503164</v>
       </c>
       <c r="N519">
         <v>0.5</v>
@@ -23288,7 +23288,7 @@
         <v>0.01975736873883507</v>
       </c>
       <c r="L520">
-        <v>0.5493883233302175</v>
+        <v>0.5493883233302174</v>
       </c>
       <c r="M520">
         <v>0</v>
@@ -23332,10 +23332,10 @@
         <v>0.02608090773399901</v>
       </c>
       <c r="L521">
-        <v>0.8288257942646399</v>
+        <v>0.8288257942646405</v>
       </c>
       <c r="M521">
-        <v>0.4060500889910963</v>
+        <v>0.4060500889910971</v>
       </c>
       <c r="N521">
         <v>0.5</v>
@@ -23420,10 +23420,10 @@
         <v>-0.02038010679489436</v>
       </c>
       <c r="L523">
-        <v>0.9458238925112834</v>
+        <v>0.9458238925112835</v>
       </c>
       <c r="M523">
-        <v>0.5235015824472382</v>
+        <v>0.5235015824472388</v>
       </c>
       <c r="N523">
         <v>0.5</v>
@@ -23464,10 +23464,10 @@
         <v>-0.01672672437085385</v>
       </c>
       <c r="L524">
-        <v>0.9382774784891085</v>
+        <v>0.938277478489108</v>
       </c>
       <c r="M524">
-        <v>0.5135363825773793</v>
+        <v>0.5135363825773791</v>
       </c>
       <c r="N524">
         <v>0.5</v>
@@ -23508,7 +23508,7 @@
         <v>-0.06060186671251709</v>
       </c>
       <c r="L525">
-        <v>0.4211193078660837</v>
+        <v>0.4211193078660833</v>
       </c>
       <c r="M525">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>-0.06587082923213319</v>
       </c>
       <c r="L526">
-        <v>0.000896500437030404</v>
+        <v>0.0008965004370304041</v>
       </c>
       <c r="M526">
         <v>0</v>
@@ -23596,10 +23596,10 @@
         <v>-0.06041814411875419</v>
       </c>
       <c r="L527">
-        <v>0.1168685311577817</v>
+        <v>0.1168685311577819</v>
       </c>
       <c r="M527">
-        <v>0.08881515028820514</v>
+        <v>0.08881515028820536</v>
       </c>
       <c r="N527">
         <v>0.5</v>
@@ -23640,10 +23640,10 @@
         <v>-0.05981948795241324</v>
       </c>
       <c r="L528">
-        <v>0.1536548755804829</v>
+        <v>0.1536548755804828</v>
       </c>
       <c r="M528">
-        <v>0.1169873284259057</v>
+        <v>0.1169873284259056</v>
       </c>
       <c r="N528">
         <v>0.5</v>
@@ -23684,10 +23684,10 @@
         <v>-0.03924834213377593</v>
       </c>
       <c r="L529">
-        <v>0.498159697382796</v>
+        <v>0.4981596973827963</v>
       </c>
       <c r="M529">
-        <v>0.3808203175804958</v>
+        <v>0.3808203175804962</v>
       </c>
       <c r="N529">
         <v>0.5</v>
@@ -23728,10 +23728,10 @@
         <v>-0.03185631068074334</v>
       </c>
       <c r="L530">
-        <v>0.4785979729044542</v>
+        <v>0.4785979729044543</v>
       </c>
       <c r="M530">
-        <v>0.365839313206917</v>
+        <v>0.3658393132069173</v>
       </c>
       <c r="N530">
         <v>0.5</v>
@@ -23772,10 +23772,10 @@
         <v>-0.03259953506505407</v>
       </c>
       <c r="L531">
-        <v>0.4449342085212348</v>
+        <v>0.4449342085212346</v>
       </c>
       <c r="M531">
-        <v>0.3400585083492216</v>
+        <v>0.3400585083492215</v>
       </c>
       <c r="N531">
         <v>0.5</v>
@@ -23816,10 +23816,10 @@
         <v>-0.04742101115737266</v>
       </c>
       <c r="L532">
-        <v>0.1809501622543444</v>
+        <v>0.1809501622543441</v>
       </c>
       <c r="M532">
-        <v>0.1905476159623969</v>
+        <v>0.1905476159623966</v>
       </c>
       <c r="N532">
         <v>0.5</v>
@@ -23863,7 +23863,7 @@
         <v>0.3124259554807284</v>
       </c>
       <c r="M533">
-        <v>0.332340278219717</v>
+        <v>0.3323402782197171</v>
       </c>
       <c r="N533">
         <v>0.5</v>
@@ -23904,10 +23904,10 @@
         <v>-0.02568303326617284</v>
       </c>
       <c r="L534">
-        <v>0.1999460467300448</v>
+        <v>0.199946046730044</v>
       </c>
       <c r="M534">
-        <v>0.4002901230487079</v>
+        <v>0.4002901230487061</v>
       </c>
       <c r="N534">
         <v>0.5</v>
@@ -23948,10 +23948,10 @@
         <v>-0.004649729177225041</v>
       </c>
       <c r="L535">
-        <v>0.1448476669288302</v>
+        <v>0.1448476669288304</v>
       </c>
       <c r="M535">
-        <v>0.289486870084013</v>
+        <v>0.2894868700840133</v>
       </c>
       <c r="N535">
         <v>0.5</v>
@@ -23992,7 +23992,7 @@
         <v>-0.006145314989412214</v>
       </c>
       <c r="L536">
-        <v>0.08797464821083299</v>
+        <v>0.08797464821083305</v>
       </c>
       <c r="M536">
         <v>0</v>
@@ -24036,10 +24036,10 @@
         <v>-0.005246923760912032</v>
       </c>
       <c r="L537">
-        <v>0.1645879429621037</v>
+        <v>0.1645879429621042</v>
       </c>
       <c r="M537">
-        <v>0.1867773945099397</v>
+        <v>0.1867773945099405</v>
       </c>
       <c r="N537">
         <v>0.5</v>
@@ -24080,10 +24080,10 @@
         <v>0.0080075891028036</v>
       </c>
       <c r="L538">
-        <v>0.3223247707655454</v>
+        <v>0.3223247707655455</v>
       </c>
       <c r="M538">
-        <v>0.5713278019952043</v>
+        <v>0.5713278019952041</v>
       </c>
       <c r="N538">
         <v>0.5</v>
@@ -24124,10 +24124,10 @@
         <v>0.009262362872723317</v>
       </c>
       <c r="L539">
-        <v>0.3881815188306614</v>
+        <v>0.3881815188306618</v>
       </c>
       <c r="M539">
-        <v>0.7685328848585543</v>
+        <v>0.768532884858555</v>
       </c>
       <c r="N539">
         <v>0.5</v>
@@ -24168,7 +24168,7 @@
         <v>0.01724317459200542</v>
       </c>
       <c r="L540">
-        <v>0.463605607615464</v>
+        <v>0.4636056076154637</v>
       </c>
       <c r="M540">
         <v>1</v>
@@ -24212,10 +24212,10 @@
         <v>0.01994743963419918</v>
       </c>
       <c r="L541">
-        <v>0.3890900357888435</v>
+        <v>0.3890900357888434</v>
       </c>
       <c r="M541">
-        <v>0.8016255850030932</v>
+        <v>0.8016255850030937</v>
       </c>
       <c r="N541">
         <v>0.5</v>
@@ -24256,10 +24256,10 @@
         <v>0.03042971276699962</v>
       </c>
       <c r="L542">
-        <v>0.4415240604742794</v>
+        <v>0.4415240604742801</v>
       </c>
       <c r="M542">
-        <v>0.9412147838501291</v>
+        <v>0.9412147838501319</v>
       </c>
       <c r="N542">
         <v>0.5</v>
@@ -24300,7 +24300,7 @@
         <v>-0.04216930662027764</v>
       </c>
       <c r="L543">
-        <v>0.6562450792511293</v>
+        <v>0.6562450792511291</v>
       </c>
       <c r="M543">
         <v>1</v>
@@ -24344,10 +24344,10 @@
         <v>-0.06680828858097126</v>
       </c>
       <c r="L544">
-        <v>0.5424573979373349</v>
+        <v>0.5424573979373346</v>
       </c>
       <c r="M544">
-        <v>0.7997649092783333</v>
+        <v>0.799764909278333</v>
       </c>
       <c r="N544">
         <v>0.5</v>
@@ -24391,7 +24391,7 @@
         <v>0.6506531768617776</v>
       </c>
       <c r="M545">
-        <v>0.9901597864609726</v>
+        <v>0.9901597864609729</v>
       </c>
       <c r="N545">
         <v>0.5</v>
@@ -24432,7 +24432,7 @@
         <v>-0.02852027158312712</v>
       </c>
       <c r="L546">
-        <v>0.6760430133105088</v>
+        <v>0.6760430133105089</v>
       </c>
       <c r="M546">
         <v>1</v>
@@ -24476,10 +24476,10 @@
         <v>-0.03355082488430543</v>
       </c>
       <c r="L547">
-        <v>0.6601804707296525</v>
+        <v>0.660180470729652</v>
       </c>
       <c r="M547">
-        <v>0.9551548643159395</v>
+        <v>0.955154864315938</v>
       </c>
       <c r="N547">
         <v>0.5</v>
@@ -24520,7 +24520,7 @@
         <v>-0.03248970917411539</v>
       </c>
       <c r="L548">
-        <v>0.7034554583969237</v>
+        <v>0.703455458396923</v>
       </c>
       <c r="M548">
         <v>1</v>
@@ -24564,7 +24564,7 @@
         <v>-0.0165078693167611</v>
       </c>
       <c r="L549">
-        <v>0.7826269916781424</v>
+        <v>0.7826269916781422</v>
       </c>
       <c r="M549">
         <v>1</v>
@@ -24608,10 +24608,10 @@
         <v>-0.01636846316972611</v>
       </c>
       <c r="L550">
-        <v>0.777583195352835</v>
+        <v>0.7775831953528352</v>
       </c>
       <c r="M550">
-        <v>0.9871834239457649</v>
+        <v>0.9871834239457657</v>
       </c>
       <c r="N550">
         <v>0.5</v>
@@ -24652,10 +24652,10 @@
         <v>-0.01170652526140263</v>
       </c>
       <c r="L551">
-        <v>0.7255107695457901</v>
+        <v>0.72551076954579</v>
       </c>
       <c r="M551">
-        <v>0.8325542910734579</v>
+        <v>0.8325542910734578</v>
       </c>
       <c r="N551">
         <v>0.5</v>
@@ -24696,10 +24696,10 @@
         <v>-0.008981339397277105</v>
       </c>
       <c r="L552">
-        <v>0.7742200184272465</v>
+        <v>0.774220018427246</v>
       </c>
       <c r="M552">
-        <v>0.964995680260971</v>
+        <v>0.9649956802609697</v>
       </c>
       <c r="N552">
         <v>0.5</v>
@@ -24740,10 +24740,10 @@
         <v>0.02496990750096164</v>
       </c>
       <c r="L553">
-        <v>0.6051859993568405</v>
+        <v>0.6051859993568414</v>
       </c>
       <c r="M553">
-        <v>0.2611846089359781</v>
+        <v>0.2611846089359831</v>
       </c>
       <c r="N553">
         <v>0.5</v>
@@ -24784,7 +24784,7 @@
         <v>0.02410521475706466</v>
       </c>
       <c r="L554">
-        <v>0.6915849771676299</v>
+        <v>0.6915849771676302</v>
       </c>
       <c r="M554">
         <v>0.486916673991217</v>
@@ -24872,7 +24872,7 @@
         <v>0.04443963390432898</v>
       </c>
       <c r="L556">
-        <v>0.9220627168657209</v>
+        <v>0.9220627168657202</v>
       </c>
       <c r="M556">
         <v>1</v>
@@ -25139,7 +25139,7 @@
         <v>1.193717740431349</v>
       </c>
       <c r="M562">
-        <v>0.9917533683444101</v>
+        <v>0.9917533683444109</v>
       </c>
       <c r="N562">
         <v>0.5</v>
@@ -25180,10 +25180,10 @@
         <v>0.05373846954223001</v>
       </c>
       <c r="L563">
-        <v>0.8429450611669762</v>
+        <v>0.8429450611669763</v>
       </c>
       <c r="M563">
-        <v>0.2985249816257984</v>
+        <v>0.2985249816257982</v>
       </c>
       <c r="N563">
         <v>0.5</v>
@@ -25224,7 +25224,7 @@
         <v>0.125333454448625</v>
       </c>
       <c r="L564">
-        <v>0.786429312877351</v>
+        <v>0.7864293128773513</v>
       </c>
       <c r="M564">
         <v>0</v>
@@ -25268,7 +25268,7 @@
         <v>0.1199658508477924</v>
       </c>
       <c r="L565">
-        <v>0.770215879178314</v>
+        <v>0.7702158791783135</v>
       </c>
       <c r="M565">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0.1199019282772606</v>
       </c>
       <c r="L566">
-        <v>0.4227083446392383</v>
+        <v>0.4227083446392386</v>
       </c>
       <c r="M566">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0.1212642006233511</v>
       </c>
       <c r="L567">
-        <v>0.5258626765862893</v>
+        <v>0.525862676586289</v>
       </c>
       <c r="M567">
-        <v>0.1329474316129831</v>
+        <v>0.1329474316129825</v>
       </c>
       <c r="N567">
         <v>0.5</v>
@@ -25403,7 +25403,7 @@
         <v>0.645129086957035</v>
       </c>
       <c r="M568">
-        <v>0.2866604423727217</v>
+        <v>0.2866604423727215</v>
       </c>
       <c r="N568">
         <v>0.5</v>
@@ -25444,10 +25444,10 @@
         <v>0.1356439966992978</v>
       </c>
       <c r="L569">
-        <v>0.7062741182952047</v>
+        <v>0.7062741182952045</v>
       </c>
       <c r="M569">
-        <v>0.3654654204949946</v>
+        <v>0.3654654204949941</v>
       </c>
       <c r="N569">
         <v>0.5</v>
@@ -25488,10 +25488,10 @@
         <v>0.1486064265533469</v>
       </c>
       <c r="L570">
-        <v>0.8679992893708895</v>
+        <v>0.8679992893708907</v>
       </c>
       <c r="M570">
-        <v>0.5739001581918954</v>
+        <v>0.5739001581918968</v>
       </c>
       <c r="N570">
         <v>0.5</v>
@@ -25535,7 +25535,7 @@
         <v>0.9919014773034545</v>
       </c>
       <c r="M571">
-        <v>0.7382440937434298</v>
+        <v>0.7382440937434293</v>
       </c>
       <c r="N571">
         <v>0.5</v>
@@ -25576,7 +25576,7 @@
         <v>0.1454005787044827</v>
       </c>
       <c r="L572">
-        <v>1.034070475756896</v>
+        <v>1.034070475756897</v>
       </c>
       <c r="M572">
         <v>1</v>
@@ -25664,7 +25664,7 @@
         <v>0.09619574365139648</v>
       </c>
       <c r="L574">
-        <v>1.198282104332133</v>
+        <v>1.198282104332132</v>
       </c>
       <c r="M574">
         <v>1</v>
@@ -25708,10 +25708,10 @@
         <v>0.07973557212129345</v>
       </c>
       <c r="L575">
-        <v>0.9582746608203006</v>
+        <v>0.9582746608203007</v>
       </c>
       <c r="M575">
-        <v>0.6905420786710622</v>
+        <v>0.6905420786710627</v>
       </c>
       <c r="N575">
         <v>0.5</v>
@@ -25799,7 +25799,7 @@
         <v>1.191377700633807</v>
       </c>
       <c r="M577">
-        <v>0.9875180944847958</v>
+        <v>0.9875180944847965</v>
       </c>
       <c r="N577">
         <v>0.5</v>
@@ -26019,7 +26019,7 @@
         <v>1.447718171864147</v>
       </c>
       <c r="M582">
-        <v>0.9356081002340655</v>
+        <v>0.9356081002340667</v>
       </c>
       <c r="N582">
         <v>0.5</v>
@@ -26063,7 +26063,7 @@
         <v>1.361572529179616</v>
       </c>
       <c r="M583">
-        <v>0.7709342220910651</v>
+        <v>0.7709342220910654</v>
       </c>
       <c r="N583">
         <v>0.5</v>
@@ -26104,10 +26104,10 @@
         <v>0.0522283064328753</v>
       </c>
       <c r="L584">
-        <v>1.39157418139345</v>
+        <v>1.391574181393451</v>
       </c>
       <c r="M584">
-        <v>0.8282846378148401</v>
+        <v>0.8282846378148416</v>
       </c>
       <c r="N584">
         <v>0.5</v>
@@ -26151,7 +26151,7 @@
         <v>1.418138034658094</v>
       </c>
       <c r="M585">
-        <v>0.8326355017691276</v>
+        <v>0.8326355017691277</v>
       </c>
       <c r="N585">
         <v>0.5</v>
@@ -26195,7 +26195,7 @@
         <v>1.422331782666567</v>
       </c>
       <c r="M586">
-        <v>0.7963227434232941</v>
+        <v>0.7963227434232955</v>
       </c>
       <c r="N586">
         <v>0.5</v>
@@ -26239,7 +26239,7 @@
         <v>1.423728076838047</v>
       </c>
       <c r="M587">
-        <v>0.7599597275036497</v>
+        <v>0.7599597275036499</v>
       </c>
       <c r="N587">
         <v>0.5</v>
@@ -26415,7 +26415,7 @@
         <v>1.551277829951712</v>
       </c>
       <c r="M591">
-        <v>0.9175051145042064</v>
+        <v>0.9175051145042054</v>
       </c>
       <c r="N591">
         <v>0.5</v>
@@ -26459,7 +26459,7 @@
         <v>1.527742406601309</v>
       </c>
       <c r="M592">
-        <v>0.803676606770739</v>
+        <v>0.8036766067707402</v>
       </c>
       <c r="N592">
         <v>0.5</v>
@@ -26503,7 +26503,7 @@
         <v>1.486216046513659</v>
       </c>
       <c r="M593">
-        <v>0.5354243930440209</v>
+        <v>0.5354243930440192</v>
       </c>
       <c r="N593">
         <v>0.5</v>
@@ -26547,7 +26547,7 @@
         <v>1.455360274812915</v>
       </c>
       <c r="M594">
-        <v>0.2478234330598794</v>
+        <v>0.247823433059879</v>
       </c>
       <c r="N594">
         <v>0.5</v>
@@ -26591,7 +26591,7 @@
         <v>1.55250115610361</v>
       </c>
       <c r="M595">
-        <v>0.8915535585580194</v>
+        <v>0.8915535585580208</v>
       </c>
       <c r="N595">
         <v>0.5</v>
@@ -26635,7 +26635,7 @@
         <v>1.480741247759414</v>
       </c>
       <c r="M596">
-        <v>0.394264041927792</v>
+        <v>0.394264041927793</v>
       </c>
       <c r="N596">
         <v>0.5</v>
@@ -26673,13 +26673,13 @@
         <v>0.0141370129642786</v>
       </c>
       <c r="K597">
-        <v>-0.02508055588658784</v>
+        <v>-0.02508055588658773</v>
       </c>
       <c r="L597">
         <v>1.481691595874692</v>
       </c>
       <c r="M597">
-        <v>0.2330733997873366</v>
+        <v>0.2330733997873361</v>
       </c>
       <c r="N597">
         <v>0.5</v>
@@ -26720,7 +26720,7 @@
         <v>0.009240765413655641</v>
       </c>
       <c r="L598">
-        <v>1.658790402187686</v>
+        <v>1.658790402187687</v>
       </c>
       <c r="M598">
         <v>1</v>
@@ -26767,7 +26767,7 @@
         <v>1.6063092235707</v>
       </c>
       <c r="M599">
-        <v>0.7420186513460587</v>
+        <v>0.7420186513460582</v>
       </c>
       <c r="N599">
         <v>0.5</v>
@@ -26808,10 +26808,10 @@
         <v>0.002176438455380877</v>
       </c>
       <c r="L600">
-        <v>1.632832501979514</v>
+        <v>1.632832501979513</v>
       </c>
       <c r="M600">
-        <v>0.8723989384308269</v>
+        <v>0.8723989384308239</v>
       </c>
       <c r="N600">
         <v>0.5</v>
@@ -26852,10 +26852,10 @@
         <v>0.0008525134031895812</v>
       </c>
       <c r="L601">
-        <v>1.63794506137667</v>
+        <v>1.637945061376671</v>
       </c>
       <c r="M601">
-        <v>0.8975307095363806</v>
+        <v>0.897530709536383</v>
       </c>
       <c r="N601">
         <v>0.5</v>
@@ -26899,7 +26899,7 @@
         <v>1.600579125870335</v>
       </c>
       <c r="M602">
-        <v>0.7138512516874606</v>
+        <v>0.7138512516874601</v>
       </c>
       <c r="N602">
         <v>0.5</v>
@@ -26943,7 +26943,7 @@
         <v>1.546326062936779</v>
       </c>
       <c r="M603">
-        <v>0.4471598641644731</v>
+        <v>0.4471598641644732</v>
       </c>
       <c r="N603">
         <v>0.5</v>
@@ -26987,7 +26987,7 @@
         <v>1.534726753779237</v>
       </c>
       <c r="M604">
-        <v>0.3032056298900916</v>
+        <v>0.3032056298900913</v>
       </c>
       <c r="N604">
         <v>0.5</v>
@@ -27116,7 +27116,7 @@
         <v>0.07462881468535064</v>
       </c>
       <c r="L607">
-        <v>1.972031708488026</v>
+        <v>1.972031708488027</v>
       </c>
       <c r="M607">
         <v>1</v>
@@ -27204,10 +27204,10 @@
         <v>0.07641841654904566</v>
       </c>
       <c r="L609">
-        <v>2.047689437528726</v>
+        <v>2.047689437528725</v>
       </c>
       <c r="M609">
-        <v>0.9723862585693563</v>
+        <v>0.9723862585693546</v>
       </c>
       <c r="N609">
         <v>0.5</v>
@@ -27339,7 +27339,7 @@
         <v>2.277887148500323</v>
       </c>
       <c r="M612">
-        <v>0.9711391428628826</v>
+        <v>0.9711391428628821</v>
       </c>
       <c r="N612">
         <v>0.5</v>
@@ -27383,7 +27383,7 @@
         <v>2.205189899155486</v>
       </c>
       <c r="M613">
-        <v>0.8761406137179991</v>
+        <v>0.8761406137179986</v>
       </c>
       <c r="N613">
         <v>0.5</v>
@@ -27424,10 +27424,10 @@
         <v>0.04324166949178933</v>
       </c>
       <c r="L614">
-        <v>2.195301555391467</v>
+        <v>2.195301555391468</v>
       </c>
       <c r="M614">
-        <v>0.774632144409126</v>
+        <v>0.7746321444091269</v>
       </c>
       <c r="N614">
         <v>0.5</v>
@@ -27468,7 +27468,7 @@
         <v>0.05741141000921327</v>
       </c>
       <c r="L615">
-        <v>2.388304229365778</v>
+        <v>2.388304229365777</v>
       </c>
       <c r="M615">
         <v>1</v>
@@ -27512,7 +27512,7 @@
         <v>0.05139031164453221</v>
       </c>
       <c r="L616">
-        <v>2.389037108944807</v>
+        <v>2.389037108944808</v>
       </c>
       <c r="M616">
         <v>1</v>
@@ -27556,10 +27556,10 @@
         <v>0.04843892229920921</v>
       </c>
       <c r="L617">
-        <v>2.371707693950667</v>
+        <v>2.371707693950666</v>
       </c>
       <c r="M617">
-        <v>0.9492323620599227</v>
+        <v>0.9492323620599151</v>
       </c>
       <c r="N617">
         <v>0.5</v>
@@ -27647,7 +27647,7 @@
         <v>2.51231766792991</v>
       </c>
       <c r="M619">
-        <v>0.8392636576188571</v>
+        <v>0.8392636576188567</v>
       </c>
       <c r="N619">
         <v>0.5</v>
@@ -27688,10 +27688,10 @@
         <v>0.0438642649722443</v>
       </c>
       <c r="L620">
-        <v>2.521834928371092</v>
+        <v>2.521834928371091</v>
       </c>
       <c r="M620">
-        <v>0.8505283072287729</v>
+        <v>0.8505283072287704</v>
       </c>
       <c r="N620">
         <v>0.5</v>
@@ -27735,7 +27735,7 @@
         <v>2.486036495464005</v>
       </c>
       <c r="M621">
-        <v>0.757283380181738</v>
+        <v>0.7572833801817377</v>
       </c>
       <c r="N621">
         <v>0.5</v>
@@ -27776,10 +27776,10 @@
         <v>0.04329878957883788</v>
       </c>
       <c r="L622">
-        <v>2.544789762670088</v>
+        <v>2.544789762670089</v>
       </c>
       <c r="M622">
-        <v>0.9103192443109067</v>
+        <v>0.9103192443109089</v>
       </c>
       <c r="N622">
         <v>0.5</v>
@@ -27820,10 +27820,10 @@
         <v>0.04665069402754483</v>
       </c>
       <c r="L623">
-        <v>2.577436960182137</v>
+        <v>2.577436960182136</v>
       </c>
       <c r="M623">
-        <v>0.9953560826049788</v>
+        <v>0.9953560826049775</v>
       </c>
       <c r="N623">
         <v>0.5</v>
@@ -27867,7 +27867,7 @@
         <v>2.485094864298353</v>
       </c>
       <c r="M624">
-        <v>0.5464121969305865</v>
+        <v>0.5464121969305916</v>
       </c>
       <c r="N624">
         <v>0.5</v>
@@ -27908,10 +27908,10 @@
         <v>0.0358506610116961</v>
       </c>
       <c r="L625">
-        <v>2.47041153507283</v>
+        <v>2.470411535072832</v>
       </c>
       <c r="M625">
-        <v>0.475653308109468</v>
+        <v>0.4756533081094799</v>
       </c>
       <c r="N625">
         <v>0.5</v>
@@ -27952,7 +27952,7 @@
         <v>0.03875143947507993</v>
       </c>
       <c r="L626">
-        <v>2.604743472890335</v>
+        <v>2.604743472890336</v>
       </c>
       <c r="M626">
         <v>1</v>
@@ -27996,7 +27996,7 @@
         <v>0.02201198959584967</v>
       </c>
       <c r="L627">
-        <v>2.394695978767419</v>
+        <v>2.394695978767418</v>
       </c>
       <c r="M627">
         <v>0</v>
@@ -28040,7 +28040,7 @@
         <v>0.01387789940370131</v>
       </c>
       <c r="L628">
-        <v>2.275124985674604</v>
+        <v>2.275124985674603</v>
       </c>
       <c r="M628">
         <v>0</v>
@@ -28084,7 +28084,7 @@
         <v>0.007438543590146895</v>
       </c>
       <c r="L629">
-        <v>2.159678108543516</v>
+        <v>2.159678108543517</v>
       </c>
       <c r="M629">
         <v>0</v>
@@ -28216,7 +28216,7 @@
         <v>-0.1012846675852432</v>
       </c>
       <c r="L632">
-        <v>1.604307381513179</v>
+        <v>1.604307381513178</v>
       </c>
       <c r="M632">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>-0.1065334730522158</v>
       </c>
       <c r="L633">
-        <v>1.557204279964703</v>
+        <v>1.557204279964702</v>
       </c>
       <c r="M633">
         <v>0</v>
@@ -28298,16 +28298,16 @@
         <v>0</v>
       </c>
       <c r="J634">
-        <v>-2.457397934955798e-06</v>
+        <v>-2.457397934955798E-06</v>
       </c>
       <c r="K634">
         <v>-0.1037028127030602</v>
       </c>
       <c r="L634">
-        <v>1.636386390515599</v>
+        <v>1.636386390515598</v>
       </c>
       <c r="M634">
-        <v>0.07558868545028069</v>
+        <v>0.07558868545028019</v>
       </c>
       <c r="N634">
         <v>0.5</v>
@@ -28348,7 +28348,7 @@
         <v>-0.1105231255536415</v>
       </c>
       <c r="L635">
-        <v>1.520602213691646</v>
+        <v>1.520602213691645</v>
       </c>
       <c r="M635">
         <v>0</v>
@@ -28480,7 +28480,7 @@
         <v>-0.1306247891550487</v>
       </c>
       <c r="L638">
-        <v>1.275689783510786</v>
+        <v>1.275689783510787</v>
       </c>
       <c r="M638">
         <v>0.2728920875313294</v>
@@ -28527,7 +28527,7 @@
         <v>1.551661103950232</v>
       </c>
       <c r="M639">
-        <v>0.6168227422474795</v>
+        <v>0.6168227422474788</v>
       </c>
       <c r="N639">
         <v>0.5</v>
@@ -28568,10 +28568,10 @@
         <v>-0.150114918778423</v>
       </c>
       <c r="L640">
-        <v>1.120830012552964</v>
+        <v>1.120830012552963</v>
       </c>
       <c r="M640">
-        <v>0.2553737236770718</v>
+        <v>0.2553737236770713</v>
       </c>
       <c r="N640">
         <v>0.5</v>
@@ -28612,10 +28612,10 @@
         <v>-0.1732352593890542</v>
       </c>
       <c r="L641">
-        <v>1.045874049674921</v>
+        <v>1.04587404967492</v>
       </c>
       <c r="M641">
-        <v>0.1472348779687138</v>
+        <v>0.1472348779687129</v>
       </c>
       <c r="N641">
         <v>0.5</v>
@@ -28656,7 +28656,7 @@
         <v>-0.2294947593385585</v>
       </c>
       <c r="L642">
-        <v>0.6268638312105684</v>
+        <v>0.6268638312105687</v>
       </c>
       <c r="M642">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>-0.2759929103716506</v>
       </c>
       <c r="L643">
-        <v>0.3709480233257765</v>
+        <v>0.3709480233257763</v>
       </c>
       <c r="M643">
         <v>0</v>
@@ -28744,10 +28744,10 @@
         <v>-0.2682944731449742</v>
       </c>
       <c r="L644">
-        <v>0.5844547582093413</v>
+        <v>0.5844547582093416</v>
       </c>
       <c r="M644">
-        <v>0.1808286351588867</v>
+        <v>0.180828635158887</v>
       </c>
       <c r="N644">
         <v>0.5</v>
@@ -28788,10 +28788,10 @@
         <v>-0.2314348073107662</v>
       </c>
       <c r="L645">
-        <v>0.7001205682916906</v>
+        <v>0.70012056829169</v>
       </c>
       <c r="M645">
-        <v>0.2787913087164421</v>
+        <v>0.2787913087164418</v>
       </c>
       <c r="N645">
         <v>0.5</v>
@@ -28832,10 +28832,10 @@
         <v>-0.1413755710829208</v>
       </c>
       <c r="L646">
-        <v>1.284732585339329</v>
+        <v>1.28473258533933</v>
       </c>
       <c r="M646">
-        <v>0.7739260087897648</v>
+        <v>0.7739260087897656</v>
       </c>
       <c r="N646">
         <v>0.5</v>
@@ -28876,7 +28876,7 @@
         <v>-0.1389717126432621</v>
       </c>
       <c r="L647">
-        <v>1.318440654373783</v>
+        <v>1.318440654373782</v>
       </c>
       <c r="M647">
         <v>0.8024749167231178</v>
@@ -28923,7 +28923,7 @@
         <v>1.394077305893487</v>
       </c>
       <c r="M648">
-        <v>0.8665350620377629</v>
+        <v>0.866535062037763</v>
       </c>
       <c r="N648">
         <v>0.5</v>
@@ -28964,10 +28964,10 @@
         <v>-0.2137561634306609</v>
       </c>
       <c r="L649">
-        <v>1.093558460451365</v>
+        <v>1.093558460451366</v>
       </c>
       <c r="M649">
-        <v>0.7062748075317316</v>
+        <v>0.7062748075317326</v>
       </c>
       <c r="N649">
         <v>0.5</v>
@@ -29011,7 +29011,7 @@
         <v>1.239802226337457</v>
       </c>
       <c r="M650">
-        <v>0.8492125265256292</v>
+        <v>0.8492125265256296</v>
       </c>
       <c r="N650">
         <v>0.5</v>
@@ -29055,7 +29055,7 @@
         <v>1.34253083965649</v>
       </c>
       <c r="M651">
-        <v>0.9496188144399184</v>
+        <v>0.9496188144399186</v>
       </c>
       <c r="N651">
         <v>0.5</v>
@@ -29140,10 +29140,10 @@
         <v>-0.2667865563424922</v>
       </c>
       <c r="L653">
-        <v>0.9805598930200973</v>
+        <v>0.9805598930200974</v>
       </c>
       <c r="M653">
-        <v>0.4493455545860844</v>
+        <v>0.4493455545860843</v>
       </c>
       <c r="N653">
         <v>0.5</v>
@@ -29184,10 +29184,10 @@
         <v>-0.2677443010093036</v>
       </c>
       <c r="L654">
-        <v>1.006813360632547</v>
+        <v>1.006813360632548</v>
       </c>
       <c r="M654">
-        <v>0.400460742766002</v>
+        <v>0.4004607427660029</v>
       </c>
       <c r="N654">
         <v>0.5</v>
@@ -29228,10 +29228,10 @@
         <v>-0.2672217432200915</v>
       </c>
       <c r="L655">
-        <v>1.057700686894918</v>
+        <v>1.057700686894917</v>
       </c>
       <c r="M655">
-        <v>0.1589186735971661</v>
+        <v>0.1589186735971645</v>
       </c>
       <c r="N655">
         <v>0.5</v>
@@ -29275,7 +29275,7 @@
         <v>1.293918376944103</v>
       </c>
       <c r="M656">
-        <v>0.6455535667215433</v>
+        <v>0.6455535667215434</v>
       </c>
       <c r="N656">
         <v>0.5</v>
@@ -29319,7 +29319,7 @@
         <v>1.323832551444348</v>
       </c>
       <c r="M657">
-        <v>0.7071801159770185</v>
+        <v>0.707180115977019</v>
       </c>
       <c r="N657">
         <v>0.5</v>
@@ -29360,10 +29360,10 @@
         <v>-0.2362599079539206</v>
       </c>
       <c r="L658">
-        <v>1.239822053149915</v>
+        <v>1.239822053149914</v>
       </c>
       <c r="M658">
-        <v>0.5341090820069352</v>
+        <v>0.534109082006934</v>
       </c>
       <c r="N658">
         <v>0.5</v>
@@ -29407,7 +29407,7 @@
         <v>1.26285379041453</v>
       </c>
       <c r="M659">
-        <v>0.5815570398626789</v>
+        <v>0.5815570398626795</v>
       </c>
       <c r="N659">
         <v>0.5</v>
@@ -29451,7 +29451,7 @@
         <v>1.204577202552683</v>
       </c>
       <c r="M660">
-        <v>0.4615007430633226</v>
+        <v>0.4615007430633218</v>
       </c>
       <c r="N660">
         <v>0.5</v>
@@ -29492,10 +29492,10 @@
         <v>-0.2438366174669113</v>
       </c>
       <c r="L661">
-        <v>1.214829867780182</v>
+        <v>1.214829867780183</v>
       </c>
       <c r="M661">
-        <v>0.4826223815239529</v>
+        <v>0.482622381523954</v>
       </c>
       <c r="N661">
         <v>0.5</v>
@@ -29539,7 +29539,7 @@
         <v>1.186813789824532</v>
       </c>
       <c r="M662">
-        <v>0.6008456885299785</v>
+        <v>0.6008456885299782</v>
       </c>
       <c r="N662">
         <v>0.5</v>
@@ -29580,10 +29580,10 @@
         <v>-0.2343020553570996</v>
       </c>
       <c r="L663">
-        <v>1.231298505671131</v>
+        <v>1.23129850567113</v>
       </c>
       <c r="M663">
-        <v>0.7081121633795657</v>
+        <v>0.708112163379563</v>
       </c>
       <c r="N663">
         <v>0.5</v>
@@ -29671,7 +29671,7 @@
         <v>1.312234711926307</v>
       </c>
       <c r="M665">
-        <v>0.6163860838130922</v>
+        <v>0.6163860838130906</v>
       </c>
       <c r="N665">
         <v>0.5</v>
@@ -29715,7 +29715,7 @@
         <v>1.339414764321627</v>
       </c>
       <c r="M666">
-        <v>0.7499635266594357</v>
+        <v>0.7499635266594401</v>
       </c>
       <c r="N666">
         <v>0.5</v>
@@ -29759,7 +29759,7 @@
         <v>1.232359701386491</v>
       </c>
       <c r="M667">
-        <v>0.2238371843462639</v>
+        <v>0.2238371843462616</v>
       </c>
       <c r="N667">
         <v>0.5</v>
@@ -29803,7 +29803,7 @@
         <v>1.236212495580365</v>
       </c>
       <c r="M668">
-        <v>0.2427718938437169</v>
+        <v>0.2427718938437146</v>
       </c>
       <c r="N668">
         <v>0.5</v>
@@ -29935,7 +29935,7 @@
         <v>1.072192985737557</v>
       </c>
       <c r="M671">
-        <v>0.1097976103434374</v>
+        <v>0.1097976103434376</v>
       </c>
       <c r="N671">
         <v>0.5</v>
@@ -30020,10 +30020,10 @@
         <v>-0.2615063698337328</v>
       </c>
       <c r="L673">
-        <v>1.122004701356381</v>
+        <v>1.12200470135638</v>
       </c>
       <c r="M673">
-        <v>0.2843656679469192</v>
+        <v>0.2843656679469175</v>
       </c>
       <c r="N673">
         <v>0.5</v>
@@ -30064,10 +30064,10 @@
         <v>-0.2718656598239128</v>
       </c>
       <c r="L674">
-        <v>1.024969074793381</v>
+        <v>1.024969074793382</v>
       </c>
       <c r="M674">
-        <v>0.02953958833214056</v>
+        <v>0.02953958833214397</v>
       </c>
       <c r="N674">
         <v>0.5</v>
@@ -30108,7 +30108,7 @@
         <v>-0.2931013322389893</v>
       </c>
       <c r="L675">
-        <v>0.9144990890399698</v>
+        <v>0.91449908903997</v>
       </c>
       <c r="M675">
         <v>0</v>
@@ -30152,10 +30152,10 @@
         <v>-0.2413175577865747</v>
       </c>
       <c r="L676">
-        <v>0.9192617555258334</v>
+        <v>0.9192617555258339</v>
       </c>
       <c r="M676">
-        <v>0.01480406594515245</v>
+        <v>0.01480406594515317</v>
       </c>
       <c r="N676">
         <v>0.5</v>
@@ -30240,7 +30240,7 @@
         <v>-0.2442006855018753</v>
       </c>
       <c r="L678">
-        <v>0.8340620874052117</v>
+        <v>0.834062087405212</v>
       </c>
       <c r="M678">
         <v>0</v>
@@ -30284,10 +30284,10 @@
         <v>-0.2429439263297519</v>
       </c>
       <c r="L679">
-        <v>0.8342724427620664</v>
+        <v>0.8342724427620667</v>
       </c>
       <c r="M679">
-        <v>0.0007305461111439573</v>
+        <v>0.0007305461111439599</v>
       </c>
       <c r="N679">
         <v>0.5</v>
@@ -30328,10 +30328,10 @@
         <v>-0.2406514345394319</v>
       </c>
       <c r="L680">
-        <v>0.9168523982259337</v>
+        <v>0.9168523982259338</v>
       </c>
       <c r="M680">
-        <v>0.2875236481487315</v>
+        <v>0.2875236481487318</v>
       </c>
       <c r="N680">
         <v>0.5</v>
@@ -30416,10 +30416,10 @@
         <v>-0.2437779375415289</v>
       </c>
       <c r="L682">
-        <v>0.8330748723742397</v>
+        <v>0.8330748723742394</v>
       </c>
       <c r="M682">
-        <v>0.1235049147547499</v>
+        <v>0.1235049147547491</v>
       </c>
       <c r="N682">
         <v>0.5</v>
@@ -30460,7 +30460,7 @@
         <v>-0.202255901388465</v>
       </c>
       <c r="L683">
-        <v>1.177469781062566</v>
+        <v>1.177469781062565</v>
       </c>
       <c r="M683">
         <v>1</v>
@@ -30507,7 +30507,7 @@
         <v>1.141358585183779</v>
       </c>
       <c r="M684">
-        <v>0.9062308315682479</v>
+        <v>0.9062308315682495</v>
       </c>
       <c r="N684">
         <v>0.5</v>
@@ -30592,7 +30592,7 @@
         <v>-0.1743093273785464</v>
       </c>
       <c r="L686">
-        <v>1.536453917693036</v>
+        <v>1.536453917693035</v>
       </c>
       <c r="M686">
         <v>1</v>
@@ -30636,10 +30636,10 @@
         <v>-0.1791080303696381</v>
       </c>
       <c r="L687">
-        <v>1.457603732914592</v>
+        <v>1.457603732914591</v>
       </c>
       <c r="M687">
-        <v>0.8940315992129108</v>
+        <v>0.8940315992129109</v>
       </c>
       <c r="N687">
         <v>0.5</v>
@@ -30683,7 +30683,7 @@
         <v>1.231607932133593</v>
       </c>
       <c r="M688">
-        <v>0.5903111493414095</v>
+        <v>0.59031114934141</v>
       </c>
       <c r="N688">
         <v>0.5</v>
@@ -30727,7 +30727,7 @@
         <v>1.159236570470167</v>
       </c>
       <c r="M689">
-        <v>0.4930497734827974</v>
+        <v>0.4930497734827978</v>
       </c>
       <c r="N689">
         <v>0.5</v>
@@ -30768,10 +30768,10 @@
         <v>-0.2379846902416163</v>
       </c>
       <c r="L690">
-        <v>0.9099535424848987</v>
+        <v>0.9099535424848983</v>
       </c>
       <c r="M690">
-        <v>0.1580331353710794</v>
+        <v>0.158033135371079</v>
       </c>
       <c r="N690">
         <v>0.5</v>
@@ -30812,10 +30812,10 @@
         <v>-0.2360344430571663</v>
       </c>
       <c r="L691">
-        <v>0.8625860415350386</v>
+        <v>0.8625860415350391</v>
       </c>
       <c r="M691">
-        <v>0.04195628140645472</v>
+        <v>0.041956281406456</v>
       </c>
       <c r="N691">
         <v>0.5</v>
@@ -30856,7 +30856,7 @@
         <v>-0.2155951849250527</v>
       </c>
       <c r="L692">
-        <v>0.7931025419278255</v>
+        <v>0.7931025419278254</v>
       </c>
       <c r="M692">
         <v>0</v>
@@ -30903,7 +30903,7 @@
         <v>0.8777347209372487</v>
       </c>
       <c r="M693">
-        <v>0.113852185882218</v>
+        <v>0.1138521858822182</v>
       </c>
       <c r="N693">
         <v>0.5</v>
@@ -30944,10 +30944,10 @@
         <v>-0.2011057724125422</v>
       </c>
       <c r="L694">
-        <v>0.8564734993218436</v>
+        <v>0.8564734993218431</v>
       </c>
       <c r="M694">
-        <v>0.08525033982587799</v>
+        <v>0.0852503398258776</v>
       </c>
       <c r="N694">
         <v>0.5</v>
@@ -30991,7 +30991,7 @@
         <v>1.168812384550193</v>
       </c>
       <c r="M695">
-        <v>0.5054269822741756</v>
+        <v>0.5054269822741762</v>
       </c>
       <c r="N695">
         <v>0.5</v>
@@ -31035,7 +31035,7 @@
         <v>1.016824862448211</v>
       </c>
       <c r="M696">
-        <v>0.3366770798230829</v>
+        <v>0.3366770798230832</v>
       </c>
       <c r="N696">
         <v>0.5</v>
@@ -31076,10 +31076,10 @@
         <v>-0.1892143513902899</v>
       </c>
       <c r="L697">
-        <v>0.9850728126934998</v>
+        <v>0.9850728126935002</v>
       </c>
       <c r="M697">
-        <v>0.4377831494285459</v>
+        <v>0.4377831494285471</v>
       </c>
       <c r="N697">
         <v>0.5</v>
@@ -31120,10 +31120,10 @@
         <v>-0.1894876229498441</v>
       </c>
       <c r="L698">
-        <v>0.9665588439673423</v>
+        <v>0.966558843967342</v>
       </c>
       <c r="M698">
-        <v>0.4616762255383896</v>
+        <v>0.4616762255383891</v>
       </c>
       <c r="N698">
         <v>0.5</v>
@@ -31164,10 +31164,10 @@
         <v>-0.1903635300490532</v>
       </c>
       <c r="L699">
-        <v>0.9299325306378136</v>
+        <v>0.9299325306378133</v>
       </c>
       <c r="M699">
-        <v>0.3641905885535143</v>
+        <v>0.3641905885535139</v>
       </c>
       <c r="N699">
         <v>0.5</v>
@@ -31211,7 +31211,7 @@
         <v>0.8942325661788857</v>
       </c>
       <c r="M700">
-        <v>0.2691705480622925</v>
+        <v>0.2691705480622927</v>
       </c>
       <c r="N700">
         <v>0.5</v>
@@ -31252,10 +31252,10 @@
         <v>-0.1896377312221205</v>
       </c>
       <c r="L701">
-        <v>0.8473125797244765</v>
+        <v>0.8473125797244769</v>
       </c>
       <c r="M701">
-        <v>0.1442869779995051</v>
+        <v>0.1442869779995066</v>
       </c>
       <c r="N701">
         <v>0.5</v>
@@ -31296,10 +31296,10 @@
         <v>-0.1776855370094758</v>
       </c>
       <c r="L702">
-        <v>0.9175731026346478</v>
+        <v>0.9175731026346479</v>
       </c>
       <c r="M702">
-        <v>0.2185398617839263</v>
+        <v>0.2185398617839256</v>
       </c>
       <c r="N702">
         <v>0.5</v>
@@ -31343,7 +31343,7 @@
         <v>1.051125184709111</v>
       </c>
       <c r="M703">
-        <v>0.6339431686284253</v>
+        <v>0.6339431686284247</v>
       </c>
       <c r="N703">
         <v>0.5</v>
@@ -31387,7 +31387,7 @@
         <v>1.049534257286267</v>
       </c>
       <c r="M704">
-        <v>0.6289947132982378</v>
+        <v>0.6289947132982359</v>
       </c>
       <c r="N704">
         <v>0.5</v>
@@ -31428,10 +31428,10 @@
         <v>-0.1670184381849882</v>
       </c>
       <c r="L705">
-        <v>1.043533687399179</v>
+        <v>1.043533687399178</v>
       </c>
       <c r="M705">
-        <v>0.9627525622838462</v>
+        <v>0.9627525622838428</v>
       </c>
       <c r="N705">
         <v>0.5</v>
@@ -31560,7 +31560,7 @@
         <v>-0.2087774698112024</v>
       </c>
       <c r="L708">
-        <v>0.8295871305198658</v>
+        <v>0.8295871305198657</v>
       </c>
       <c r="M708">
         <v>0</v>
@@ -31604,7 +31604,7 @@
         <v>-0.1808626475315702</v>
       </c>
       <c r="L709">
-        <v>0.8068757562448895</v>
+        <v>0.8068757562448893</v>
       </c>
       <c r="M709">
         <v>0</v>
@@ -31648,7 +31648,7 @@
         <v>-0.2058349179682324</v>
       </c>
       <c r="L710">
-        <v>0.6854057953589439</v>
+        <v>0.6854057953589443</v>
       </c>
       <c r="M710">
         <v>0</v>
@@ -31692,7 +31692,7 @@
         <v>-0.215052186036837</v>
       </c>
       <c r="L711">
-        <v>0.673411862216204</v>
+        <v>0.6734118622162039</v>
       </c>
       <c r="M711">
         <v>0</v>
@@ -31736,10 +31736,10 @@
         <v>-0.1765981297934934</v>
       </c>
       <c r="L712">
-        <v>0.7291298779580512</v>
+        <v>0.7291298779580511</v>
       </c>
       <c r="M712">
-        <v>0.1347985240728235</v>
+        <v>0.1347985240728234</v>
       </c>
       <c r="N712">
         <v>0.5</v>
@@ -31780,10 +31780,10 @@
         <v>-0.1630507541577385</v>
       </c>
       <c r="L713">
-        <v>0.7795765384698699</v>
+        <v>0.77957653846987</v>
       </c>
       <c r="M713">
-        <v>0.2568440651937123</v>
+        <v>0.2568440651937128</v>
       </c>
       <c r="N713">
         <v>0.5</v>
@@ -31824,10 +31824,10 @@
         <v>-0.1596268850115864</v>
       </c>
       <c r="L714">
-        <v>0.7795920073466173</v>
+        <v>0.7795920073466174</v>
       </c>
       <c r="M714">
-        <v>0.2568814890274015</v>
+        <v>0.256881489027402</v>
       </c>
       <c r="N714">
         <v>0.5</v>
@@ -31868,10 +31868,10 @@
         <v>-0.1609341857045695</v>
       </c>
       <c r="L715">
-        <v>0.7397772642143572</v>
+        <v>0.7397772642143575</v>
       </c>
       <c r="M715">
-        <v>0.1605577319963994</v>
+        <v>0.1605577319964004</v>
       </c>
       <c r="N715">
         <v>0.5</v>
@@ -31912,10 +31912,10 @@
         <v>-0.1689715469911737</v>
       </c>
       <c r="L716">
-        <v>0.7236701814629507</v>
+        <v>0.7236701814629511</v>
       </c>
       <c r="M716">
-        <v>0.1215898873396893</v>
+        <v>0.1215898873396906</v>
       </c>
       <c r="N716">
         <v>0.5</v>
@@ -31956,7 +31956,7 @@
         <v>-0.1576122603755503</v>
       </c>
       <c r="L717">
-        <v>0.8728364164757177</v>
+        <v>0.8728364164757181</v>
       </c>
       <c r="M717">
         <v>1</v>
@@ -32000,10 +32000,10 @@
         <v>-0.1613315525876572</v>
       </c>
       <c r="L718">
-        <v>0.7958488426523896</v>
+        <v>0.7958488426523893</v>
       </c>
       <c r="M718">
-        <v>0.61395138071542</v>
+        <v>0.6139513807154175</v>
       </c>
       <c r="N718">
         <v>0.5</v>
@@ -32044,10 +32044,10 @@
         <v>-0.1647513177359447</v>
       </c>
       <c r="L719">
-        <v>0.7810981255299546</v>
+        <v>0.7810981255299549</v>
       </c>
       <c r="M719">
-        <v>0.5399849768430075</v>
+        <v>0.5399849768430085</v>
       </c>
       <c r="N719">
         <v>0.5</v>
@@ -32091,7 +32091,7 @@
         <v>0.6991207138118372</v>
       </c>
       <c r="M720">
-        <v>0.1289151764239519</v>
+        <v>0.1289151764239522</v>
       </c>
       <c r="N720">
         <v>0.5</v>
@@ -32132,7 +32132,7 @@
         <v>-0.1694207014878013</v>
       </c>
       <c r="L721">
-        <v>0.6512681456507098</v>
+        <v>0.6512681456507101</v>
       </c>
       <c r="M721">
         <v>0</v>
@@ -32176,7 +32176,7 @@
         <v>-0.1697205834668677</v>
       </c>
       <c r="L722">
-        <v>0.6414400316770356</v>
+        <v>0.6414400316770352</v>
       </c>
       <c r="M722">
         <v>0</v>
@@ -32220,10 +32220,10 @@
         <v>-0.1686904070862011</v>
       </c>
       <c r="L723">
-        <v>0.7030987401491172</v>
+        <v>0.7030987401491171</v>
       </c>
       <c r="M723">
-        <v>0.2664635773187447</v>
+        <v>0.2664635773187449</v>
       </c>
       <c r="N723">
         <v>0.5</v>
@@ -32264,10 +32264,10 @@
         <v>-0.1686938655420003</v>
       </c>
       <c r="L724">
-        <v>0.7250754450776458</v>
+        <v>0.7250754450776459</v>
       </c>
       <c r="M724">
-        <v>0.3614378568333039</v>
+        <v>0.3614378568333048</v>
       </c>
       <c r="N724">
         <v>0.5</v>
@@ -32308,7 +32308,7 @@
         <v>-0.184265622759071</v>
       </c>
       <c r="L725">
-        <v>0.595905956867874</v>
+        <v>0.5959059568678738</v>
       </c>
       <c r="M725">
         <v>0</v>
@@ -32352,7 +32352,7 @@
         <v>-0.2019572915836904</v>
       </c>
       <c r="L726">
-        <v>0.5562464189343491</v>
+        <v>0.5562464189343489</v>
       </c>
       <c r="M726">
         <v>0</v>
@@ -32440,7 +32440,7 @@
         <v>-0.210783006534581</v>
       </c>
       <c r="L728">
-        <v>0.4233019237997625</v>
+        <v>0.4233019237997621</v>
       </c>
       <c r="M728">
         <v>0</v>
@@ -32484,10 +32484,10 @@
         <v>-0.2045691520496801</v>
       </c>
       <c r="L729">
-        <v>0.501361353251326</v>
+        <v>0.5013613532513262</v>
       </c>
       <c r="M729">
-        <v>0.2586689154204612</v>
+        <v>0.2586689154204629</v>
       </c>
       <c r="N729">
         <v>0.5</v>
@@ -32528,7 +32528,7 @@
         <v>-0.1906362903123305</v>
       </c>
       <c r="L730">
-        <v>0.3809398335625261</v>
+        <v>0.380939833562526</v>
       </c>
       <c r="M730">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>-0.1916760360641793</v>
       </c>
       <c r="L731">
-        <v>0.2856032392274496</v>
+        <v>0.2856032392274499</v>
       </c>
       <c r="M731">
         <v>0</v>
@@ -32616,7 +32616,7 @@
         <v>-0.1898333690521198</v>
       </c>
       <c r="L732">
-        <v>0.1678537793681562</v>
+        <v>0.1678537793681567</v>
       </c>
       <c r="M732">
         <v>0</v>
@@ -32660,7 +32660,7 @@
         <v>-0.1896774166236064</v>
       </c>
       <c r="L733">
-        <v>0.1461982105497635</v>
+        <v>0.1461982105497645</v>
       </c>
       <c r="M733">
         <v>0</v>
@@ -32704,10 +32704,10 @@
         <v>-0.1898524708640318</v>
       </c>
       <c r="L734">
-        <v>0.14913092317686</v>
+        <v>0.1491309231768604</v>
       </c>
       <c r="M734">
-        <v>0.006521374495119265</v>
+        <v>0.006521374495117862</v>
       </c>
       <c r="N734">
         <v>0.5</v>
@@ -32748,7 +32748,7 @@
         <v>-0.1911435320615893</v>
       </c>
       <c r="L735">
-        <v>0.03560886311188406</v>
+        <v>0.03560886311188358</v>
       </c>
       <c r="M735">
         <v>0</v>
@@ -32792,7 +32792,7 @@
         <v>-0.1967576367028973</v>
       </c>
       <c r="L736">
-        <v>-0.1657463764529244</v>
+        <v>-0.1657463764529255</v>
       </c>
       <c r="M736">
         <v>1</v>
@@ -32836,7 +32836,7 @@
         <v>-0.1952732165591045</v>
       </c>
       <c r="L737">
-        <v>-0.2243258472891895</v>
+        <v>-0.22432584728919</v>
       </c>
       <c r="M737">
         <v>1</v>
@@ -32880,7 +32880,7 @@
         <v>-0.1968117885565845</v>
       </c>
       <c r="L738">
-        <v>-0.3426926590572514</v>
+        <v>-0.3426926590572513</v>
       </c>
       <c r="M738">
         <v>1</v>
@@ -32924,7 +32924,7 @@
         <v>-0.2061145981290198</v>
       </c>
       <c r="L739">
-        <v>-0.5713155245117089</v>
+        <v>-0.5713155245117086</v>
       </c>
       <c r="M739">
         <v>1</v>
@@ -32968,7 +32968,7 @@
         <v>-0.204866551925148</v>
       </c>
       <c r="L740">
-        <v>-0.7033511786297283</v>
+        <v>-0.7033511786297275</v>
       </c>
       <c r="M740">
         <v>1</v>
@@ -33012,10 +33012,10 @@
         <v>-0.203854607004866</v>
       </c>
       <c r="L741">
-        <v>-0.6750634193338255</v>
+        <v>-0.6750634193338256</v>
       </c>
       <c r="M741">
-        <v>0.9473818701370162</v>
+        <v>0.9473818701370177</v>
       </c>
       <c r="N741">
         <v>0.5</v>
@@ -33056,7 +33056,7 @@
         <v>-0.1966400235286202</v>
       </c>
       <c r="L742">
-        <v>-0.7825867295539309</v>
+        <v>-0.7825867295539315</v>
       </c>
       <c r="M742">
         <v>1</v>
@@ -33144,10 +33144,10 @@
         <v>-0.183583666983398</v>
       </c>
       <c r="L744">
-        <v>-0.774776013627969</v>
+        <v>-0.7747760136279684</v>
       </c>
       <c r="M744">
-        <v>0.6734373086996265</v>
+        <v>0.6734373086996255</v>
       </c>
       <c r="N744">
         <v>0.5</v>
@@ -33188,7 +33188,7 @@
         <v>-0.1885295932280062</v>
       </c>
       <c r="L745">
-        <v>-1.088153448431641</v>
+        <v>-1.088153448431642</v>
       </c>
       <c r="M745">
         <v>1</v>
@@ -33232,7 +33232,7 @@
         <v>-0.1851475906726213</v>
       </c>
       <c r="L746">
-        <v>-1.303677481583225</v>
+        <v>-1.303677481583226</v>
       </c>
       <c r="M746">
         <v>1</v>
@@ -33364,7 +33364,7 @@
         <v>-0.2088148936854369</v>
       </c>
       <c r="L749">
-        <v>-2.147225630998424</v>
+        <v>-2.147225630998425</v>
       </c>
       <c r="M749">
         <v>1</v>
@@ -33408,10 +33408,10 @@
         <v>-0.1647335771818745</v>
       </c>
       <c r="L750">
-        <v>-1.093683699680202</v>
+        <v>-1.093683699680204</v>
       </c>
       <c r="M750">
-        <v>0.2843574417475612</v>
+        <v>0.2843574417475617</v>
       </c>
       <c r="N750">
         <v>0.5</v>
@@ -33452,10 +33452,10 @@
         <v>-0.1686255383477184</v>
       </c>
       <c r="L751">
-        <v>-1.328137231432608</v>
+        <v>-1.32813723143261</v>
       </c>
       <c r="M751">
-        <v>0.4031923728208338</v>
+        <v>0.4031923728208354</v>
       </c>
       <c r="N751">
         <v>0.5</v>
@@ -33496,10 +33496,10 @@
         <v>-0.2103236661545956</v>
       </c>
       <c r="L752">
-        <v>-1.850950378286133</v>
+        <v>-1.850950378286134</v>
       </c>
       <c r="M752">
-        <v>0.78412668198346</v>
+        <v>0.7841266819834605</v>
       </c>
       <c r="N752">
         <v>0.5</v>
@@ -33540,7 +33540,7 @@
         <v>-0.2207005511452187</v>
       </c>
       <c r="L753">
-        <v>-2.155960120725227</v>
+        <v>-2.155960120725226</v>
       </c>
       <c r="M753">
         <v>1</v>
@@ -33584,7 +33584,7 @@
         <v>-0.2186049700338116</v>
       </c>
       <c r="L754">
-        <v>-2.361219129824932</v>
+        <v>-2.361219129824931</v>
       </c>
       <c r="M754">
         <v>1</v>
@@ -33672,10 +33672,10 @@
         <v>-0.216217338261312</v>
       </c>
       <c r="L756">
-        <v>-2.344185845426796</v>
+        <v>-2.344185845426797</v>
       </c>
       <c r="M756">
-        <v>0.9303507590285693</v>
+        <v>0.9303507590285702</v>
       </c>
       <c r="N756">
         <v>0.5</v>
@@ -33716,10 +33716,10 @@
         <v>-0.2051427114967631</v>
       </c>
       <c r="L757">
-        <v>-2.13236536167011</v>
+        <v>-2.132365361670109</v>
       </c>
       <c r="M757">
-        <v>0.7727601875040596</v>
+        <v>0.7727601875040588</v>
       </c>
       <c r="N757">
         <v>0.5</v>
@@ -33760,10 +33760,10 @@
         <v>-0.2033444803500454</v>
       </c>
       <c r="L758">
-        <v>-2.194058798076645</v>
+        <v>-2.194058798076647</v>
       </c>
       <c r="M758">
-        <v>0.8186589775086405</v>
+        <v>0.8186589775086416</v>
       </c>
       <c r="N758">
         <v>0.5</v>
@@ -33807,7 +33807,7 @@
         <v>-2.272163426667887</v>
       </c>
       <c r="M759">
-        <v>0.8767673947877835</v>
+        <v>0.8767673947877831</v>
       </c>
       <c r="N759">
         <v>0.5</v>
@@ -33842,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="J760">
-        <v>-9.278395957555058e-05</v>
+        <v>-9.278395957555058E-05</v>
       </c>
       <c r="K760">
         <v>-0.1795519399228154</v>
@@ -33851,7 +33851,7 @@
         <v>-1.792351062339446</v>
       </c>
       <c r="M760">
-        <v>0.4183367311613103</v>
+        <v>0.4183367311613094</v>
       </c>
       <c r="N760">
         <v>0.5</v>
@@ -33892,10 +33892,10 @@
         <v>-0.1796364578775508</v>
       </c>
       <c r="L761">
-        <v>-1.823118480130607</v>
+        <v>-1.823118480130608</v>
       </c>
       <c r="M761">
-        <v>0.04766804404923949</v>
+        <v>0.04766804404924019</v>
       </c>
       <c r="N761">
         <v>0.5</v>
@@ -33936,7 +33936,7 @@
         <v>-0.1515286029849774</v>
       </c>
       <c r="L762">
-        <v>-1.644925747825834</v>
+        <v>-1.644925747825831</v>
       </c>
       <c r="M762">
         <v>0</v>
@@ -33980,10 +33980,10 @@
         <v>-0.06868992015360152</v>
       </c>
       <c r="L763">
-        <v>-1.81170871518814</v>
+        <v>-1.811708715188139</v>
       </c>
       <c r="M763">
-        <v>0.2103516363236641</v>
+        <v>0.2103516363236668</v>
       </c>
       <c r="N763">
         <v>0.5</v>
@@ -34024,7 +34024,7 @@
         <v>-0.07624943961251629</v>
       </c>
       <c r="L764">
-        <v>-1.641063981104345</v>
+        <v>-1.641063981104346</v>
       </c>
       <c r="M764">
         <v>0</v>
@@ -34068,10 +34068,10 @@
         <v>-0.02288928753930439</v>
       </c>
       <c r="L765">
-        <v>-1.831404407345834</v>
+        <v>-1.831404407345833</v>
       </c>
       <c r="M765">
-        <v>0.2707075912436688</v>
+        <v>0.270707591243667</v>
       </c>
       <c r="N765">
         <v>0.5</v>
@@ -34112,7 +34112,7 @@
         <v>-0.05221928535154002</v>
       </c>
       <c r="L766">
-        <v>-1.581741276593526</v>
+        <v>-1.581741276593527</v>
       </c>
       <c r="M766">
         <v>0</v>
@@ -34156,7 +34156,7 @@
         <v>-0.06619135961655069</v>
       </c>
       <c r="L767">
-        <v>-1.559334387388436</v>
+        <v>-1.559334387388435</v>
       </c>
       <c r="M767">
         <v>0</v>
@@ -34200,7 +34200,7 @@
         <v>-0.06574128982987523</v>
       </c>
       <c r="L768">
-        <v>-1.33812256668134</v>
+        <v>-1.338122566681341</v>
       </c>
       <c r="M768">
         <v>0</v>
@@ -34244,7 +34244,7 @@
         <v>-0.05563321321698965</v>
       </c>
       <c r="L769">
-        <v>-0.9488659881150928</v>
+        <v>-0.9488659881150933</v>
       </c>
       <c r="M769">
         <v>0</v>
@@ -34288,7 +34288,7 @@
         <v>-0.07587510419774099</v>
       </c>
       <c r="L770">
-        <v>-0.893073767284232</v>
+        <v>-0.8930737672842322</v>
       </c>
       <c r="M770">
         <v>0</v>
@@ -34332,7 +34332,7 @@
         <v>-0.075181974456327</v>
       </c>
       <c r="L771">
-        <v>-0.7516115966185208</v>
+        <v>-0.7516115966185206</v>
       </c>
       <c r="M771">
         <v>0</v>
@@ -34376,7 +34376,7 @@
         <v>-0.06095110546049964</v>
       </c>
       <c r="L772">
-        <v>-0.6917407871537113</v>
+        <v>-0.6917407871537115</v>
       </c>
       <c r="M772">
         <v>0</v>
@@ -34420,7 +34420,7 @@
         <v>0.06379339748901534</v>
       </c>
       <c r="L773">
-        <v>-0.2544919428389992</v>
+        <v>-0.2544919428389996</v>
       </c>
       <c r="M773">
         <v>0</v>
@@ -34464,10 +34464,10 @@
         <v>0.03400959962575669</v>
       </c>
       <c r="L774">
-        <v>-1.115753729915009</v>
+        <v>-1.115753729915008</v>
       </c>
       <c r="M774">
-        <v>0.5461696869428715</v>
+        <v>0.5461696869428713</v>
       </c>
       <c r="N774">
         <v>0.5</v>
@@ -34508,10 +34508,10 @@
         <v>0.03354459414748329</v>
       </c>
       <c r="L775">
-        <v>-0.9514055491347625</v>
+        <v>-0.9514055491347621</v>
       </c>
       <c r="M775">
-        <v>0.5250811498426843</v>
+        <v>0.5250811498426829</v>
       </c>
       <c r="N775">
         <v>0.5</v>
@@ -34552,10 +34552,10 @@
         <v>-0.01736280141542879</v>
       </c>
       <c r="L776">
-        <v>-0.5032923569890498</v>
+        <v>-0.5032923569890495</v>
       </c>
       <c r="M776">
-        <v>0.1906746789157074</v>
+        <v>0.1906746789157071</v>
       </c>
       <c r="N776">
         <v>0.5</v>
@@ -34596,10 +34596,10 @@
         <v>-0.02498549806518665</v>
       </c>
       <c r="L777">
-        <v>-0.4661006263129806</v>
+        <v>-0.4661006263129811</v>
       </c>
       <c r="M777">
-        <v>0.1952775039926969</v>
+        <v>0.195277503992697</v>
       </c>
       <c r="N777">
         <v>0.5</v>
@@ -34640,10 +34640,10 @@
         <v>-0.03188677618601139</v>
       </c>
       <c r="L778">
-        <v>-0.624413264958693</v>
+        <v>-0.6244132649586935</v>
       </c>
       <c r="M778">
-        <v>0.4295108963043391</v>
+        <v>0.4295108963043397</v>
       </c>
       <c r="N778">
         <v>0.5</v>
@@ -34684,10 +34684,10 @@
         <v>-0.04166043519053726</v>
       </c>
       <c r="L779">
-        <v>-0.6777283503161088</v>
+        <v>-0.6777283503161093</v>
       </c>
       <c r="M779">
-        <v>0.4914143572002659</v>
+        <v>0.4914143572002665</v>
       </c>
       <c r="N779">
         <v>0.5</v>
@@ -34728,10 +34728,10 @@
         <v>-0.04790091960968261</v>
       </c>
       <c r="L780">
-        <v>-0.8354657439141248</v>
+        <v>-0.8354657439141246</v>
       </c>
       <c r="M780">
-        <v>0.6745612191242526</v>
+        <v>0.6745612191242527</v>
       </c>
       <c r="N780">
         <v>0.5</v>
@@ -34775,7 +34775,7 @@
         <v>-0.950034453671574</v>
       </c>
       <c r="M781">
-        <v>0.8075854766457792</v>
+        <v>0.8075854766457794</v>
       </c>
       <c r="N781">
         <v>0.5</v>
@@ -34816,10 +34816,10 @@
         <v>-0.0530244439607568</v>
       </c>
       <c r="L782">
-        <v>-0.8185204027139529</v>
+        <v>-0.8185204027139518</v>
       </c>
       <c r="M782">
-        <v>0.6548862010815951</v>
+        <v>0.6548862010815939</v>
       </c>
       <c r="N782">
         <v>0.5</v>
@@ -34860,10 +34860,10 @@
         <v>-0.05080295281608285</v>
       </c>
       <c r="L783">
-        <v>-0.472608322252219</v>
+        <v>-0.4726083222522193</v>
       </c>
       <c r="M783">
-        <v>0.01001718594609378</v>
+        <v>0.01001718594609337</v>
       </c>
       <c r="N783">
         <v>0.5</v>
@@ -34904,7 +34904,7 @@
         <v>-0.05319264435690556</v>
       </c>
       <c r="L784">
-        <v>-0.4231696350527692</v>
+        <v>-0.4231696350527691</v>
       </c>
       <c r="M784">
         <v>0</v>
@@ -34948,7 +34948,7 @@
         <v>-0.05199218707763496</v>
       </c>
       <c r="L785">
-        <v>-0.3563422189917713</v>
+        <v>-0.3563422189917718</v>
       </c>
       <c r="M785">
         <v>0</v>
@@ -35036,10 +35036,10 @@
         <v>-0.03893990809554924</v>
       </c>
       <c r="L787">
-        <v>-0.3842756753928119</v>
+        <v>-0.3842756753928118</v>
       </c>
       <c r="M787">
-        <v>0.1788037025786312</v>
+        <v>0.178803702578631</v>
       </c>
       <c r="N787">
         <v>0.5</v>
@@ -35080,10 +35080,10 @@
         <v>-0.04582392832244832</v>
       </c>
       <c r="L788">
-        <v>-0.293175912768938</v>
+        <v>-0.2931759127689384</v>
       </c>
       <c r="M788">
-        <v>0.04657281083658588</v>
+        <v>0.04657281083658645</v>
       </c>
       <c r="N788">
         <v>0.5</v>
@@ -35124,10 +35124,10 @@
         <v>-0.03438287822754503</v>
       </c>
       <c r="L789">
-        <v>-0.4945316826288915</v>
+        <v>-0.4945316826288911</v>
       </c>
       <c r="M789">
-        <v>0.3388397963820581</v>
+        <v>0.3388397963820577</v>
       </c>
       <c r="N789">
         <v>0.5</v>
@@ -35168,10 +35168,10 @@
         <v>-0.005459229454303023</v>
       </c>
       <c r="L790">
-        <v>-0.4689478106590135</v>
+        <v>-0.4689478106590138</v>
       </c>
       <c r="M790">
-        <v>0.3017049224004575</v>
+        <v>0.3017049224004579</v>
       </c>
       <c r="N790">
         <v>0.5</v>
@@ -35212,10 +35212,10 @@
         <v>-0.002433013837222307</v>
       </c>
       <c r="L791">
-        <v>-0.4171489602543747</v>
+        <v>-0.4171489602543752</v>
       </c>
       <c r="M791">
-        <v>0.2799615621539727</v>
+        <v>0.2799615621539742</v>
       </c>
       <c r="N791">
         <v>0.5</v>
@@ -35256,10 +35256,10 @@
         <v>0.0001302055671950318</v>
       </c>
       <c r="L792">
-        <v>-0.4133074212227679</v>
+        <v>-0.4133074212227678</v>
       </c>
       <c r="M792">
-        <v>0.6520578520279973</v>
+        <v>0.6520578520279977</v>
       </c>
       <c r="N792">
         <v>0.5</v>
@@ -35300,7 +35300,7 @@
         <v>0.02289506724314271</v>
       </c>
       <c r="L793">
-        <v>-0.5349077730934662</v>
+        <v>-0.5349077730934668</v>
       </c>
       <c r="M793">
         <v>1</v>
@@ -35344,10 +35344,10 @@
         <v>0.03769827572465635</v>
       </c>
       <c r="L794">
-        <v>-0.4221981376322474</v>
+        <v>-0.4221981376322481</v>
       </c>
       <c r="M794">
-        <v>0.5883774741457902</v>
+        <v>0.5883774741457912</v>
       </c>
       <c r="N794">
         <v>0.5</v>
@@ -35391,7 +35391,7 @@
         <v>-0.3423671522659181</v>
       </c>
       <c r="M795">
-        <v>0.2968298020816259</v>
+        <v>0.296829802081625</v>
       </c>
       <c r="N795">
         <v>0.5</v>
@@ -35432,7 +35432,7 @@
         <v>-0.033132164748912</v>
       </c>
       <c r="L796">
-        <v>-0.03295545618810703</v>
+        <v>-0.03295545618810665</v>
       </c>
       <c r="M796">
         <v>0</v>
@@ -35476,7 +35476,7 @@
         <v>-0.03403381892481019</v>
       </c>
       <c r="L797">
-        <v>-0.01152084111406542</v>
+        <v>-0.01152084111406561</v>
       </c>
       <c r="M797">
         <v>0</v>
@@ -35520,7 +35520,7 @@
         <v>-0.04244911261307395</v>
       </c>
       <c r="L798">
-        <v>0.02909485563196984</v>
+        <v>0.02909485563197</v>
       </c>
       <c r="M798">
         <v>1</v>
@@ -35564,7 +35564,7 @@
         <v>-0.03811257720989966</v>
       </c>
       <c r="L799">
-        <v>0.1710081766998935</v>
+        <v>0.1710081766998934</v>
       </c>
       <c r="M799">
         <v>1</v>
@@ -35608,7 +35608,7 @@
         <v>-0.03674843530231103</v>
       </c>
       <c r="L800">
-        <v>0.2274653455108084</v>
+        <v>0.227465345510808</v>
       </c>
       <c r="M800">
         <v>1</v>
@@ -35652,10 +35652,10 @@
         <v>-0.04064269007055345</v>
       </c>
       <c r="L801">
-        <v>0.1181773602178577</v>
+        <v>0.1181773602178578</v>
       </c>
       <c r="M801">
-        <v>0.4490713545159766</v>
+        <v>0.4490713545159773</v>
       </c>
       <c r="N801">
         <v>0.5</v>
@@ -35696,7 +35696,7 @@
         <v>-0.05417559583179464</v>
       </c>
       <c r="L802">
-        <v>0.2974577958031205</v>
+        <v>0.29745779580312</v>
       </c>
       <c r="M802">
         <v>1</v>
@@ -35740,10 +35740,10 @@
         <v>-0.06540122913829922</v>
       </c>
       <c r="L803">
-        <v>0.2348198591690331</v>
+        <v>0.2348198591690334</v>
       </c>
       <c r="M803">
-        <v>0.7665924490388293</v>
+        <v>0.7665924490388318</v>
       </c>
       <c r="N803">
         <v>0.5</v>
@@ -35787,7 +35787,7 @@
         <v>0.1936910291600827</v>
       </c>
       <c r="M804">
-        <v>0.6133342160550941</v>
+        <v>0.6133342160550953</v>
       </c>
       <c r="N804">
         <v>0.5</v>
@@ -35828,7 +35828,7 @@
         <v>-0.1139146593166543</v>
       </c>
       <c r="L805">
-        <v>-0.109110284414929</v>
+        <v>-0.1091102844149291</v>
       </c>
       <c r="M805">
         <v>1</v>
@@ -35872,10 +35872,10 @@
         <v>-0.114417097675233</v>
       </c>
       <c r="L806">
-        <v>-0.0512096276001047</v>
+        <v>-0.05120962760010472</v>
       </c>
       <c r="M806">
-        <v>0.4066913914415995</v>
+        <v>0.406691391441598</v>
       </c>
       <c r="N806">
         <v>0.5</v>
@@ -35916,10 +35916,10 @@
         <v>-0.08791622620328297</v>
       </c>
       <c r="L807">
-        <v>0.05550936539544945</v>
+        <v>0.05550936539544925</v>
       </c>
       <c r="M807">
-        <v>0.09842830663069028</v>
+        <v>0.09842830663068917</v>
       </c>
       <c r="N807">
         <v>0.5</v>
@@ -35960,10 +35960,10 @@
         <v>-0.06994085266670474</v>
       </c>
       <c r="L808">
-        <v>0.05917068674230731</v>
+        <v>0.05917068674230691</v>
       </c>
       <c r="M808">
-        <v>0.01513265178322799</v>
+        <v>0.01513265178322721</v>
       </c>
       <c r="N808">
         <v>0.5</v>
@@ -36004,7 +36004,7 @@
         <v>-0.07443086533416021</v>
       </c>
       <c r="L809">
-        <v>0.01399638077379258</v>
+        <v>0.01399638077379275</v>
       </c>
       <c r="M809">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>-0.0661187593260027</v>
       </c>
       <c r="L810">
-        <v>-0.02683301625877109</v>
+        <v>-0.02683301625877095</v>
       </c>
       <c r="M810">
         <v>0</v>
@@ -36092,7 +36092,7 @@
         <v>-0.08889308457289322</v>
       </c>
       <c r="L811">
-        <v>-0.1675068897595826</v>
+        <v>-0.1675068897595839</v>
       </c>
       <c r="M811">
         <v>1</v>
@@ -36136,10 +36136,10 @@
         <v>-0.1224682784803308</v>
       </c>
       <c r="L812">
-        <v>-0.09720419561779571</v>
+        <v>-0.0972041956177967</v>
       </c>
       <c r="M812">
-        <v>0.5002434183958023</v>
+        <v>0.5002434183958051</v>
       </c>
       <c r="N812">
         <v>0.5</v>
@@ -36180,10 +36180,10 @@
         <v>-0.1669866063635413</v>
       </c>
       <c r="L813">
-        <v>-0.1464219378486589</v>
+        <v>-0.1464219378486582</v>
       </c>
       <c r="M813">
-        <v>0.8501146560750524</v>
+        <v>0.8501146560750394</v>
       </c>
       <c r="N813">
         <v>0.5</v>
@@ -36224,10 +36224,10 @@
         <v>-0.1854387819118458</v>
       </c>
       <c r="L814">
-        <v>-0.1462677524613593</v>
+        <v>-0.1462677524613594</v>
       </c>
       <c r="M814">
-        <v>0.8490186075803142</v>
+        <v>0.8490186075803068</v>
       </c>
       <c r="N814">
         <v>0.5</v>
@@ -36268,10 +36268,10 @@
         <v>-0.1888669917830772</v>
       </c>
       <c r="L815">
-        <v>-0.1303877832032369</v>
+        <v>-0.1303877832032371</v>
       </c>
       <c r="M815">
-        <v>0.7361336143478584</v>
+        <v>0.7361336143478532</v>
       </c>
       <c r="N815">
         <v>0.5</v>
@@ -36312,10 +36312,10 @@
         <v>-0.1630197239410965</v>
       </c>
       <c r="L816">
-        <v>-0.1531291686440229</v>
+        <v>-0.153129168644023</v>
       </c>
       <c r="M816">
-        <v>0.8977939488139793</v>
+        <v>0.8977939488139721</v>
       </c>
       <c r="N816">
         <v>0.5</v>
@@ -36359,7 +36359,7 @@
         <v>-0.1643593752705126</v>
       </c>
       <c r="M817">
-        <v>0.9776254509046993</v>
+        <v>0.9776254509046901</v>
       </c>
       <c r="N817">
         <v>0.5</v>
@@ -36400,10 +36400,10 @@
         <v>-0.1924219986290436</v>
       </c>
       <c r="L818">
-        <v>-0.1499366648898284</v>
+        <v>-0.1499366648898288</v>
       </c>
       <c r="M818">
-        <v>0.875099587204778</v>
+        <v>0.8750995872047724</v>
       </c>
       <c r="N818">
         <v>0.5</v>
@@ -36447,7 +36447,7 @@
         <v>-0.1249133866155905</v>
       </c>
       <c r="M819">
-        <v>0.6972180968362518</v>
+        <v>0.6972180968362454</v>
       </c>
       <c r="N819">
         <v>0.5</v>
